--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SWDBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3539600</v>
+        <v>3718100</v>
       </c>
       <c r="E8" s="3">
-        <v>3345300</v>
+        <v>3580200</v>
       </c>
       <c r="F8" s="3">
-        <v>3260400</v>
+        <v>3383600</v>
       </c>
       <c r="G8" s="3">
-        <v>3635800</v>
+        <v>3297700</v>
       </c>
       <c r="H8" s="3">
-        <v>4266500</v>
+        <v>3677400</v>
       </c>
       <c r="I8" s="3">
-        <v>4569600</v>
+        <v>4315400</v>
       </c>
       <c r="J8" s="3">
+        <v>4621900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5248800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6082100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-71300</v>
+        <v>-163000</v>
       </c>
       <c r="E15" s="3">
-        <v>-91000</v>
+        <v>-72100</v>
       </c>
       <c r="F15" s="3">
-        <v>-65400</v>
+        <v>-92100</v>
       </c>
       <c r="G15" s="3">
-        <v>-69800</v>
+        <v>-66100</v>
       </c>
       <c r="H15" s="3">
-        <v>-74600</v>
+        <v>-70600</v>
       </c>
       <c r="I15" s="3">
-        <v>-76800</v>
+        <v>-75500</v>
       </c>
       <c r="J15" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-207900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-114800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>971800</v>
+        <v>1140600</v>
       </c>
       <c r="E17" s="3">
-        <v>922700</v>
+        <v>983000</v>
       </c>
       <c r="F17" s="3">
-        <v>1027700</v>
+        <v>933300</v>
       </c>
       <c r="G17" s="3">
-        <v>1307900</v>
+        <v>1039400</v>
       </c>
       <c r="H17" s="3">
-        <v>1956900</v>
+        <v>1322800</v>
       </c>
       <c r="I17" s="3">
-        <v>2286400</v>
+        <v>1979300</v>
       </c>
       <c r="J17" s="3">
+        <v>2312500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3113400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3706700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2567800</v>
+        <v>2577500</v>
       </c>
       <c r="E18" s="3">
-        <v>2422600</v>
+        <v>2597200</v>
       </c>
       <c r="F18" s="3">
-        <v>2232700</v>
+        <v>2450300</v>
       </c>
       <c r="G18" s="3">
-        <v>2327900</v>
+        <v>2258300</v>
       </c>
       <c r="H18" s="3">
-        <v>2309600</v>
+        <v>2354600</v>
       </c>
       <c r="I18" s="3">
-        <v>2283200</v>
+        <v>2336100</v>
       </c>
       <c r="J18" s="3">
+        <v>2309400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2135300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2375400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>191800</v>
+        <v>-10500</v>
       </c>
       <c r="E20" s="3">
-        <v>103600</v>
+        <v>193900</v>
       </c>
       <c r="F20" s="3">
-        <v>236800</v>
+        <v>104800</v>
       </c>
       <c r="G20" s="3">
-        <v>-210800</v>
+        <v>239500</v>
       </c>
       <c r="H20" s="3">
-        <v>-124400</v>
+        <v>-213200</v>
       </c>
       <c r="I20" s="3">
-        <v>-271700</v>
+        <v>-125800</v>
       </c>
       <c r="J20" s="3">
+        <v>-274800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-112200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-624600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2863200</v>
+        <v>2737600</v>
       </c>
       <c r="E21" s="3">
-        <v>2607200</v>
+        <v>2894700</v>
       </c>
       <c r="F21" s="3">
-        <v>2538800</v>
+        <v>2636000</v>
       </c>
       <c r="G21" s="3">
-        <v>2214800</v>
+        <v>2567000</v>
       </c>
       <c r="H21" s="3">
-        <v>2265400</v>
+        <v>2239000</v>
       </c>
       <c r="I21" s="3">
-        <v>2136900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>2290300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2159800</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>2103400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2759500</v>
+        <v>2567000</v>
       </c>
       <c r="E23" s="3">
-        <v>2526200</v>
+        <v>2791100</v>
       </c>
       <c r="F23" s="3">
-        <v>2469500</v>
+        <v>2555200</v>
       </c>
       <c r="G23" s="3">
-        <v>2117200</v>
+        <v>2497800</v>
       </c>
       <c r="H23" s="3">
-        <v>2185200</v>
+        <v>2141400</v>
       </c>
       <c r="I23" s="3">
-        <v>2011600</v>
+        <v>2210300</v>
       </c>
       <c r="J23" s="3">
+        <v>2034600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2023100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1750800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>558500</v>
+        <v>495200</v>
       </c>
       <c r="E24" s="3">
-        <v>513700</v>
+        <v>564900</v>
       </c>
       <c r="F24" s="3">
-        <v>437400</v>
+        <v>519600</v>
       </c>
       <c r="G24" s="3">
-        <v>480700</v>
+        <v>442500</v>
       </c>
       <c r="H24" s="3">
-        <v>447000</v>
+        <v>486200</v>
       </c>
       <c r="I24" s="3">
-        <v>426000</v>
+        <v>452100</v>
       </c>
       <c r="J24" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K24" s="3">
         <v>432000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>416500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2201000</v>
+        <v>2071800</v>
       </c>
       <c r="E26" s="3">
-        <v>2012500</v>
+        <v>2226200</v>
       </c>
       <c r="F26" s="3">
-        <v>2032000</v>
+        <v>2035500</v>
       </c>
       <c r="G26" s="3">
-        <v>1636500</v>
+        <v>2055300</v>
       </c>
       <c r="H26" s="3">
-        <v>1738200</v>
+        <v>1655200</v>
       </c>
       <c r="I26" s="3">
-        <v>1585600</v>
+        <v>1758100</v>
       </c>
       <c r="J26" s="3">
+        <v>1603700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1591100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1334300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2199400</v>
+        <v>2070500</v>
       </c>
       <c r="E27" s="3">
-        <v>2011000</v>
+        <v>2224500</v>
       </c>
       <c r="F27" s="3">
-        <v>2030700</v>
+        <v>2034100</v>
       </c>
       <c r="G27" s="3">
-        <v>1635100</v>
+        <v>2053900</v>
       </c>
       <c r="H27" s="3">
-        <v>1736600</v>
+        <v>1653900</v>
       </c>
       <c r="I27" s="3">
-        <v>1405000</v>
+        <v>1756500</v>
       </c>
       <c r="J27" s="3">
+        <v>1421100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1485600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1219900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,27 +1358,30 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-600</v>
       </c>
-      <c r="H29" s="3">
-        <v>-27200</v>
-      </c>
       <c r="I29" s="3">
-        <v>-243200</v>
+        <v>-27500</v>
       </c>
       <c r="J29" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-104300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-191800</v>
+        <v>10500</v>
       </c>
       <c r="E32" s="3">
-        <v>-103600</v>
+        <v>-193900</v>
       </c>
       <c r="F32" s="3">
-        <v>-236800</v>
+        <v>-104800</v>
       </c>
       <c r="G32" s="3">
-        <v>210800</v>
+        <v>-239500</v>
       </c>
       <c r="H32" s="3">
-        <v>124400</v>
+        <v>213200</v>
       </c>
       <c r="I32" s="3">
-        <v>271700</v>
+        <v>125800</v>
       </c>
       <c r="J32" s="3">
+        <v>274800</v>
+      </c>
+      <c r="K32" s="3">
         <v>112200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>624600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2199400</v>
+        <v>2070500</v>
       </c>
       <c r="E33" s="3">
-        <v>2011000</v>
+        <v>2224500</v>
       </c>
       <c r="F33" s="3">
-        <v>2030700</v>
+        <v>2034100</v>
       </c>
       <c r="G33" s="3">
-        <v>1634500</v>
+        <v>2053900</v>
       </c>
       <c r="H33" s="3">
-        <v>1709300</v>
+        <v>1653200</v>
       </c>
       <c r="I33" s="3">
-        <v>1161800</v>
+        <v>1728900</v>
       </c>
       <c r="J33" s="3">
+        <v>1175100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1381200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1220200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2199400</v>
+        <v>2070500</v>
       </c>
       <c r="E35" s="3">
-        <v>2011000</v>
+        <v>2224500</v>
       </c>
       <c r="F35" s="3">
-        <v>2030700</v>
+        <v>2034100</v>
       </c>
       <c r="G35" s="3">
-        <v>1634500</v>
+        <v>2053900</v>
       </c>
       <c r="H35" s="3">
-        <v>1709300</v>
+        <v>1653200</v>
       </c>
       <c r="I35" s="3">
-        <v>1161800</v>
+        <v>1728900</v>
       </c>
       <c r="J35" s="3">
+        <v>1175100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1381200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1220200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20318600</v>
+        <v>25099900</v>
       </c>
       <c r="E41" s="3">
-        <v>23623800</v>
+        <v>20780000</v>
       </c>
       <c r="F41" s="3">
-        <v>15869300</v>
+        <v>24160200</v>
       </c>
       <c r="G41" s="3">
-        <v>28164100</v>
+        <v>16229600</v>
       </c>
       <c r="H41" s="3">
-        <v>21837700</v>
+        <v>28803600</v>
       </c>
       <c r="I41" s="3">
-        <v>22471700</v>
+        <v>22333500</v>
       </c>
       <c r="J41" s="3">
+        <v>22982000</v>
+      </c>
+      <c r="K41" s="3">
         <v>29623700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159111000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37913700</v>
+        <v>49123500</v>
       </c>
       <c r="E42" s="3">
-        <v>38559400</v>
+        <v>38774600</v>
       </c>
       <c r="F42" s="3">
-        <v>52107200</v>
+        <v>39435000</v>
       </c>
       <c r="G42" s="3">
-        <v>46686500</v>
+        <v>53290400</v>
       </c>
       <c r="H42" s="3">
-        <v>54788500</v>
+        <v>47746600</v>
       </c>
       <c r="I42" s="3">
-        <v>44826800</v>
+        <v>56032600</v>
       </c>
       <c r="J42" s="3">
+        <v>45844700</v>
+      </c>
+      <c r="K42" s="3">
         <v>42847600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>632700</v>
+        <v>709900</v>
       </c>
       <c r="E47" s="3">
-        <v>660700</v>
+        <v>647100</v>
       </c>
       <c r="F47" s="3">
-        <v>760700</v>
+        <v>675700</v>
       </c>
       <c r="G47" s="3">
-        <v>559400</v>
+        <v>777900</v>
       </c>
       <c r="H47" s="3">
-        <v>511800</v>
+        <v>572100</v>
       </c>
       <c r="I47" s="3">
-        <v>378300</v>
+        <v>523400</v>
       </c>
       <c r="J47" s="3">
+        <v>386900</v>
+      </c>
+      <c r="K47" s="3">
         <v>369200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>353200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>204300</v>
+        <v>592200</v>
       </c>
       <c r="E48" s="3">
-        <v>203200</v>
+        <v>209000</v>
       </c>
       <c r="F48" s="3">
-        <v>193700</v>
+        <v>207800</v>
       </c>
       <c r="G48" s="3">
-        <v>206700</v>
+        <v>198100</v>
       </c>
       <c r="H48" s="3">
-        <v>285800</v>
+        <v>211400</v>
       </c>
       <c r="I48" s="3">
-        <v>794900</v>
+        <v>292300</v>
       </c>
       <c r="J48" s="3">
+        <v>812900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1461500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>941400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1779100</v>
+        <v>1898800</v>
       </c>
       <c r="E49" s="3">
-        <v>1697100</v>
+        <v>1819500</v>
       </c>
       <c r="F49" s="3">
-        <v>1484000</v>
+        <v>1735600</v>
       </c>
       <c r="G49" s="3">
-        <v>1422800</v>
+        <v>1517700</v>
       </c>
       <c r="H49" s="3">
-        <v>1488200</v>
+        <v>1455100</v>
       </c>
       <c r="I49" s="3">
-        <v>1616700</v>
+        <v>1522000</v>
       </c>
       <c r="J49" s="3">
+        <v>1653400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4190500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1566500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3">
-        <v>18000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>167700</v>
-      </c>
       <c r="H52" s="3">
-        <v>130200</v>
+        <v>171600</v>
       </c>
       <c r="I52" s="3">
-        <v>236900</v>
+        <v>133200</v>
       </c>
       <c r="J52" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K52" s="3">
         <v>89900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233436000</v>
+        <v>255971000</v>
       </c>
       <c r="E54" s="3">
-        <v>229959000</v>
+        <v>238737000</v>
       </c>
       <c r="F54" s="3">
-        <v>223886000</v>
+        <v>235181000</v>
       </c>
       <c r="G54" s="3">
-        <v>223331000</v>
+        <v>228970000</v>
       </c>
       <c r="H54" s="3">
-        <v>220466000</v>
+        <v>228402000</v>
       </c>
       <c r="I54" s="3">
-        <v>189579000</v>
+        <v>225473000</v>
       </c>
       <c r="J54" s="3">
+        <v>193884000</v>
+      </c>
+      <c r="K54" s="3">
         <v>191944000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>210814000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,19 +2137,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>691600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>707300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2028,78 +2158,87 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>1113900</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1365400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21436100</v>
+        <v>32900800</v>
       </c>
       <c r="E58" s="3">
-        <v>26668300</v>
+        <v>21922800</v>
       </c>
       <c r="F58" s="3">
-        <v>28406600</v>
+        <v>27273900</v>
       </c>
       <c r="G58" s="3">
-        <v>22698300</v>
+        <v>29051600</v>
       </c>
       <c r="H58" s="3">
-        <v>33616700</v>
+        <v>23213700</v>
       </c>
       <c r="I58" s="3">
-        <v>24219200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>34380000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>24769200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>537600</v>
+        <v>554700</v>
       </c>
       <c r="E59" s="3">
-        <v>517200</v>
+        <v>549800</v>
       </c>
       <c r="F59" s="3">
-        <v>1237700</v>
+        <v>528900</v>
       </c>
       <c r="G59" s="3">
-        <v>1387300</v>
+        <v>1265800</v>
       </c>
       <c r="H59" s="3">
-        <v>1512000</v>
+        <v>1418800</v>
       </c>
       <c r="I59" s="3">
-        <v>1671900</v>
+        <v>1546300</v>
       </c>
       <c r="J59" s="3">
+        <v>1709900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1887400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2166400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65780400</v>
+        <v>62990900</v>
       </c>
       <c r="E61" s="3">
-        <v>64625800</v>
+        <v>67274100</v>
       </c>
       <c r="F61" s="3">
-        <v>63034400</v>
+        <v>66093200</v>
       </c>
       <c r="G61" s="3">
-        <v>66137100</v>
+        <v>64465700</v>
       </c>
       <c r="H61" s="3">
-        <v>57372300</v>
+        <v>67638900</v>
       </c>
       <c r="I61" s="3">
-        <v>55442900</v>
+        <v>58675100</v>
       </c>
       <c r="J61" s="3">
+        <v>56701900</v>
+      </c>
+      <c r="K61" s="3">
         <v>81248400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>104674000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>926200</v>
+        <v>1374400</v>
       </c>
       <c r="E62" s="3">
+        <v>947300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>819500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>626900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>549700</v>
+      </c>
+      <c r="I62" s="3">
         <v>801300</v>
       </c>
-      <c r="F62" s="3">
-        <v>613000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>537500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>783500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1224200</v>
-      </c>
       <c r="J62" s="3">
+        <v>1252000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1009600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>751800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>219157000</v>
+        <v>241238000</v>
       </c>
       <c r="E66" s="3">
-        <v>216098000</v>
+        <v>224133000</v>
       </c>
       <c r="F66" s="3">
-        <v>210426000</v>
+        <v>221005000</v>
       </c>
       <c r="G66" s="3">
-        <v>210530000</v>
+        <v>215204000</v>
       </c>
       <c r="H66" s="3">
-        <v>208286000</v>
+        <v>215311000</v>
       </c>
       <c r="I66" s="3">
-        <v>178194000</v>
+        <v>213015000</v>
       </c>
       <c r="J66" s="3">
+        <v>182241000</v>
+      </c>
+      <c r="K66" s="3">
         <v>181236000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>199690000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10105800</v>
+        <v>10429600</v>
       </c>
       <c r="E72" s="3">
-        <v>9757700</v>
+        <v>10335300</v>
       </c>
       <c r="F72" s="3">
-        <v>8980200</v>
+        <v>9979200</v>
       </c>
       <c r="G72" s="3">
-        <v>8401200</v>
+        <v>9184100</v>
       </c>
       <c r="H72" s="3">
-        <v>7728900</v>
+        <v>8592000</v>
       </c>
       <c r="I72" s="3">
-        <v>7071400</v>
+        <v>7904400</v>
       </c>
       <c r="J72" s="3">
+        <v>7232000</v>
+      </c>
+      <c r="K72" s="3">
         <v>6624700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6630500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14279600</v>
+        <v>14732600</v>
       </c>
       <c r="E76" s="3">
-        <v>13861400</v>
+        <v>14603800</v>
       </c>
       <c r="F76" s="3">
-        <v>13460500</v>
+        <v>14176100</v>
       </c>
       <c r="G76" s="3">
-        <v>12800300</v>
+        <v>13766100</v>
       </c>
       <c r="H76" s="3">
-        <v>12180900</v>
+        <v>13091000</v>
       </c>
       <c r="I76" s="3">
-        <v>11384500</v>
+        <v>12457500</v>
       </c>
       <c r="J76" s="3">
+        <v>11643000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10708100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11124200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2199400</v>
+        <v>2070500</v>
       </c>
       <c r="E81" s="3">
-        <v>2011000</v>
+        <v>2224500</v>
       </c>
       <c r="F81" s="3">
-        <v>2030700</v>
+        <v>2034100</v>
       </c>
       <c r="G81" s="3">
-        <v>1634500</v>
+        <v>2053900</v>
       </c>
       <c r="H81" s="3">
-        <v>1709300</v>
+        <v>1653200</v>
       </c>
       <c r="I81" s="3">
-        <v>1161800</v>
+        <v>1728900</v>
       </c>
       <c r="J81" s="3">
+        <v>1175100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1381200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1220200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>103200</v>
+        <v>172000</v>
       </c>
       <c r="E83" s="3">
-        <v>80600</v>
+        <v>104400</v>
       </c>
       <c r="F83" s="3">
-        <v>69000</v>
+        <v>81600</v>
       </c>
       <c r="G83" s="3">
-        <v>97300</v>
+        <v>69800</v>
       </c>
       <c r="H83" s="3">
-        <v>79800</v>
+        <v>98400</v>
       </c>
       <c r="I83" s="3">
-        <v>124800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>80700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>352100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2820000</v>
+        <v>-272600</v>
       </c>
       <c r="E89" s="3">
-        <v>5903600</v>
+        <v>2852300</v>
       </c>
       <c r="F89" s="3">
-        <v>-5575300</v>
+        <v>5971200</v>
       </c>
       <c r="G89" s="3">
-        <v>7372000</v>
+        <v>-5639200</v>
       </c>
       <c r="H89" s="3">
-        <v>928100</v>
+        <v>7456400</v>
       </c>
       <c r="I89" s="3">
-        <v>-2738700</v>
+        <v>938700</v>
       </c>
       <c r="J89" s="3">
+        <v>-2770000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-839900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9148000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1592300</v>
+        <v>-23500</v>
       </c>
       <c r="E91" s="3">
-        <v>-52400</v>
+        <v>-1610500</v>
       </c>
       <c r="F91" s="3">
-        <v>-46900</v>
+        <v>-53000</v>
       </c>
       <c r="G91" s="3">
-        <v>-423500</v>
+        <v>-47400</v>
       </c>
       <c r="H91" s="3">
-        <v>-115500</v>
+        <v>-428400</v>
       </c>
       <c r="I91" s="3">
-        <v>-86800</v>
+        <v>-116800</v>
       </c>
       <c r="J91" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-191400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-499000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>173700</v>
+        <v>104600</v>
       </c>
       <c r="E94" s="3">
-        <v>77600</v>
+        <v>175700</v>
       </c>
       <c r="F94" s="3">
-        <v>31800</v>
+        <v>78500</v>
       </c>
       <c r="G94" s="3">
-        <v>-235900</v>
+        <v>32200</v>
       </c>
       <c r="H94" s="3">
-        <v>-527000</v>
+        <v>-238600</v>
       </c>
       <c r="I94" s="3">
-        <v>161000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-533100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>11600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1509300</v>
+        <v>-1670700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1527700</v>
+        <v>-1526600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1235200</v>
+        <v>-1545200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1303700</v>
+        <v>-1249400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1157600</v>
+        <v>-1318600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1131300</v>
+        <v>-1170800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1144200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-606000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-341700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7158200</v>
+        <v>3407400</v>
       </c>
       <c r="E100" s="3">
-        <v>2137800</v>
+        <v>-7240100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1449700</v>
+        <v>2162300</v>
       </c>
       <c r="G100" s="3">
-        <v>543300</v>
+        <v>-1466300</v>
       </c>
       <c r="H100" s="3">
-        <v>5057300</v>
+        <v>549600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4851600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>5115200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4907100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>7557400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>297200</v>
+        <v>137600</v>
       </c>
       <c r="E101" s="3">
-        <v>93800</v>
+        <v>300600</v>
       </c>
       <c r="F101" s="3">
-        <v>241400</v>
+        <v>94900</v>
       </c>
       <c r="G101" s="3">
-        <v>-139900</v>
+        <v>244200</v>
       </c>
       <c r="H101" s="3">
-        <v>193900</v>
+        <v>-141500</v>
       </c>
       <c r="I101" s="3">
-        <v>83900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3867200</v>
+        <v>3377000</v>
       </c>
       <c r="E102" s="3">
-        <v>8213000</v>
+        <v>-3911500</v>
       </c>
       <c r="F102" s="3">
-        <v>-6751800</v>
+        <v>8307000</v>
       </c>
       <c r="G102" s="3">
-        <v>7539500</v>
+        <v>-6829100</v>
       </c>
       <c r="H102" s="3">
-        <v>5652300</v>
+        <v>7625800</v>
       </c>
       <c r="I102" s="3">
-        <v>-7345400</v>
+        <v>5717100</v>
       </c>
       <c r="J102" s="3">
+        <v>-7429500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3559500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16709900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3718100</v>
+        <v>4060100</v>
       </c>
       <c r="E8" s="3">
-        <v>3580200</v>
+        <v>3909500</v>
       </c>
       <c r="F8" s="3">
-        <v>3383600</v>
+        <v>3694900</v>
       </c>
       <c r="G8" s="3">
-        <v>3297700</v>
+        <v>3601100</v>
       </c>
       <c r="H8" s="3">
-        <v>3677400</v>
+        <v>4015700</v>
       </c>
       <c r="I8" s="3">
-        <v>4315400</v>
+        <v>4712400</v>
       </c>
       <c r="J8" s="3">
-        <v>4621900</v>
+        <v>5047100</v>
       </c>
       <c r="K8" s="3">
         <v>5248800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-163000</v>
+        <v>-178000</v>
       </c>
       <c r="E15" s="3">
-        <v>-72100</v>
+        <v>-78700</v>
       </c>
       <c r="F15" s="3">
-        <v>-92100</v>
+        <v>-100600</v>
       </c>
       <c r="G15" s="3">
-        <v>-66100</v>
+        <v>-72200</v>
       </c>
       <c r="H15" s="3">
-        <v>-70600</v>
+        <v>-77100</v>
       </c>
       <c r="I15" s="3">
-        <v>-75500</v>
+        <v>-82400</v>
       </c>
       <c r="J15" s="3">
-        <v>-77700</v>
+        <v>-84800</v>
       </c>
       <c r="K15" s="3">
         <v>-207900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1140600</v>
+        <v>1245500</v>
       </c>
       <c r="E17" s="3">
-        <v>983000</v>
+        <v>1073400</v>
       </c>
       <c r="F17" s="3">
-        <v>933300</v>
+        <v>1019100</v>
       </c>
       <c r="G17" s="3">
-        <v>1039400</v>
+        <v>1135000</v>
       </c>
       <c r="H17" s="3">
-        <v>1322800</v>
+        <v>1444500</v>
       </c>
       <c r="I17" s="3">
-        <v>1979300</v>
+        <v>2161400</v>
       </c>
       <c r="J17" s="3">
-        <v>2312500</v>
+        <v>2525300</v>
       </c>
       <c r="K17" s="3">
         <v>3113400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2577500</v>
+        <v>2814700</v>
       </c>
       <c r="E18" s="3">
-        <v>2597200</v>
+        <v>2836100</v>
       </c>
       <c r="F18" s="3">
-        <v>2450300</v>
+        <v>2675800</v>
       </c>
       <c r="G18" s="3">
-        <v>2258300</v>
+        <v>2466000</v>
       </c>
       <c r="H18" s="3">
-        <v>2354600</v>
+        <v>2571200</v>
       </c>
       <c r="I18" s="3">
-        <v>2336100</v>
+        <v>2551000</v>
       </c>
       <c r="J18" s="3">
-        <v>2309400</v>
+        <v>2521800</v>
       </c>
       <c r="K18" s="3">
         <v>2135300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10500</v>
+        <v>-11500</v>
       </c>
       <c r="E20" s="3">
-        <v>193900</v>
+        <v>211800</v>
       </c>
       <c r="F20" s="3">
-        <v>104800</v>
+        <v>114400</v>
       </c>
       <c r="G20" s="3">
-        <v>239500</v>
+        <v>261500</v>
       </c>
       <c r="H20" s="3">
-        <v>-213200</v>
+        <v>-232800</v>
       </c>
       <c r="I20" s="3">
-        <v>-125800</v>
+        <v>-137400</v>
       </c>
       <c r="J20" s="3">
-        <v>-274800</v>
+        <v>-300100</v>
       </c>
       <c r="K20" s="3">
         <v>-112200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2737600</v>
+        <v>2990100</v>
       </c>
       <c r="E21" s="3">
-        <v>2894700</v>
+        <v>3161300</v>
       </c>
       <c r="F21" s="3">
-        <v>2636000</v>
+        <v>2878900</v>
       </c>
       <c r="G21" s="3">
-        <v>2567000</v>
+        <v>2803400</v>
       </c>
       <c r="H21" s="3">
-        <v>2239000</v>
+        <v>2445300</v>
       </c>
       <c r="I21" s="3">
-        <v>2290300</v>
+        <v>2501300</v>
       </c>
       <c r="J21" s="3">
-        <v>2159800</v>
+        <v>2359000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2567000</v>
+        <v>2803200</v>
       </c>
       <c r="E23" s="3">
-        <v>2791100</v>
+        <v>3047900</v>
       </c>
       <c r="F23" s="3">
-        <v>2555200</v>
+        <v>2790200</v>
       </c>
       <c r="G23" s="3">
-        <v>2497800</v>
+        <v>2727500</v>
       </c>
       <c r="H23" s="3">
-        <v>2141400</v>
+        <v>2338400</v>
       </c>
       <c r="I23" s="3">
-        <v>2210300</v>
+        <v>2413600</v>
       </c>
       <c r="J23" s="3">
-        <v>2034600</v>
+        <v>2221800</v>
       </c>
       <c r="K23" s="3">
         <v>2023100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>495200</v>
+        <v>540800</v>
       </c>
       <c r="E24" s="3">
-        <v>564900</v>
+        <v>616900</v>
       </c>
       <c r="F24" s="3">
-        <v>519600</v>
+        <v>567400</v>
       </c>
       <c r="G24" s="3">
-        <v>442500</v>
+        <v>483200</v>
       </c>
       <c r="H24" s="3">
-        <v>486200</v>
+        <v>530900</v>
       </c>
       <c r="I24" s="3">
-        <v>452100</v>
+        <v>493700</v>
       </c>
       <c r="J24" s="3">
-        <v>430900</v>
+        <v>470500</v>
       </c>
       <c r="K24" s="3">
         <v>432000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2071800</v>
+        <v>2262400</v>
       </c>
       <c r="E26" s="3">
-        <v>2226200</v>
+        <v>2431000</v>
       </c>
       <c r="F26" s="3">
-        <v>2035500</v>
+        <v>2222800</v>
       </c>
       <c r="G26" s="3">
-        <v>2055300</v>
+        <v>2244400</v>
       </c>
       <c r="H26" s="3">
-        <v>1655200</v>
+        <v>1807500</v>
       </c>
       <c r="I26" s="3">
-        <v>1758100</v>
+        <v>1919900</v>
       </c>
       <c r="J26" s="3">
-        <v>1603700</v>
+        <v>1751200</v>
       </c>
       <c r="K26" s="3">
         <v>1591100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2070500</v>
+        <v>2261000</v>
       </c>
       <c r="E27" s="3">
-        <v>2224500</v>
+        <v>2429200</v>
       </c>
       <c r="F27" s="3">
-        <v>2034100</v>
+        <v>2221200</v>
       </c>
       <c r="G27" s="3">
-        <v>2053900</v>
+        <v>2242900</v>
       </c>
       <c r="H27" s="3">
-        <v>1653900</v>
+        <v>1806000</v>
       </c>
       <c r="I27" s="3">
-        <v>1756500</v>
+        <v>1918000</v>
       </c>
       <c r="J27" s="3">
-        <v>1421100</v>
+        <v>1551800</v>
       </c>
       <c r="K27" s="3">
         <v>1485600</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I29" s="3">
-        <v>-27500</v>
+        <v>-30100</v>
       </c>
       <c r="J29" s="3">
-        <v>-246000</v>
+        <v>-268600</v>
       </c>
       <c r="K29" s="3">
         <v>-104300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="E32" s="3">
-        <v>-193900</v>
+        <v>-211800</v>
       </c>
       <c r="F32" s="3">
-        <v>-104800</v>
+        <v>-114400</v>
       </c>
       <c r="G32" s="3">
-        <v>-239500</v>
+        <v>-261500</v>
       </c>
       <c r="H32" s="3">
-        <v>213200</v>
+        <v>232800</v>
       </c>
       <c r="I32" s="3">
-        <v>125800</v>
+        <v>137400</v>
       </c>
       <c r="J32" s="3">
-        <v>274800</v>
+        <v>300100</v>
       </c>
       <c r="K32" s="3">
         <v>112200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2070500</v>
+        <v>2261000</v>
       </c>
       <c r="E33" s="3">
-        <v>2224500</v>
+        <v>2429200</v>
       </c>
       <c r="F33" s="3">
-        <v>2034100</v>
+        <v>2221200</v>
       </c>
       <c r="G33" s="3">
-        <v>2053900</v>
+        <v>2242900</v>
       </c>
       <c r="H33" s="3">
-        <v>1653200</v>
+        <v>1805300</v>
       </c>
       <c r="I33" s="3">
-        <v>1728900</v>
+        <v>1888000</v>
       </c>
       <c r="J33" s="3">
-        <v>1175100</v>
+        <v>1283200</v>
       </c>
       <c r="K33" s="3">
         <v>1381200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2070500</v>
+        <v>2261000</v>
       </c>
       <c r="E35" s="3">
-        <v>2224500</v>
+        <v>2429200</v>
       </c>
       <c r="F35" s="3">
-        <v>2034100</v>
+        <v>2221200</v>
       </c>
       <c r="G35" s="3">
-        <v>2053900</v>
+        <v>2242900</v>
       </c>
       <c r="H35" s="3">
-        <v>1653200</v>
+        <v>1805300</v>
       </c>
       <c r="I35" s="3">
-        <v>1728900</v>
+        <v>1888000</v>
       </c>
       <c r="J35" s="3">
-        <v>1175100</v>
+        <v>1283200</v>
       </c>
       <c r="K35" s="3">
         <v>1381200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25099900</v>
+        <v>27107100</v>
       </c>
       <c r="E41" s="3">
-        <v>20780000</v>
+        <v>22441800</v>
       </c>
       <c r="F41" s="3">
-        <v>24160200</v>
+        <v>26092300</v>
       </c>
       <c r="G41" s="3">
-        <v>16229600</v>
+        <v>17527500</v>
       </c>
       <c r="H41" s="3">
-        <v>28803600</v>
+        <v>31107100</v>
       </c>
       <c r="I41" s="3">
-        <v>22333500</v>
+        <v>24119600</v>
       </c>
       <c r="J41" s="3">
-        <v>22982000</v>
+        <v>24819900</v>
       </c>
       <c r="K41" s="3">
         <v>29623700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49123500</v>
+        <v>53051900</v>
       </c>
       <c r="E42" s="3">
-        <v>38774600</v>
+        <v>41875400</v>
       </c>
       <c r="F42" s="3">
-        <v>39435000</v>
+        <v>42588600</v>
       </c>
       <c r="G42" s="3">
-        <v>53290400</v>
+        <v>57552000</v>
       </c>
       <c r="H42" s="3">
-        <v>47746600</v>
+        <v>51564900</v>
       </c>
       <c r="I42" s="3">
-        <v>56032600</v>
+        <v>60513500</v>
       </c>
       <c r="J42" s="3">
-        <v>45844700</v>
+        <v>49510900</v>
       </c>
       <c r="K42" s="3">
         <v>42847600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>709900</v>
+        <v>766700</v>
       </c>
       <c r="E47" s="3">
-        <v>647100</v>
+        <v>698800</v>
       </c>
       <c r="F47" s="3">
-        <v>675700</v>
+        <v>729700</v>
       </c>
       <c r="G47" s="3">
-        <v>777900</v>
+        <v>840100</v>
       </c>
       <c r="H47" s="3">
-        <v>572100</v>
+        <v>617800</v>
       </c>
       <c r="I47" s="3">
-        <v>523400</v>
+        <v>565200</v>
       </c>
       <c r="J47" s="3">
-        <v>386900</v>
+        <v>417800</v>
       </c>
       <c r="K47" s="3">
         <v>369200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>592200</v>
+        <v>639600</v>
       </c>
       <c r="E48" s="3">
-        <v>209000</v>
+        <v>225700</v>
       </c>
       <c r="F48" s="3">
-        <v>207800</v>
+        <v>224400</v>
       </c>
       <c r="G48" s="3">
-        <v>198100</v>
+        <v>214000</v>
       </c>
       <c r="H48" s="3">
-        <v>211400</v>
+        <v>228300</v>
       </c>
       <c r="I48" s="3">
-        <v>292300</v>
+        <v>315700</v>
       </c>
       <c r="J48" s="3">
-        <v>812900</v>
+        <v>877900</v>
       </c>
       <c r="K48" s="3">
         <v>1461500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1898800</v>
+        <v>2050600</v>
       </c>
       <c r="E49" s="3">
-        <v>1819500</v>
+        <v>1965000</v>
       </c>
       <c r="F49" s="3">
-        <v>1735600</v>
+        <v>1874400</v>
       </c>
       <c r="G49" s="3">
-        <v>1517700</v>
+        <v>1639100</v>
       </c>
       <c r="H49" s="3">
-        <v>1455100</v>
+        <v>1571500</v>
       </c>
       <c r="I49" s="3">
-        <v>1522000</v>
+        <v>1643700</v>
       </c>
       <c r="J49" s="3">
-        <v>1653400</v>
+        <v>1785700</v>
       </c>
       <c r="K49" s="3">
         <v>4190500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18100</v>
+        <v>19500</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>18800</v>
       </c>
       <c r="F52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
-        <v>17000</v>
-      </c>
       <c r="H52" s="3">
-        <v>171600</v>
+        <v>185300</v>
       </c>
       <c r="I52" s="3">
-        <v>133200</v>
+        <v>143800</v>
       </c>
       <c r="J52" s="3">
-        <v>242200</v>
+        <v>261600</v>
       </c>
       <c r="K52" s="3">
         <v>89900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>255971000</v>
+        <v>276441000</v>
       </c>
       <c r="E54" s="3">
-        <v>238737000</v>
+        <v>257829000</v>
       </c>
       <c r="F54" s="3">
-        <v>235181000</v>
+        <v>253989000</v>
       </c>
       <c r="G54" s="3">
-        <v>228970000</v>
+        <v>247281000</v>
       </c>
       <c r="H54" s="3">
-        <v>228402000</v>
+        <v>246667000</v>
       </c>
       <c r="I54" s="3">
-        <v>225473000</v>
+        <v>243504000</v>
       </c>
       <c r="J54" s="3">
-        <v>193884000</v>
+        <v>209389000</v>
       </c>
       <c r="K54" s="3">
         <v>191944000</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>707300</v>
+        <v>763800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>1139200</v>
+        <v>1230300</v>
       </c>
       <c r="K57" s="3">
         <v>1365400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32900800</v>
+        <v>35531900</v>
       </c>
       <c r="E58" s="3">
-        <v>21922800</v>
+        <v>23676000</v>
       </c>
       <c r="F58" s="3">
-        <v>27273900</v>
+        <v>29455000</v>
       </c>
       <c r="G58" s="3">
-        <v>29051600</v>
+        <v>31374900</v>
       </c>
       <c r="H58" s="3">
-        <v>23213700</v>
+        <v>25070100</v>
       </c>
       <c r="I58" s="3">
-        <v>34380000</v>
+        <v>37129400</v>
       </c>
       <c r="J58" s="3">
-        <v>24769200</v>
+        <v>26750000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>554700</v>
+        <v>599100</v>
       </c>
       <c r="E59" s="3">
-        <v>549800</v>
+        <v>593800</v>
       </c>
       <c r="F59" s="3">
-        <v>528900</v>
+        <v>571200</v>
       </c>
       <c r="G59" s="3">
-        <v>1265800</v>
+        <v>1367000</v>
       </c>
       <c r="H59" s="3">
-        <v>1418800</v>
+        <v>1532200</v>
       </c>
       <c r="I59" s="3">
-        <v>1546300</v>
+        <v>1670000</v>
       </c>
       <c r="J59" s="3">
-        <v>1709900</v>
+        <v>1846600</v>
       </c>
       <c r="K59" s="3">
         <v>1887400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62990900</v>
+        <v>68028200</v>
       </c>
       <c r="E61" s="3">
-        <v>67274100</v>
+        <v>72654000</v>
       </c>
       <c r="F61" s="3">
-        <v>66093200</v>
+        <v>71378700</v>
       </c>
       <c r="G61" s="3">
-        <v>64465700</v>
+        <v>69621100</v>
       </c>
       <c r="H61" s="3">
-        <v>67638900</v>
+        <v>73048000</v>
       </c>
       <c r="I61" s="3">
-        <v>58675100</v>
+        <v>63367300</v>
       </c>
       <c r="J61" s="3">
-        <v>56701900</v>
+        <v>61236300</v>
       </c>
       <c r="K61" s="3">
         <v>81248400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1374400</v>
+        <v>1484300</v>
       </c>
       <c r="E62" s="3">
-        <v>947300</v>
+        <v>1023000</v>
       </c>
       <c r="F62" s="3">
-        <v>819500</v>
+        <v>885000</v>
       </c>
       <c r="G62" s="3">
-        <v>626900</v>
+        <v>677000</v>
       </c>
       <c r="H62" s="3">
-        <v>549700</v>
+        <v>593700</v>
       </c>
       <c r="I62" s="3">
-        <v>801300</v>
+        <v>865400</v>
       </c>
       <c r="J62" s="3">
-        <v>1252000</v>
+        <v>1352100</v>
       </c>
       <c r="K62" s="3">
         <v>1009600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>241238000</v>
+        <v>260530000</v>
       </c>
       <c r="E66" s="3">
-        <v>224133000</v>
+        <v>242057000</v>
       </c>
       <c r="F66" s="3">
-        <v>221005000</v>
+        <v>238679000</v>
       </c>
       <c r="G66" s="3">
-        <v>215204000</v>
+        <v>232414000</v>
       </c>
       <c r="H66" s="3">
-        <v>215311000</v>
+        <v>232529000</v>
       </c>
       <c r="I66" s="3">
-        <v>213015000</v>
+        <v>230050000</v>
       </c>
       <c r="J66" s="3">
-        <v>182241000</v>
+        <v>196815000</v>
       </c>
       <c r="K66" s="3">
         <v>181236000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10429600</v>
+        <v>11263700</v>
       </c>
       <c r="E72" s="3">
-        <v>10335300</v>
+        <v>11161800</v>
       </c>
       <c r="F72" s="3">
-        <v>9979200</v>
+        <v>10777300</v>
       </c>
       <c r="G72" s="3">
-        <v>9184100</v>
+        <v>9918500</v>
       </c>
       <c r="H72" s="3">
-        <v>8592000</v>
+        <v>9279000</v>
       </c>
       <c r="I72" s="3">
-        <v>7904400</v>
+        <v>8536500</v>
       </c>
       <c r="J72" s="3">
-        <v>7232000</v>
+        <v>7810300</v>
       </c>
       <c r="K72" s="3">
         <v>6624700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14732600</v>
+        <v>15910800</v>
       </c>
       <c r="E76" s="3">
-        <v>14603800</v>
+        <v>15771700</v>
       </c>
       <c r="F76" s="3">
-        <v>14176100</v>
+        <v>15309800</v>
       </c>
       <c r="G76" s="3">
-        <v>13766100</v>
+        <v>14867000</v>
       </c>
       <c r="H76" s="3">
-        <v>13091000</v>
+        <v>14137900</v>
       </c>
       <c r="I76" s="3">
-        <v>12457500</v>
+        <v>13453700</v>
       </c>
       <c r="J76" s="3">
-        <v>11643000</v>
+        <v>12574100</v>
       </c>
       <c r="K76" s="3">
         <v>10708100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2070500</v>
+        <v>2261000</v>
       </c>
       <c r="E81" s="3">
-        <v>2224500</v>
+        <v>2429200</v>
       </c>
       <c r="F81" s="3">
-        <v>2034100</v>
+        <v>2221200</v>
       </c>
       <c r="G81" s="3">
-        <v>2053900</v>
+        <v>2242900</v>
       </c>
       <c r="H81" s="3">
-        <v>1653200</v>
+        <v>1805300</v>
       </c>
       <c r="I81" s="3">
-        <v>1728900</v>
+        <v>1888000</v>
       </c>
       <c r="J81" s="3">
-        <v>1175100</v>
+        <v>1283200</v>
       </c>
       <c r="K81" s="3">
         <v>1381200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172000</v>
+        <v>187800</v>
       </c>
       <c r="E83" s="3">
-        <v>104400</v>
+        <v>114000</v>
       </c>
       <c r="F83" s="3">
-        <v>81600</v>
+        <v>89100</v>
       </c>
       <c r="G83" s="3">
-        <v>69800</v>
+        <v>76200</v>
       </c>
       <c r="H83" s="3">
-        <v>98400</v>
+        <v>107400</v>
       </c>
       <c r="I83" s="3">
-        <v>80700</v>
+        <v>88200</v>
       </c>
       <c r="J83" s="3">
-        <v>126200</v>
+        <v>137900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-272600</v>
+        <v>-297700</v>
       </c>
       <c r="E89" s="3">
-        <v>2852300</v>
+        <v>3114700</v>
       </c>
       <c r="F89" s="3">
-        <v>5971200</v>
+        <v>6520500</v>
       </c>
       <c r="G89" s="3">
-        <v>-5639200</v>
+        <v>-6157900</v>
       </c>
       <c r="H89" s="3">
-        <v>7456400</v>
+        <v>8142300</v>
       </c>
       <c r="I89" s="3">
-        <v>938700</v>
+        <v>1025100</v>
       </c>
       <c r="J89" s="3">
-        <v>-2770000</v>
+        <v>-3024800</v>
       </c>
       <c r="K89" s="3">
         <v>-839900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23500</v>
+        <v>-25700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1610500</v>
+        <v>-1758700</v>
       </c>
       <c r="F91" s="3">
-        <v>-53000</v>
+        <v>-57900</v>
       </c>
       <c r="G91" s="3">
-        <v>-47400</v>
+        <v>-51800</v>
       </c>
       <c r="H91" s="3">
-        <v>-428400</v>
+        <v>-467800</v>
       </c>
       <c r="I91" s="3">
-        <v>-116800</v>
+        <v>-127500</v>
       </c>
       <c r="J91" s="3">
-        <v>-87800</v>
+        <v>-95800</v>
       </c>
       <c r="K91" s="3">
         <v>-191400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>104600</v>
+        <v>114200</v>
       </c>
       <c r="E94" s="3">
-        <v>175700</v>
+        <v>191800</v>
       </c>
       <c r="F94" s="3">
-        <v>78500</v>
+        <v>85700</v>
       </c>
       <c r="G94" s="3">
-        <v>32200</v>
+        <v>35100</v>
       </c>
       <c r="H94" s="3">
-        <v>-238600</v>
+        <v>-260600</v>
       </c>
       <c r="I94" s="3">
-        <v>-533100</v>
+        <v>-582100</v>
       </c>
       <c r="J94" s="3">
-        <v>162800</v>
+        <v>177800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1670700</v>
+        <v>-1824400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1526600</v>
+        <v>-1667000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1545200</v>
+        <v>-1687300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1249400</v>
+        <v>-1364300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1318600</v>
+        <v>-1439900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1170800</v>
+        <v>-1278500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1144200</v>
+        <v>-1249500</v>
       </c>
       <c r="K96" s="3">
         <v>-606000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3407400</v>
+        <v>3720800</v>
       </c>
       <c r="E100" s="3">
-        <v>-7240100</v>
+        <v>-7906200</v>
       </c>
       <c r="F100" s="3">
-        <v>2162300</v>
+        <v>2361200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1466300</v>
+        <v>-1601200</v>
       </c>
       <c r="H100" s="3">
-        <v>549600</v>
+        <v>600100</v>
       </c>
       <c r="I100" s="3">
-        <v>5115200</v>
+        <v>5585800</v>
       </c>
       <c r="J100" s="3">
-        <v>-4907100</v>
+        <v>-5358500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>137600</v>
+        <v>150300</v>
       </c>
       <c r="E101" s="3">
-        <v>300600</v>
+        <v>328300</v>
       </c>
       <c r="F101" s="3">
-        <v>94900</v>
+        <v>103700</v>
       </c>
       <c r="G101" s="3">
-        <v>244200</v>
+        <v>266700</v>
       </c>
       <c r="H101" s="3">
-        <v>-141500</v>
+        <v>-154500</v>
       </c>
       <c r="I101" s="3">
-        <v>196200</v>
+        <v>214200</v>
       </c>
       <c r="J101" s="3">
-        <v>84800</v>
+        <v>92600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3377000</v>
+        <v>3687600</v>
       </c>
       <c r="E102" s="3">
-        <v>-3911500</v>
+        <v>-4271300</v>
       </c>
       <c r="F102" s="3">
-        <v>8307000</v>
+        <v>9071200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6829100</v>
+        <v>-7457300</v>
       </c>
       <c r="H102" s="3">
-        <v>7625800</v>
+        <v>8327300</v>
       </c>
       <c r="I102" s="3">
-        <v>5717100</v>
+        <v>6243000</v>
       </c>
       <c r="J102" s="3">
-        <v>-7429500</v>
+        <v>-8112900</v>
       </c>
       <c r="K102" s="3">
         <v>-3559500</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4060100</v>
+        <v>4165200</v>
       </c>
       <c r="E8" s="3">
-        <v>3909500</v>
+        <v>4010700</v>
       </c>
       <c r="F8" s="3">
-        <v>3694900</v>
+        <v>3790500</v>
       </c>
       <c r="G8" s="3">
-        <v>3601100</v>
+        <v>3694200</v>
       </c>
       <c r="H8" s="3">
-        <v>4015700</v>
+        <v>4119600</v>
       </c>
       <c r="I8" s="3">
-        <v>4712400</v>
+        <v>4834300</v>
       </c>
       <c r="J8" s="3">
-        <v>5047100</v>
+        <v>5177700</v>
       </c>
       <c r="K8" s="3">
         <v>5248800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-178000</v>
+        <v>-182600</v>
       </c>
       <c r="E15" s="3">
-        <v>-78700</v>
+        <v>-80800</v>
       </c>
       <c r="F15" s="3">
-        <v>-100600</v>
+        <v>-103200</v>
       </c>
       <c r="G15" s="3">
-        <v>-72200</v>
+        <v>-74100</v>
       </c>
       <c r="H15" s="3">
-        <v>-77100</v>
+        <v>-79100</v>
       </c>
       <c r="I15" s="3">
-        <v>-82400</v>
+        <v>-84600</v>
       </c>
       <c r="J15" s="3">
-        <v>-84800</v>
+        <v>-87000</v>
       </c>
       <c r="K15" s="3">
         <v>-207900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1245500</v>
+        <v>1277700</v>
       </c>
       <c r="E17" s="3">
-        <v>1073400</v>
+        <v>1101200</v>
       </c>
       <c r="F17" s="3">
-        <v>1019100</v>
+        <v>1045500</v>
       </c>
       <c r="G17" s="3">
-        <v>1135000</v>
+        <v>1164400</v>
       </c>
       <c r="H17" s="3">
-        <v>1444500</v>
+        <v>1481900</v>
       </c>
       <c r="I17" s="3">
-        <v>2161400</v>
+        <v>2217300</v>
       </c>
       <c r="J17" s="3">
-        <v>2525300</v>
+        <v>2590600</v>
       </c>
       <c r="K17" s="3">
         <v>3113400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2814700</v>
+        <v>2887500</v>
       </c>
       <c r="E18" s="3">
-        <v>2836100</v>
+        <v>2909500</v>
       </c>
       <c r="F18" s="3">
-        <v>2675800</v>
+        <v>2745000</v>
       </c>
       <c r="G18" s="3">
-        <v>2466000</v>
+        <v>2529800</v>
       </c>
       <c r="H18" s="3">
-        <v>2571200</v>
+        <v>2637700</v>
       </c>
       <c r="I18" s="3">
-        <v>2551000</v>
+        <v>2617000</v>
       </c>
       <c r="J18" s="3">
-        <v>2521800</v>
+        <v>2587100</v>
       </c>
       <c r="K18" s="3">
         <v>2135300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11500</v>
+        <v>-11800</v>
       </c>
       <c r="E20" s="3">
-        <v>211800</v>
+        <v>217300</v>
       </c>
       <c r="F20" s="3">
-        <v>114400</v>
+        <v>117400</v>
       </c>
       <c r="G20" s="3">
-        <v>261500</v>
+        <v>268300</v>
       </c>
       <c r="H20" s="3">
-        <v>-232800</v>
+        <v>-238800</v>
       </c>
       <c r="I20" s="3">
-        <v>-137400</v>
+        <v>-141000</v>
       </c>
       <c r="J20" s="3">
-        <v>-300100</v>
+        <v>-307800</v>
       </c>
       <c r="K20" s="3">
         <v>-112200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2990100</v>
+        <v>3067800</v>
       </c>
       <c r="E21" s="3">
-        <v>3161300</v>
+        <v>3243300</v>
       </c>
       <c r="F21" s="3">
-        <v>2878900</v>
+        <v>2953500</v>
       </c>
       <c r="G21" s="3">
-        <v>2803400</v>
+        <v>2876000</v>
       </c>
       <c r="H21" s="3">
-        <v>2445300</v>
+        <v>2508800</v>
       </c>
       <c r="I21" s="3">
-        <v>2501300</v>
+        <v>2566200</v>
       </c>
       <c r="J21" s="3">
-        <v>2359000</v>
+        <v>2420200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2803200</v>
+        <v>2875700</v>
       </c>
       <c r="E23" s="3">
-        <v>3047900</v>
+        <v>3126800</v>
       </c>
       <c r="F23" s="3">
-        <v>2790200</v>
+        <v>2862400</v>
       </c>
       <c r="G23" s="3">
-        <v>2727500</v>
+        <v>2798100</v>
       </c>
       <c r="H23" s="3">
-        <v>2338400</v>
+        <v>2398900</v>
       </c>
       <c r="I23" s="3">
-        <v>2413600</v>
+        <v>2476000</v>
       </c>
       <c r="J23" s="3">
-        <v>2221800</v>
+        <v>2279200</v>
       </c>
       <c r="K23" s="3">
         <v>2023100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>540800</v>
+        <v>554800</v>
       </c>
       <c r="E24" s="3">
-        <v>616900</v>
+        <v>632800</v>
       </c>
       <c r="F24" s="3">
-        <v>567400</v>
+        <v>582100</v>
       </c>
       <c r="G24" s="3">
-        <v>483200</v>
+        <v>495700</v>
       </c>
       <c r="H24" s="3">
-        <v>530900</v>
+        <v>544600</v>
       </c>
       <c r="I24" s="3">
-        <v>493700</v>
+        <v>506500</v>
       </c>
       <c r="J24" s="3">
-        <v>470500</v>
+        <v>482700</v>
       </c>
       <c r="K24" s="3">
         <v>432000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2262400</v>
+        <v>2320900</v>
       </c>
       <c r="E26" s="3">
-        <v>2431000</v>
+        <v>2493900</v>
       </c>
       <c r="F26" s="3">
-        <v>2222800</v>
+        <v>2280300</v>
       </c>
       <c r="G26" s="3">
-        <v>2244400</v>
+        <v>2302400</v>
       </c>
       <c r="H26" s="3">
-        <v>1807500</v>
+        <v>1854200</v>
       </c>
       <c r="I26" s="3">
-        <v>1919900</v>
+        <v>1969500</v>
       </c>
       <c r="J26" s="3">
-        <v>1751200</v>
+        <v>1796500</v>
       </c>
       <c r="K26" s="3">
         <v>1591100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2261000</v>
+        <v>2319500</v>
       </c>
       <c r="E27" s="3">
-        <v>2429200</v>
+        <v>2492000</v>
       </c>
       <c r="F27" s="3">
-        <v>2221200</v>
+        <v>2278700</v>
       </c>
       <c r="G27" s="3">
-        <v>2242900</v>
+        <v>2300900</v>
       </c>
       <c r="H27" s="3">
-        <v>1806000</v>
+        <v>1852700</v>
       </c>
       <c r="I27" s="3">
-        <v>1918000</v>
+        <v>1967700</v>
       </c>
       <c r="J27" s="3">
-        <v>1551800</v>
+        <v>1592000</v>
       </c>
       <c r="K27" s="3">
         <v>1485600</v>
@@ -1368,10 +1368,10 @@
         <v>-700</v>
       </c>
       <c r="I29" s="3">
-        <v>-30100</v>
+        <v>-30900</v>
       </c>
       <c r="J29" s="3">
-        <v>-268600</v>
+        <v>-275600</v>
       </c>
       <c r="K29" s="3">
         <v>-104300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E32" s="3">
-        <v>-211800</v>
+        <v>-217300</v>
       </c>
       <c r="F32" s="3">
-        <v>-114400</v>
+        <v>-117400</v>
       </c>
       <c r="G32" s="3">
-        <v>-261500</v>
+        <v>-268300</v>
       </c>
       <c r="H32" s="3">
-        <v>232800</v>
+        <v>238800</v>
       </c>
       <c r="I32" s="3">
-        <v>137400</v>
+        <v>141000</v>
       </c>
       <c r="J32" s="3">
-        <v>300100</v>
+        <v>307800</v>
       </c>
       <c r="K32" s="3">
         <v>112200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2261000</v>
+        <v>2319500</v>
       </c>
       <c r="E33" s="3">
-        <v>2429200</v>
+        <v>2492000</v>
       </c>
       <c r="F33" s="3">
-        <v>2221200</v>
+        <v>2278700</v>
       </c>
       <c r="G33" s="3">
-        <v>2242900</v>
+        <v>2300900</v>
       </c>
       <c r="H33" s="3">
-        <v>1805300</v>
+        <v>1852000</v>
       </c>
       <c r="I33" s="3">
-        <v>1888000</v>
+        <v>1936800</v>
       </c>
       <c r="J33" s="3">
-        <v>1283200</v>
+        <v>1316400</v>
       </c>
       <c r="K33" s="3">
         <v>1381200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2261000</v>
+        <v>2319500</v>
       </c>
       <c r="E35" s="3">
-        <v>2429200</v>
+        <v>2492000</v>
       </c>
       <c r="F35" s="3">
-        <v>2221200</v>
+        <v>2278700</v>
       </c>
       <c r="G35" s="3">
-        <v>2242900</v>
+        <v>2300900</v>
       </c>
       <c r="H35" s="3">
-        <v>1805300</v>
+        <v>1852000</v>
       </c>
       <c r="I35" s="3">
-        <v>1888000</v>
+        <v>1936800</v>
       </c>
       <c r="J35" s="3">
-        <v>1283200</v>
+        <v>1316400</v>
       </c>
       <c r="K35" s="3">
         <v>1381200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27107100</v>
+        <v>27808400</v>
       </c>
       <c r="E41" s="3">
-        <v>22441800</v>
+        <v>23022400</v>
       </c>
       <c r="F41" s="3">
-        <v>26092300</v>
+        <v>26767400</v>
       </c>
       <c r="G41" s="3">
-        <v>17527500</v>
+        <v>17981000</v>
       </c>
       <c r="H41" s="3">
-        <v>31107100</v>
+        <v>31911900</v>
       </c>
       <c r="I41" s="3">
-        <v>24119600</v>
+        <v>24743600</v>
       </c>
       <c r="J41" s="3">
-        <v>24819900</v>
+        <v>25462100</v>
       </c>
       <c r="K41" s="3">
         <v>29623700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>53051900</v>
+        <v>54424600</v>
       </c>
       <c r="E42" s="3">
-        <v>41875400</v>
+        <v>42958800</v>
       </c>
       <c r="F42" s="3">
-        <v>42588600</v>
+        <v>43690500</v>
       </c>
       <c r="G42" s="3">
-        <v>57552000</v>
+        <v>59041100</v>
       </c>
       <c r="H42" s="3">
-        <v>51564900</v>
+        <v>52899100</v>
       </c>
       <c r="I42" s="3">
-        <v>60513500</v>
+        <v>62079200</v>
       </c>
       <c r="J42" s="3">
-        <v>49510900</v>
+        <v>50791900</v>
       </c>
       <c r="K42" s="3">
         <v>42847600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>766700</v>
+        <v>786500</v>
       </c>
       <c r="E47" s="3">
-        <v>698800</v>
+        <v>716900</v>
       </c>
       <c r="F47" s="3">
-        <v>729700</v>
+        <v>748600</v>
       </c>
       <c r="G47" s="3">
-        <v>840100</v>
+        <v>861900</v>
       </c>
       <c r="H47" s="3">
-        <v>617800</v>
+        <v>633800</v>
       </c>
       <c r="I47" s="3">
-        <v>565200</v>
+        <v>579900</v>
       </c>
       <c r="J47" s="3">
-        <v>417800</v>
+        <v>428600</v>
       </c>
       <c r="K47" s="3">
         <v>369200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>639600</v>
+        <v>656200</v>
       </c>
       <c r="E48" s="3">
-        <v>225700</v>
+        <v>231500</v>
       </c>
       <c r="F48" s="3">
-        <v>224400</v>
+        <v>230200</v>
       </c>
       <c r="G48" s="3">
-        <v>214000</v>
+        <v>219500</v>
       </c>
       <c r="H48" s="3">
-        <v>228300</v>
+        <v>234200</v>
       </c>
       <c r="I48" s="3">
-        <v>315700</v>
+        <v>323800</v>
       </c>
       <c r="J48" s="3">
-        <v>877900</v>
+        <v>900600</v>
       </c>
       <c r="K48" s="3">
         <v>1461500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2050600</v>
+        <v>2103700</v>
       </c>
       <c r="E49" s="3">
-        <v>1965000</v>
+        <v>2015800</v>
       </c>
       <c r="F49" s="3">
-        <v>1874400</v>
+        <v>1922900</v>
       </c>
       <c r="G49" s="3">
-        <v>1639100</v>
+        <v>1681500</v>
       </c>
       <c r="H49" s="3">
-        <v>1571500</v>
+        <v>1612100</v>
       </c>
       <c r="I49" s="3">
-        <v>1643700</v>
+        <v>1686200</v>
       </c>
       <c r="J49" s="3">
-        <v>1785700</v>
+        <v>1831900</v>
       </c>
       <c r="K49" s="3">
         <v>4190500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G52" s="3">
         <v>18800</v>
       </c>
-      <c r="F52" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>18400</v>
-      </c>
       <c r="H52" s="3">
-        <v>185300</v>
+        <v>190100</v>
       </c>
       <c r="I52" s="3">
-        <v>143800</v>
+        <v>147600</v>
       </c>
       <c r="J52" s="3">
-        <v>261600</v>
+        <v>268400</v>
       </c>
       <c r="K52" s="3">
         <v>89900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>276441000</v>
+        <v>283593000</v>
       </c>
       <c r="E54" s="3">
-        <v>257829000</v>
+        <v>264500000</v>
       </c>
       <c r="F54" s="3">
-        <v>253989000</v>
+        <v>260560000</v>
       </c>
       <c r="G54" s="3">
-        <v>247281000</v>
+        <v>253679000</v>
       </c>
       <c r="H54" s="3">
-        <v>246667000</v>
+        <v>253049000</v>
       </c>
       <c r="I54" s="3">
-        <v>243504000</v>
+        <v>249804000</v>
       </c>
       <c r="J54" s="3">
-        <v>209389000</v>
+        <v>214806000</v>
       </c>
       <c r="K54" s="3">
         <v>191944000</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>763800</v>
+        <v>783600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="3">
-        <v>1230300</v>
+        <v>1262200</v>
       </c>
       <c r="K57" s="3">
         <v>1365400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35531900</v>
+        <v>36451200</v>
       </c>
       <c r="E58" s="3">
-        <v>23676000</v>
+        <v>24288600</v>
       </c>
       <c r="F58" s="3">
-        <v>29455000</v>
+        <v>30217100</v>
       </c>
       <c r="G58" s="3">
-        <v>31374900</v>
+        <v>32186600</v>
       </c>
       <c r="H58" s="3">
-        <v>25070100</v>
+        <v>25718800</v>
       </c>
       <c r="I58" s="3">
-        <v>37129400</v>
+        <v>38090100</v>
       </c>
       <c r="J58" s="3">
-        <v>26750000</v>
+        <v>27442100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>599100</v>
+        <v>614600</v>
       </c>
       <c r="E59" s="3">
-        <v>593800</v>
+        <v>609200</v>
       </c>
       <c r="F59" s="3">
-        <v>571200</v>
+        <v>586000</v>
       </c>
       <c r="G59" s="3">
-        <v>1367000</v>
+        <v>1402400</v>
       </c>
       <c r="H59" s="3">
-        <v>1532200</v>
+        <v>1571900</v>
       </c>
       <c r="I59" s="3">
-        <v>1670000</v>
+        <v>1713200</v>
       </c>
       <c r="J59" s="3">
-        <v>1846600</v>
+        <v>1894400</v>
       </c>
       <c r="K59" s="3">
         <v>1887400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68028200</v>
+        <v>69788300</v>
       </c>
       <c r="E61" s="3">
-        <v>72654000</v>
+        <v>74533800</v>
       </c>
       <c r="F61" s="3">
-        <v>71378700</v>
+        <v>73225500</v>
       </c>
       <c r="G61" s="3">
-        <v>69621100</v>
+        <v>71422400</v>
       </c>
       <c r="H61" s="3">
-        <v>73048000</v>
+        <v>74938000</v>
       </c>
       <c r="I61" s="3">
-        <v>63367300</v>
+        <v>65006800</v>
       </c>
       <c r="J61" s="3">
-        <v>61236300</v>
+        <v>62820700</v>
       </c>
       <c r="K61" s="3">
         <v>81248400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1484300</v>
+        <v>1522800</v>
       </c>
       <c r="E62" s="3">
-        <v>1023000</v>
+        <v>1049500</v>
       </c>
       <c r="F62" s="3">
-        <v>885000</v>
+        <v>907900</v>
       </c>
       <c r="G62" s="3">
-        <v>677000</v>
+        <v>694500</v>
       </c>
       <c r="H62" s="3">
-        <v>593700</v>
+        <v>609100</v>
       </c>
       <c r="I62" s="3">
-        <v>865400</v>
+        <v>887800</v>
       </c>
       <c r="J62" s="3">
-        <v>1352100</v>
+        <v>1387100</v>
       </c>
       <c r="K62" s="3">
         <v>1009600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>260530000</v>
+        <v>267271000</v>
       </c>
       <c r="E66" s="3">
-        <v>242057000</v>
+        <v>248320000</v>
       </c>
       <c r="F66" s="3">
-        <v>238679000</v>
+        <v>244854000</v>
       </c>
       <c r="G66" s="3">
-        <v>232414000</v>
+        <v>238427000</v>
       </c>
       <c r="H66" s="3">
-        <v>232529000</v>
+        <v>238546000</v>
       </c>
       <c r="I66" s="3">
-        <v>230050000</v>
+        <v>236002000</v>
       </c>
       <c r="J66" s="3">
-        <v>196815000</v>
+        <v>201907000</v>
       </c>
       <c r="K66" s="3">
         <v>181236000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11263700</v>
+        <v>11555100</v>
       </c>
       <c r="E72" s="3">
-        <v>11161800</v>
+        <v>11450600</v>
       </c>
       <c r="F72" s="3">
-        <v>10777300</v>
+        <v>11056100</v>
       </c>
       <c r="G72" s="3">
-        <v>9918500</v>
+        <v>10175200</v>
       </c>
       <c r="H72" s="3">
-        <v>9279000</v>
+        <v>9519100</v>
       </c>
       <c r="I72" s="3">
-        <v>8536500</v>
+        <v>8757300</v>
       </c>
       <c r="J72" s="3">
-        <v>7810300</v>
+        <v>8012400</v>
       </c>
       <c r="K72" s="3">
         <v>6624700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15910800</v>
+        <v>16322500</v>
       </c>
       <c r="E76" s="3">
-        <v>15771700</v>
+        <v>16179800</v>
       </c>
       <c r="F76" s="3">
-        <v>15309800</v>
+        <v>15705900</v>
       </c>
       <c r="G76" s="3">
-        <v>14867000</v>
+        <v>15251700</v>
       </c>
       <c r="H76" s="3">
-        <v>14137900</v>
+        <v>14503700</v>
       </c>
       <c r="I76" s="3">
-        <v>13453700</v>
+        <v>13801800</v>
       </c>
       <c r="J76" s="3">
-        <v>12574100</v>
+        <v>12899400</v>
       </c>
       <c r="K76" s="3">
         <v>10708100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2261000</v>
+        <v>2319500</v>
       </c>
       <c r="E81" s="3">
-        <v>2429200</v>
+        <v>2492000</v>
       </c>
       <c r="F81" s="3">
-        <v>2221200</v>
+        <v>2278700</v>
       </c>
       <c r="G81" s="3">
-        <v>2242900</v>
+        <v>2300900</v>
       </c>
       <c r="H81" s="3">
-        <v>1805300</v>
+        <v>1852000</v>
       </c>
       <c r="I81" s="3">
-        <v>1888000</v>
+        <v>1936800</v>
       </c>
       <c r="J81" s="3">
-        <v>1283200</v>
+        <v>1316400</v>
       </c>
       <c r="K81" s="3">
         <v>1381200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>187800</v>
+        <v>192700</v>
       </c>
       <c r="E83" s="3">
-        <v>114000</v>
+        <v>116900</v>
       </c>
       <c r="F83" s="3">
-        <v>89100</v>
+        <v>91400</v>
       </c>
       <c r="G83" s="3">
-        <v>76200</v>
+        <v>78200</v>
       </c>
       <c r="H83" s="3">
-        <v>107400</v>
+        <v>110200</v>
       </c>
       <c r="I83" s="3">
-        <v>88200</v>
+        <v>90400</v>
       </c>
       <c r="J83" s="3">
-        <v>137900</v>
+        <v>141400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-297700</v>
+        <v>-305400</v>
       </c>
       <c r="E89" s="3">
-        <v>3114700</v>
+        <v>3195300</v>
       </c>
       <c r="F89" s="3">
-        <v>6520500</v>
+        <v>6689200</v>
       </c>
       <c r="G89" s="3">
-        <v>-6157900</v>
+        <v>-6317200</v>
       </c>
       <c r="H89" s="3">
-        <v>8142300</v>
+        <v>8353000</v>
       </c>
       <c r="I89" s="3">
-        <v>1025100</v>
+        <v>1051600</v>
       </c>
       <c r="J89" s="3">
-        <v>-3024800</v>
+        <v>-3103100</v>
       </c>
       <c r="K89" s="3">
         <v>-839900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25700</v>
+        <v>-26400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1758700</v>
+        <v>-1804200</v>
       </c>
       <c r="F91" s="3">
-        <v>-57900</v>
+        <v>-59400</v>
       </c>
       <c r="G91" s="3">
-        <v>-51800</v>
+        <v>-53100</v>
       </c>
       <c r="H91" s="3">
-        <v>-467800</v>
+        <v>-479900</v>
       </c>
       <c r="I91" s="3">
-        <v>-127500</v>
+        <v>-130800</v>
       </c>
       <c r="J91" s="3">
-        <v>-95800</v>
+        <v>-98300</v>
       </c>
       <c r="K91" s="3">
         <v>-191400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>114200</v>
+        <v>117200</v>
       </c>
       <c r="E94" s="3">
-        <v>191800</v>
+        <v>196800</v>
       </c>
       <c r="F94" s="3">
-        <v>85700</v>
+        <v>88000</v>
       </c>
       <c r="G94" s="3">
-        <v>35100</v>
+        <v>36000</v>
       </c>
       <c r="H94" s="3">
-        <v>-260600</v>
+        <v>-267300</v>
       </c>
       <c r="I94" s="3">
-        <v>-582100</v>
+        <v>-597200</v>
       </c>
       <c r="J94" s="3">
-        <v>177800</v>
+        <v>182400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1824400</v>
+        <v>-1871600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1667000</v>
+        <v>-1710100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1687300</v>
+        <v>-1731000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1364300</v>
+        <v>-1399600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1439900</v>
+        <v>-1477200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1278500</v>
+        <v>-1311600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1249500</v>
+        <v>-1281800</v>
       </c>
       <c r="K96" s="3">
         <v>-606000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3720800</v>
+        <v>3817100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7906200</v>
+        <v>-8110700</v>
       </c>
       <c r="F100" s="3">
-        <v>2361200</v>
+        <v>2422300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1601200</v>
+        <v>-1642600</v>
       </c>
       <c r="H100" s="3">
-        <v>600100</v>
+        <v>615600</v>
       </c>
       <c r="I100" s="3">
-        <v>5585800</v>
+        <v>5730300</v>
       </c>
       <c r="J100" s="3">
-        <v>-5358500</v>
+        <v>-5497200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>150300</v>
+        <v>154100</v>
       </c>
       <c r="E101" s="3">
-        <v>328300</v>
+        <v>336800</v>
       </c>
       <c r="F101" s="3">
-        <v>103700</v>
+        <v>106300</v>
       </c>
       <c r="G101" s="3">
-        <v>266700</v>
+        <v>273600</v>
       </c>
       <c r="H101" s="3">
-        <v>-154500</v>
+        <v>-158500</v>
       </c>
       <c r="I101" s="3">
-        <v>214200</v>
+        <v>219700</v>
       </c>
       <c r="J101" s="3">
-        <v>92600</v>
+        <v>95000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3687600</v>
+        <v>3783000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4271300</v>
+        <v>-4381800</v>
       </c>
       <c r="F102" s="3">
-        <v>9071200</v>
+        <v>9305900</v>
       </c>
       <c r="G102" s="3">
-        <v>-7457300</v>
+        <v>-7650300</v>
       </c>
       <c r="H102" s="3">
-        <v>8327300</v>
+        <v>8542800</v>
       </c>
       <c r="I102" s="3">
-        <v>6243000</v>
+        <v>6404500</v>
       </c>
       <c r="J102" s="3">
-        <v>-8112900</v>
+        <v>-8322800</v>
       </c>
       <c r="K102" s="3">
         <v>-3559500</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SWDBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4165200</v>
+        <v>3904200</v>
       </c>
       <c r="E8" s="3">
-        <v>4010700</v>
+        <v>4086600</v>
       </c>
       <c r="F8" s="3">
-        <v>3790500</v>
+        <v>3935100</v>
       </c>
       <c r="G8" s="3">
-        <v>3694200</v>
+        <v>3719000</v>
       </c>
       <c r="H8" s="3">
-        <v>4119600</v>
+        <v>3624600</v>
       </c>
       <c r="I8" s="3">
-        <v>4834300</v>
+        <v>4041900</v>
       </c>
       <c r="J8" s="3">
+        <v>4743100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5177700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5248800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6082100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,32 +955,35 @@
         <v>-182600</v>
       </c>
       <c r="E15" s="3">
-        <v>-80800</v>
+        <v>-179200</v>
       </c>
       <c r="F15" s="3">
-        <v>-103200</v>
+        <v>-79300</v>
       </c>
       <c r="G15" s="3">
-        <v>-74100</v>
+        <v>-101200</v>
       </c>
       <c r="H15" s="3">
-        <v>-79100</v>
+        <v>-72700</v>
       </c>
       <c r="I15" s="3">
-        <v>-84600</v>
+        <v>-77600</v>
       </c>
       <c r="J15" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-87000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-207900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-114800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1277700</v>
+        <v>1302400</v>
       </c>
       <c r="E17" s="3">
-        <v>1101200</v>
+        <v>1253600</v>
       </c>
       <c r="F17" s="3">
-        <v>1045500</v>
+        <v>1080400</v>
       </c>
       <c r="G17" s="3">
-        <v>1164400</v>
+        <v>1025800</v>
       </c>
       <c r="H17" s="3">
-        <v>1481900</v>
+        <v>1142500</v>
       </c>
       <c r="I17" s="3">
-        <v>2217300</v>
+        <v>1454000</v>
       </c>
       <c r="J17" s="3">
+        <v>2175500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2590600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3113400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3706700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2887500</v>
+        <v>2601800</v>
       </c>
       <c r="E18" s="3">
-        <v>2909500</v>
+        <v>2833000</v>
       </c>
       <c r="F18" s="3">
-        <v>2745000</v>
+        <v>2854600</v>
       </c>
       <c r="G18" s="3">
-        <v>2529800</v>
+        <v>2693200</v>
       </c>
       <c r="H18" s="3">
-        <v>2637700</v>
+        <v>2482100</v>
       </c>
       <c r="I18" s="3">
-        <v>2617000</v>
+        <v>2588000</v>
       </c>
       <c r="J18" s="3">
+        <v>2567600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2587100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2135300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2375400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11800</v>
+        <v>-663100</v>
       </c>
       <c r="E20" s="3">
-        <v>217300</v>
+        <v>-11600</v>
       </c>
       <c r="F20" s="3">
-        <v>117400</v>
+        <v>213200</v>
       </c>
       <c r="G20" s="3">
-        <v>268300</v>
+        <v>115200</v>
       </c>
       <c r="H20" s="3">
-        <v>-238800</v>
+        <v>263200</v>
       </c>
       <c r="I20" s="3">
-        <v>-141000</v>
+        <v>-234300</v>
       </c>
       <c r="J20" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-307800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-112200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-624600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3067800</v>
+        <v>2122400</v>
       </c>
       <c r="E21" s="3">
-        <v>3243300</v>
+        <v>3011600</v>
       </c>
       <c r="F21" s="3">
-        <v>2953500</v>
+        <v>3183200</v>
       </c>
       <c r="G21" s="3">
-        <v>2876000</v>
+        <v>2898600</v>
       </c>
       <c r="H21" s="3">
-        <v>2508800</v>
+        <v>2822500</v>
       </c>
       <c r="I21" s="3">
-        <v>2566200</v>
+        <v>2462400</v>
       </c>
       <c r="J21" s="3">
+        <v>2518600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2420200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>2103400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2875700</v>
+        <v>1938800</v>
       </c>
       <c r="E23" s="3">
-        <v>3126800</v>
+        <v>2821500</v>
       </c>
       <c r="F23" s="3">
-        <v>2862400</v>
+        <v>3067800</v>
       </c>
       <c r="G23" s="3">
-        <v>2798100</v>
+        <v>2808400</v>
       </c>
       <c r="H23" s="3">
-        <v>2398900</v>
+        <v>2745300</v>
       </c>
       <c r="I23" s="3">
-        <v>2476000</v>
+        <v>2353700</v>
       </c>
       <c r="J23" s="3">
+        <v>2429300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2279200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2023100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1750800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>554800</v>
+        <v>444900</v>
       </c>
       <c r="E24" s="3">
-        <v>632800</v>
+        <v>544300</v>
       </c>
       <c r="F24" s="3">
-        <v>582100</v>
+        <v>620900</v>
       </c>
       <c r="G24" s="3">
-        <v>495700</v>
+        <v>571100</v>
       </c>
       <c r="H24" s="3">
-        <v>544600</v>
+        <v>486300</v>
       </c>
       <c r="I24" s="3">
-        <v>506500</v>
+        <v>534400</v>
       </c>
       <c r="J24" s="3">
+        <v>496900</v>
+      </c>
+      <c r="K24" s="3">
         <v>482700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>432000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>416500</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2320900</v>
+        <v>1493800</v>
       </c>
       <c r="E26" s="3">
-        <v>2493900</v>
+        <v>2277200</v>
       </c>
       <c r="F26" s="3">
-        <v>2280300</v>
+        <v>2446900</v>
       </c>
       <c r="G26" s="3">
-        <v>2302400</v>
+        <v>2237300</v>
       </c>
       <c r="H26" s="3">
-        <v>1854200</v>
+        <v>2259000</v>
       </c>
       <c r="I26" s="3">
-        <v>1969500</v>
+        <v>1819300</v>
       </c>
       <c r="J26" s="3">
+        <v>1932400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1796500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1591100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1334300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2319500</v>
+        <v>1493800</v>
       </c>
       <c r="E27" s="3">
-        <v>2492000</v>
+        <v>2275800</v>
       </c>
       <c r="F27" s="3">
-        <v>2278700</v>
+        <v>2445100</v>
       </c>
       <c r="G27" s="3">
-        <v>2300900</v>
+        <v>2235700</v>
       </c>
       <c r="H27" s="3">
-        <v>1852700</v>
+        <v>2257500</v>
       </c>
       <c r="I27" s="3">
-        <v>1967700</v>
+        <v>1817800</v>
       </c>
       <c r="J27" s="3">
+        <v>1930600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1592000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1485600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1219900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,27 +1421,30 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-700</v>
       </c>
-      <c r="I29" s="3">
-        <v>-30900</v>
-      </c>
       <c r="J29" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-275600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-104300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11800</v>
+        <v>663100</v>
       </c>
       <c r="E32" s="3">
-        <v>-217300</v>
+        <v>11600</v>
       </c>
       <c r="F32" s="3">
-        <v>-117400</v>
+        <v>-213200</v>
       </c>
       <c r="G32" s="3">
-        <v>-268300</v>
+        <v>-115200</v>
       </c>
       <c r="H32" s="3">
-        <v>238800</v>
+        <v>-263200</v>
       </c>
       <c r="I32" s="3">
-        <v>141000</v>
+        <v>234300</v>
       </c>
       <c r="J32" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K32" s="3">
         <v>307800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>112200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>624600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2319500</v>
+        <v>1493800</v>
       </c>
       <c r="E33" s="3">
-        <v>2492000</v>
+        <v>2275800</v>
       </c>
       <c r="F33" s="3">
-        <v>2278700</v>
+        <v>2445100</v>
       </c>
       <c r="G33" s="3">
-        <v>2300900</v>
+        <v>2235700</v>
       </c>
       <c r="H33" s="3">
-        <v>1852000</v>
+        <v>2257500</v>
       </c>
       <c r="I33" s="3">
-        <v>1936800</v>
+        <v>1817100</v>
       </c>
       <c r="J33" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1316400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1381200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1220200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2319500</v>
+        <v>1493800</v>
       </c>
       <c r="E35" s="3">
-        <v>2492000</v>
+        <v>2275800</v>
       </c>
       <c r="F35" s="3">
-        <v>2278700</v>
+        <v>2445100</v>
       </c>
       <c r="G35" s="3">
-        <v>2300900</v>
+        <v>2235700</v>
       </c>
       <c r="H35" s="3">
-        <v>1852000</v>
+        <v>2257500</v>
       </c>
       <c r="I35" s="3">
-        <v>1936800</v>
+        <v>1817100</v>
       </c>
       <c r="J35" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1316400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1381200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1220200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27808400</v>
+        <v>37817500</v>
       </c>
       <c r="E41" s="3">
-        <v>23022400</v>
+        <v>27284200</v>
       </c>
       <c r="F41" s="3">
-        <v>26767400</v>
+        <v>22588400</v>
       </c>
       <c r="G41" s="3">
-        <v>17981000</v>
+        <v>26262800</v>
       </c>
       <c r="H41" s="3">
-        <v>31911900</v>
+        <v>17642000</v>
       </c>
       <c r="I41" s="3">
-        <v>24743600</v>
+        <v>31310300</v>
       </c>
       <c r="J41" s="3">
+        <v>24277100</v>
+      </c>
+      <c r="K41" s="3">
         <v>25462100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29623700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159111000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54424600</v>
+        <v>59397800</v>
       </c>
       <c r="E42" s="3">
-        <v>42958800</v>
+        <v>53398500</v>
       </c>
       <c r="F42" s="3">
-        <v>43690500</v>
+        <v>42149000</v>
       </c>
       <c r="G42" s="3">
-        <v>59041100</v>
+        <v>42866800</v>
       </c>
       <c r="H42" s="3">
-        <v>52899100</v>
+        <v>57928100</v>
       </c>
       <c r="I42" s="3">
-        <v>62079200</v>
+        <v>51901800</v>
       </c>
       <c r="J42" s="3">
+        <v>60908900</v>
+      </c>
+      <c r="K42" s="3">
         <v>50791900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42847600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>786500</v>
+        <v>841900</v>
       </c>
       <c r="E47" s="3">
-        <v>716900</v>
+        <v>771700</v>
       </c>
       <c r="F47" s="3">
-        <v>748600</v>
+        <v>703400</v>
       </c>
       <c r="G47" s="3">
-        <v>861900</v>
+        <v>734500</v>
       </c>
       <c r="H47" s="3">
-        <v>633800</v>
+        <v>845600</v>
       </c>
       <c r="I47" s="3">
-        <v>579900</v>
+        <v>621800</v>
       </c>
       <c r="J47" s="3">
+        <v>568900</v>
+      </c>
+      <c r="K47" s="3">
         <v>428600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>369200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>353200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>656200</v>
+        <v>626300</v>
       </c>
       <c r="E48" s="3">
-        <v>231500</v>
+        <v>643800</v>
       </c>
       <c r="F48" s="3">
-        <v>230200</v>
+        <v>227200</v>
       </c>
       <c r="G48" s="3">
-        <v>219500</v>
+        <v>225900</v>
       </c>
       <c r="H48" s="3">
-        <v>234200</v>
+        <v>215400</v>
       </c>
       <c r="I48" s="3">
-        <v>323800</v>
+        <v>229800</v>
       </c>
       <c r="J48" s="3">
+        <v>317700</v>
+      </c>
+      <c r="K48" s="3">
         <v>900600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1461500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>941400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2103700</v>
+        <v>2121400</v>
       </c>
       <c r="E49" s="3">
-        <v>2015800</v>
+        <v>2064000</v>
       </c>
       <c r="F49" s="3">
-        <v>1922900</v>
+        <v>1977800</v>
       </c>
       <c r="G49" s="3">
-        <v>1681500</v>
+        <v>1886700</v>
       </c>
       <c r="H49" s="3">
-        <v>1612100</v>
+        <v>1649800</v>
       </c>
       <c r="I49" s="3">
-        <v>1686200</v>
+        <v>1581700</v>
       </c>
       <c r="J49" s="3">
+        <v>1654400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1831900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4190500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1566500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3">
-        <v>19300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>20400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>18800</v>
-      </c>
       <c r="H52" s="3">
-        <v>190100</v>
+        <v>18500</v>
       </c>
       <c r="I52" s="3">
-        <v>147600</v>
+        <v>186500</v>
       </c>
       <c r="J52" s="3">
+        <v>144800</v>
+      </c>
+      <c r="K52" s="3">
         <v>268400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>89900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>283593000</v>
+        <v>299785000</v>
       </c>
       <c r="E54" s="3">
-        <v>264500000</v>
+        <v>278247000</v>
       </c>
       <c r="F54" s="3">
-        <v>260560000</v>
+        <v>259514000</v>
       </c>
       <c r="G54" s="3">
-        <v>253679000</v>
+        <v>255648000</v>
       </c>
       <c r="H54" s="3">
-        <v>253049000</v>
+        <v>248897000</v>
       </c>
       <c r="I54" s="3">
-        <v>249804000</v>
+        <v>248279000</v>
       </c>
       <c r="J54" s="3">
+        <v>245095000</v>
+      </c>
+      <c r="K54" s="3">
         <v>214806000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>191944000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>210814000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,22 +2267,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>783600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>768800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -2161,84 +2291,93 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1262200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1365400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36451200</v>
+        <v>31769800</v>
       </c>
       <c r="E58" s="3">
-        <v>24288600</v>
+        <v>35764000</v>
       </c>
       <c r="F58" s="3">
-        <v>30217100</v>
+        <v>23830700</v>
       </c>
       <c r="G58" s="3">
-        <v>32186600</v>
+        <v>29647400</v>
       </c>
       <c r="H58" s="3">
-        <v>25718800</v>
+        <v>31579900</v>
       </c>
       <c r="I58" s="3">
-        <v>38090100</v>
+        <v>25233900</v>
       </c>
       <c r="J58" s="3">
+        <v>37372000</v>
+      </c>
+      <c r="K58" s="3">
         <v>27442100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>614600</v>
+        <v>515500</v>
       </c>
       <c r="E59" s="3">
-        <v>609200</v>
+        <v>603000</v>
       </c>
       <c r="F59" s="3">
-        <v>586000</v>
+        <v>597700</v>
       </c>
       <c r="G59" s="3">
-        <v>1402400</v>
+        <v>574900</v>
       </c>
       <c r="H59" s="3">
-        <v>1571900</v>
+        <v>1376000</v>
       </c>
       <c r="I59" s="3">
-        <v>1713200</v>
+        <v>1542200</v>
       </c>
       <c r="J59" s="3">
+        <v>1680900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1894400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1887400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2166400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69788300</v>
+        <v>59165000</v>
       </c>
       <c r="E61" s="3">
-        <v>74533800</v>
+        <v>68472700</v>
       </c>
       <c r="F61" s="3">
-        <v>73225500</v>
+        <v>73128700</v>
       </c>
       <c r="G61" s="3">
-        <v>71422400</v>
+        <v>71845100</v>
       </c>
       <c r="H61" s="3">
-        <v>74938000</v>
+        <v>70075900</v>
       </c>
       <c r="I61" s="3">
-        <v>65006800</v>
+        <v>73525300</v>
       </c>
       <c r="J61" s="3">
+        <v>63781300</v>
+      </c>
+      <c r="K61" s="3">
         <v>62820700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81248400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>104674000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1522800</v>
+        <v>1061000</v>
       </c>
       <c r="E62" s="3">
-        <v>1049500</v>
+        <v>1494000</v>
       </c>
       <c r="F62" s="3">
-        <v>907900</v>
+        <v>1029700</v>
       </c>
       <c r="G62" s="3">
-        <v>694500</v>
+        <v>890800</v>
       </c>
       <c r="H62" s="3">
-        <v>609100</v>
+        <v>681500</v>
       </c>
       <c r="I62" s="3">
-        <v>887800</v>
+        <v>597600</v>
       </c>
       <c r="J62" s="3">
+        <v>871100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1387100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1009600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>751800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>267271000</v>
+        <v>281857000</v>
       </c>
       <c r="E66" s="3">
-        <v>248320000</v>
+        <v>262232000</v>
       </c>
       <c r="F66" s="3">
-        <v>244854000</v>
+        <v>243639000</v>
       </c>
       <c r="G66" s="3">
-        <v>238427000</v>
+        <v>240238000</v>
       </c>
       <c r="H66" s="3">
-        <v>238546000</v>
+        <v>233933000</v>
       </c>
       <c r="I66" s="3">
-        <v>236002000</v>
+        <v>234049000</v>
       </c>
       <c r="J66" s="3">
+        <v>231553000</v>
+      </c>
+      <c r="K66" s="3">
         <v>201907000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181236000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199690000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11555100</v>
+        <v>13337100</v>
       </c>
       <c r="E72" s="3">
-        <v>11450600</v>
+        <v>11337200</v>
       </c>
       <c r="F72" s="3">
-        <v>11056100</v>
+        <v>11234800</v>
       </c>
       <c r="G72" s="3">
-        <v>10175200</v>
+        <v>10847700</v>
       </c>
       <c r="H72" s="3">
-        <v>9519100</v>
+        <v>9983300</v>
       </c>
       <c r="I72" s="3">
-        <v>8757300</v>
+        <v>9339700</v>
       </c>
       <c r="J72" s="3">
+        <v>8592200</v>
+      </c>
+      <c r="K72" s="3">
         <v>8012400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6624700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6630500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16322500</v>
+        <v>17928100</v>
       </c>
       <c r="E76" s="3">
-        <v>16179800</v>
+        <v>16014800</v>
       </c>
       <c r="F76" s="3">
-        <v>15705900</v>
+        <v>15874700</v>
       </c>
       <c r="G76" s="3">
-        <v>15251700</v>
+        <v>15409800</v>
       </c>
       <c r="H76" s="3">
-        <v>14503700</v>
+        <v>14964200</v>
       </c>
       <c r="I76" s="3">
-        <v>13801800</v>
+        <v>14230300</v>
       </c>
       <c r="J76" s="3">
+        <v>13541600</v>
+      </c>
+      <c r="K76" s="3">
         <v>12899400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10708100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11124200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2319500</v>
+        <v>1493800</v>
       </c>
       <c r="E81" s="3">
-        <v>2492000</v>
+        <v>2275800</v>
       </c>
       <c r="F81" s="3">
-        <v>2278700</v>
+        <v>2445100</v>
       </c>
       <c r="G81" s="3">
-        <v>2300900</v>
+        <v>2235700</v>
       </c>
       <c r="H81" s="3">
-        <v>1852000</v>
+        <v>2257500</v>
       </c>
       <c r="I81" s="3">
-        <v>1936800</v>
+        <v>1817100</v>
       </c>
       <c r="J81" s="3">
+        <v>1900300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1316400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1381200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1220200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>192700</v>
+        <v>182600</v>
       </c>
       <c r="E83" s="3">
-        <v>116900</v>
+        <v>189000</v>
       </c>
       <c r="F83" s="3">
-        <v>91400</v>
+        <v>114700</v>
       </c>
       <c r="G83" s="3">
-        <v>78200</v>
+        <v>89700</v>
       </c>
       <c r="H83" s="3">
-        <v>110200</v>
+        <v>76700</v>
       </c>
       <c r="I83" s="3">
-        <v>90400</v>
+        <v>108100</v>
       </c>
       <c r="J83" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K83" s="3">
         <v>141400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>352100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-305400</v>
+        <v>12621200</v>
       </c>
       <c r="E89" s="3">
-        <v>3195300</v>
+        <v>4386800</v>
       </c>
       <c r="F89" s="3">
-        <v>6689200</v>
+        <v>3135100</v>
       </c>
       <c r="G89" s="3">
-        <v>-6317200</v>
+        <v>6563100</v>
       </c>
       <c r="H89" s="3">
-        <v>8353000</v>
+        <v>-6198100</v>
       </c>
       <c r="I89" s="3">
-        <v>1051600</v>
+        <v>8195500</v>
       </c>
       <c r="J89" s="3">
+        <v>1031800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3103100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-839900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9148000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26400</v>
+        <v>-42100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1804200</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-59400</v>
+        <v>-1770200</v>
       </c>
       <c r="G91" s="3">
-        <v>-53100</v>
+        <v>-58200</v>
       </c>
       <c r="H91" s="3">
-        <v>-479900</v>
+        <v>-52100</v>
       </c>
       <c r="I91" s="3">
-        <v>-130800</v>
+        <v>-470800</v>
       </c>
       <c r="J91" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-98300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-191400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-499000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>117200</v>
+        <v>159800</v>
       </c>
       <c r="E94" s="3">
-        <v>196800</v>
+        <v>115000</v>
       </c>
       <c r="F94" s="3">
-        <v>88000</v>
+        <v>193100</v>
       </c>
       <c r="G94" s="3">
-        <v>36000</v>
+        <v>86300</v>
       </c>
       <c r="H94" s="3">
-        <v>-267300</v>
+        <v>35400</v>
       </c>
       <c r="I94" s="3">
-        <v>-597200</v>
+        <v>-262300</v>
       </c>
       <c r="J94" s="3">
+        <v>-585900</v>
+      </c>
+      <c r="K94" s="3">
         <v>182400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>11600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1871600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1710100</v>
+        <v>-1836300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1731000</v>
+        <v>-1677900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1399600</v>
+        <v>-1698300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1477200</v>
+        <v>-1373200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1311600</v>
+        <v>-1449300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1286900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1281800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-606000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-341700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3817100</v>
+        <v>-1005000</v>
       </c>
       <c r="E100" s="3">
-        <v>-8110700</v>
+        <v>-941300</v>
       </c>
       <c r="F100" s="3">
-        <v>2422300</v>
+        <v>-7957800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1642600</v>
+        <v>2376700</v>
       </c>
       <c r="H100" s="3">
-        <v>615600</v>
+        <v>-1611700</v>
       </c>
       <c r="I100" s="3">
-        <v>5730300</v>
+        <v>604000</v>
       </c>
       <c r="J100" s="3">
+        <v>5622300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5497200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>7557400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>154100</v>
+        <v>-392500</v>
       </c>
       <c r="E101" s="3">
-        <v>336800</v>
+        <v>151200</v>
       </c>
       <c r="F101" s="3">
-        <v>106300</v>
+        <v>330400</v>
       </c>
       <c r="G101" s="3">
-        <v>273600</v>
+        <v>104300</v>
       </c>
       <c r="H101" s="3">
-        <v>-158500</v>
+        <v>268400</v>
       </c>
       <c r="I101" s="3">
-        <v>219700</v>
+        <v>-155500</v>
       </c>
       <c r="J101" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K101" s="3">
         <v>95000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3783000</v>
+        <v>11383600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4381800</v>
+        <v>3711700</v>
       </c>
       <c r="F102" s="3">
-        <v>9305900</v>
+        <v>-4299200</v>
       </c>
       <c r="G102" s="3">
-        <v>-7650300</v>
+        <v>9130400</v>
       </c>
       <c r="H102" s="3">
-        <v>8542800</v>
+        <v>-7506100</v>
       </c>
       <c r="I102" s="3">
-        <v>6404500</v>
+        <v>8381700</v>
       </c>
       <c r="J102" s="3">
+        <v>6283800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8322800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3559500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16709900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3904200</v>
+        <v>4091800</v>
       </c>
       <c r="E8" s="3">
-        <v>4086600</v>
+        <v>4283000</v>
       </c>
       <c r="F8" s="3">
-        <v>3935100</v>
+        <v>4124100</v>
       </c>
       <c r="G8" s="3">
-        <v>3719000</v>
+        <v>3897600</v>
       </c>
       <c r="H8" s="3">
-        <v>3624600</v>
+        <v>3798700</v>
       </c>
       <c r="I8" s="3">
-        <v>4041900</v>
+        <v>4236100</v>
       </c>
       <c r="J8" s="3">
-        <v>4743100</v>
+        <v>4971000</v>
       </c>
       <c r="K8" s="3">
         <v>5177700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-182600</v>
+        <v>-191300</v>
       </c>
       <c r="E15" s="3">
-        <v>-179200</v>
+        <v>-187800</v>
       </c>
       <c r="F15" s="3">
-        <v>-79300</v>
+        <v>-83100</v>
       </c>
       <c r="G15" s="3">
-        <v>-101200</v>
+        <v>-106100</v>
       </c>
       <c r="H15" s="3">
-        <v>-72700</v>
+        <v>-76200</v>
       </c>
       <c r="I15" s="3">
-        <v>-77600</v>
+        <v>-81400</v>
       </c>
       <c r="J15" s="3">
-        <v>-83000</v>
+        <v>-86900</v>
       </c>
       <c r="K15" s="3">
         <v>-87000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1302400</v>
+        <v>1364900</v>
       </c>
       <c r="E17" s="3">
-        <v>1253600</v>
+        <v>1313800</v>
       </c>
       <c r="F17" s="3">
-        <v>1080400</v>
+        <v>1132300</v>
       </c>
       <c r="G17" s="3">
-        <v>1025800</v>
+        <v>1075000</v>
       </c>
       <c r="H17" s="3">
-        <v>1142500</v>
+        <v>1197300</v>
       </c>
       <c r="I17" s="3">
-        <v>1454000</v>
+        <v>1523800</v>
       </c>
       <c r="J17" s="3">
-        <v>2175500</v>
+        <v>2280000</v>
       </c>
       <c r="K17" s="3">
         <v>2590600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2601800</v>
+        <v>2726800</v>
       </c>
       <c r="E18" s="3">
-        <v>2833000</v>
+        <v>2969100</v>
       </c>
       <c r="F18" s="3">
-        <v>2854600</v>
+        <v>2991800</v>
       </c>
       <c r="G18" s="3">
-        <v>2693200</v>
+        <v>2822600</v>
       </c>
       <c r="H18" s="3">
-        <v>2482100</v>
+        <v>2601400</v>
       </c>
       <c r="I18" s="3">
-        <v>2588000</v>
+        <v>2712300</v>
       </c>
       <c r="J18" s="3">
-        <v>2567600</v>
+        <v>2691000</v>
       </c>
       <c r="K18" s="3">
         <v>2587100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-663100</v>
+        <v>-694900</v>
       </c>
       <c r="E20" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="F20" s="3">
-        <v>213200</v>
+        <v>223400</v>
       </c>
       <c r="G20" s="3">
-        <v>115200</v>
+        <v>120700</v>
       </c>
       <c r="H20" s="3">
-        <v>263200</v>
+        <v>275800</v>
       </c>
       <c r="I20" s="3">
-        <v>-234300</v>
+        <v>-245600</v>
       </c>
       <c r="J20" s="3">
-        <v>-138300</v>
+        <v>-144900</v>
       </c>
       <c r="K20" s="3">
         <v>-307800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2122400</v>
+        <v>2222000</v>
       </c>
       <c r="E21" s="3">
-        <v>3011600</v>
+        <v>3153800</v>
       </c>
       <c r="F21" s="3">
-        <v>3183200</v>
+        <v>3334600</v>
       </c>
       <c r="G21" s="3">
-        <v>2898600</v>
+        <v>3036700</v>
       </c>
       <c r="H21" s="3">
-        <v>2822500</v>
+        <v>2957100</v>
       </c>
       <c r="I21" s="3">
-        <v>2462400</v>
+        <v>2579300</v>
       </c>
       <c r="J21" s="3">
-        <v>2518600</v>
+        <v>2638400</v>
       </c>
       <c r="K21" s="3">
         <v>2420200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1938800</v>
+        <v>2031900</v>
       </c>
       <c r="E23" s="3">
-        <v>2821500</v>
+        <v>2957000</v>
       </c>
       <c r="F23" s="3">
-        <v>3067800</v>
+        <v>3215200</v>
       </c>
       <c r="G23" s="3">
-        <v>2808400</v>
+        <v>2943300</v>
       </c>
       <c r="H23" s="3">
-        <v>2745300</v>
+        <v>2877200</v>
       </c>
       <c r="I23" s="3">
-        <v>2353700</v>
+        <v>2466700</v>
       </c>
       <c r="J23" s="3">
-        <v>2429300</v>
+        <v>2546000</v>
       </c>
       <c r="K23" s="3">
         <v>2279200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444900</v>
+        <v>466300</v>
       </c>
       <c r="E24" s="3">
-        <v>544300</v>
+        <v>570500</v>
       </c>
       <c r="F24" s="3">
-        <v>620900</v>
+        <v>650700</v>
       </c>
       <c r="G24" s="3">
-        <v>571100</v>
+        <v>598500</v>
       </c>
       <c r="H24" s="3">
-        <v>486300</v>
+        <v>509700</v>
       </c>
       <c r="I24" s="3">
-        <v>534400</v>
+        <v>560000</v>
       </c>
       <c r="J24" s="3">
-        <v>496900</v>
+        <v>520800</v>
       </c>
       <c r="K24" s="3">
         <v>482700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1493800</v>
+        <v>1565600</v>
       </c>
       <c r="E26" s="3">
-        <v>2277200</v>
+        <v>2386600</v>
       </c>
       <c r="F26" s="3">
-        <v>2446900</v>
+        <v>2564400</v>
       </c>
       <c r="G26" s="3">
-        <v>2237300</v>
+        <v>2344800</v>
       </c>
       <c r="H26" s="3">
-        <v>2259000</v>
+        <v>2367600</v>
       </c>
       <c r="I26" s="3">
-        <v>1819300</v>
+        <v>1906700</v>
       </c>
       <c r="J26" s="3">
-        <v>1932400</v>
+        <v>2025200</v>
       </c>
       <c r="K26" s="3">
         <v>1796500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1493800</v>
+        <v>1565600</v>
       </c>
       <c r="E27" s="3">
-        <v>2275800</v>
+        <v>2385100</v>
       </c>
       <c r="F27" s="3">
-        <v>2445100</v>
+        <v>2562500</v>
       </c>
       <c r="G27" s="3">
-        <v>2235700</v>
+        <v>2343100</v>
       </c>
       <c r="H27" s="3">
-        <v>2257500</v>
+        <v>2366000</v>
       </c>
       <c r="I27" s="3">
-        <v>1817800</v>
+        <v>1905100</v>
       </c>
       <c r="J27" s="3">
-        <v>1930600</v>
+        <v>2023300</v>
       </c>
       <c r="K27" s="3">
         <v>1592000</v>
@@ -1431,7 +1431,7 @@
         <v>-700</v>
       </c>
       <c r="J29" s="3">
-        <v>-30300</v>
+        <v>-31700</v>
       </c>
       <c r="K29" s="3">
         <v>-275600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>663100</v>
+        <v>694900</v>
       </c>
       <c r="E32" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="F32" s="3">
-        <v>-213200</v>
+        <v>-223400</v>
       </c>
       <c r="G32" s="3">
-        <v>-115200</v>
+        <v>-120700</v>
       </c>
       <c r="H32" s="3">
-        <v>-263200</v>
+        <v>-275800</v>
       </c>
       <c r="I32" s="3">
-        <v>234300</v>
+        <v>245600</v>
       </c>
       <c r="J32" s="3">
-        <v>138300</v>
+        <v>144900</v>
       </c>
       <c r="K32" s="3">
         <v>307800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1493800</v>
+        <v>1565600</v>
       </c>
       <c r="E33" s="3">
-        <v>2275800</v>
+        <v>2385100</v>
       </c>
       <c r="F33" s="3">
-        <v>2445100</v>
+        <v>2562500</v>
       </c>
       <c r="G33" s="3">
-        <v>2235700</v>
+        <v>2343100</v>
       </c>
       <c r="H33" s="3">
-        <v>2257500</v>
+        <v>2366000</v>
       </c>
       <c r="I33" s="3">
-        <v>1817100</v>
+        <v>1904400</v>
       </c>
       <c r="J33" s="3">
-        <v>1900300</v>
+        <v>1991600</v>
       </c>
       <c r="K33" s="3">
         <v>1316400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1493800</v>
+        <v>1565600</v>
       </c>
       <c r="E35" s="3">
-        <v>2275800</v>
+        <v>2385100</v>
       </c>
       <c r="F35" s="3">
-        <v>2445100</v>
+        <v>2562500</v>
       </c>
       <c r="G35" s="3">
-        <v>2235700</v>
+        <v>2343100</v>
       </c>
       <c r="H35" s="3">
-        <v>2257500</v>
+        <v>2366000</v>
       </c>
       <c r="I35" s="3">
-        <v>1817100</v>
+        <v>1904400</v>
       </c>
       <c r="J35" s="3">
-        <v>1900300</v>
+        <v>1991600</v>
       </c>
       <c r="K35" s="3">
         <v>1316400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37817500</v>
+        <v>39634100</v>
       </c>
       <c r="E41" s="3">
-        <v>27284200</v>
+        <v>28594800</v>
       </c>
       <c r="F41" s="3">
-        <v>22588400</v>
+        <v>23673500</v>
       </c>
       <c r="G41" s="3">
-        <v>26262800</v>
+        <v>27524400</v>
       </c>
       <c r="H41" s="3">
-        <v>17642000</v>
+        <v>18489500</v>
       </c>
       <c r="I41" s="3">
-        <v>31310300</v>
+        <v>32814300</v>
       </c>
       <c r="J41" s="3">
-        <v>24277100</v>
+        <v>25443300</v>
       </c>
       <c r="K41" s="3">
         <v>25462100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59397800</v>
+        <v>62251000</v>
       </c>
       <c r="E42" s="3">
-        <v>53398500</v>
+        <v>55963600</v>
       </c>
       <c r="F42" s="3">
-        <v>42149000</v>
+        <v>44173600</v>
       </c>
       <c r="G42" s="3">
-        <v>42866800</v>
+        <v>44926000</v>
       </c>
       <c r="H42" s="3">
-        <v>57928100</v>
+        <v>60710700</v>
       </c>
       <c r="I42" s="3">
-        <v>51901800</v>
+        <v>54395000</v>
       </c>
       <c r="J42" s="3">
-        <v>60908900</v>
+        <v>63834700</v>
       </c>
       <c r="K42" s="3">
         <v>50791900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>841900</v>
+        <v>882400</v>
       </c>
       <c r="E47" s="3">
-        <v>771700</v>
+        <v>808800</v>
       </c>
       <c r="F47" s="3">
-        <v>703400</v>
+        <v>737200</v>
       </c>
       <c r="G47" s="3">
-        <v>734500</v>
+        <v>769800</v>
       </c>
       <c r="H47" s="3">
-        <v>845600</v>
+        <v>886300</v>
       </c>
       <c r="I47" s="3">
-        <v>621800</v>
+        <v>651700</v>
       </c>
       <c r="J47" s="3">
-        <v>568900</v>
+        <v>596200</v>
       </c>
       <c r="K47" s="3">
         <v>428600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>626300</v>
+        <v>656400</v>
       </c>
       <c r="E48" s="3">
-        <v>643800</v>
+        <v>674700</v>
       </c>
       <c r="F48" s="3">
-        <v>227200</v>
+        <v>238100</v>
       </c>
       <c r="G48" s="3">
-        <v>225900</v>
+        <v>236700</v>
       </c>
       <c r="H48" s="3">
-        <v>215400</v>
+        <v>225700</v>
       </c>
       <c r="I48" s="3">
-        <v>229800</v>
+        <v>240800</v>
       </c>
       <c r="J48" s="3">
-        <v>317700</v>
+        <v>333000</v>
       </c>
       <c r="K48" s="3">
         <v>900600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2121400</v>
+        <v>2223300</v>
       </c>
       <c r="E49" s="3">
-        <v>2064000</v>
+        <v>2163200</v>
       </c>
       <c r="F49" s="3">
-        <v>1977800</v>
+        <v>2072800</v>
       </c>
       <c r="G49" s="3">
-        <v>1886700</v>
+        <v>1977300</v>
       </c>
       <c r="H49" s="3">
-        <v>1649800</v>
+        <v>1729000</v>
       </c>
       <c r="I49" s="3">
-        <v>1581700</v>
+        <v>1657700</v>
       </c>
       <c r="J49" s="3">
-        <v>1654400</v>
+        <v>1733900</v>
       </c>
       <c r="K49" s="3">
         <v>1831900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="F52" s="3">
-        <v>18900</v>
+        <v>19900</v>
       </c>
       <c r="G52" s="3">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="H52" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="I52" s="3">
-        <v>186500</v>
+        <v>195400</v>
       </c>
       <c r="J52" s="3">
-        <v>144800</v>
+        <v>151700</v>
       </c>
       <c r="K52" s="3">
         <v>268400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>299785000</v>
+        <v>314185000</v>
       </c>
       <c r="E54" s="3">
-        <v>278247000</v>
+        <v>291612000</v>
       </c>
       <c r="F54" s="3">
-        <v>259514000</v>
+        <v>271979000</v>
       </c>
       <c r="G54" s="3">
-        <v>255648000</v>
+        <v>267928000</v>
       </c>
       <c r="H54" s="3">
-        <v>248897000</v>
+        <v>260852000</v>
       </c>
       <c r="I54" s="3">
-        <v>248279000</v>
+        <v>260205000</v>
       </c>
       <c r="J54" s="3">
-        <v>245095000</v>
+        <v>256868000</v>
       </c>
       <c r="K54" s="3">
         <v>214806000</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>768800</v>
+        <v>805700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31769800</v>
+        <v>33295900</v>
       </c>
       <c r="E58" s="3">
-        <v>35764000</v>
+        <v>37482000</v>
       </c>
       <c r="F58" s="3">
-        <v>23830700</v>
+        <v>24975400</v>
       </c>
       <c r="G58" s="3">
-        <v>29647400</v>
+        <v>31071600</v>
       </c>
       <c r="H58" s="3">
-        <v>31579900</v>
+        <v>33096800</v>
       </c>
       <c r="I58" s="3">
-        <v>25233900</v>
+        <v>26446100</v>
       </c>
       <c r="J58" s="3">
-        <v>37372000</v>
+        <v>39167200</v>
       </c>
       <c r="K58" s="3">
         <v>27442100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>515500</v>
+        <v>540300</v>
       </c>
       <c r="E59" s="3">
-        <v>603000</v>
+        <v>632000</v>
       </c>
       <c r="F59" s="3">
-        <v>597700</v>
+        <v>626400</v>
       </c>
       <c r="G59" s="3">
-        <v>574900</v>
+        <v>602500</v>
       </c>
       <c r="H59" s="3">
-        <v>1376000</v>
+        <v>1442100</v>
       </c>
       <c r="I59" s="3">
-        <v>1542200</v>
+        <v>1616300</v>
       </c>
       <c r="J59" s="3">
-        <v>1680900</v>
+        <v>1761600</v>
       </c>
       <c r="K59" s="3">
         <v>1894400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59165000</v>
+        <v>62007000</v>
       </c>
       <c r="E61" s="3">
-        <v>68472700</v>
+        <v>71761800</v>
       </c>
       <c r="F61" s="3">
-        <v>73128700</v>
+        <v>76641500</v>
       </c>
       <c r="G61" s="3">
-        <v>71845100</v>
+        <v>75296200</v>
       </c>
       <c r="H61" s="3">
-        <v>70075900</v>
+        <v>73442100</v>
       </c>
       <c r="I61" s="3">
-        <v>73525300</v>
+        <v>77057100</v>
       </c>
       <c r="J61" s="3">
-        <v>63781300</v>
+        <v>66845100</v>
       </c>
       <c r="K61" s="3">
         <v>62820700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1061000</v>
+        <v>1112000</v>
       </c>
       <c r="E62" s="3">
-        <v>1494000</v>
+        <v>1565800</v>
       </c>
       <c r="F62" s="3">
-        <v>1029700</v>
+        <v>1079200</v>
       </c>
       <c r="G62" s="3">
-        <v>890800</v>
+        <v>933600</v>
       </c>
       <c r="H62" s="3">
-        <v>681500</v>
+        <v>714200</v>
       </c>
       <c r="I62" s="3">
-        <v>597600</v>
+        <v>626300</v>
       </c>
       <c r="J62" s="3">
-        <v>871100</v>
+        <v>912900</v>
       </c>
       <c r="K62" s="3">
         <v>1387100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>281857000</v>
+        <v>295396000</v>
       </c>
       <c r="E66" s="3">
-        <v>262232000</v>
+        <v>274828000</v>
       </c>
       <c r="F66" s="3">
-        <v>243639000</v>
+        <v>255342000</v>
       </c>
       <c r="G66" s="3">
-        <v>240238000</v>
+        <v>251778000</v>
       </c>
       <c r="H66" s="3">
-        <v>233933000</v>
+        <v>245170000</v>
       </c>
       <c r="I66" s="3">
-        <v>234049000</v>
+        <v>245291000</v>
       </c>
       <c r="J66" s="3">
-        <v>231553000</v>
+        <v>242676000</v>
       </c>
       <c r="K66" s="3">
         <v>201907000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13337100</v>
+        <v>13977800</v>
       </c>
       <c r="E72" s="3">
-        <v>11337200</v>
+        <v>11881800</v>
       </c>
       <c r="F72" s="3">
-        <v>11234800</v>
+        <v>11774400</v>
       </c>
       <c r="G72" s="3">
-        <v>10847700</v>
+        <v>11368800</v>
       </c>
       <c r="H72" s="3">
-        <v>9983300</v>
+        <v>10462900</v>
       </c>
       <c r="I72" s="3">
-        <v>9339700</v>
+        <v>9788300</v>
       </c>
       <c r="J72" s="3">
-        <v>8592200</v>
+        <v>9005000</v>
       </c>
       <c r="K72" s="3">
         <v>8012400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17928100</v>
+        <v>18789300</v>
       </c>
       <c r="E76" s="3">
-        <v>16014800</v>
+        <v>16784000</v>
       </c>
       <c r="F76" s="3">
-        <v>15874700</v>
+        <v>16637300</v>
       </c>
       <c r="G76" s="3">
-        <v>15409800</v>
+        <v>16150000</v>
       </c>
       <c r="H76" s="3">
-        <v>14964200</v>
+        <v>15683000</v>
       </c>
       <c r="I76" s="3">
-        <v>14230300</v>
+        <v>14913800</v>
       </c>
       <c r="J76" s="3">
-        <v>13541600</v>
+        <v>14192100</v>
       </c>
       <c r="K76" s="3">
         <v>12899400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1493800</v>
+        <v>1565600</v>
       </c>
       <c r="E81" s="3">
-        <v>2275800</v>
+        <v>2385100</v>
       </c>
       <c r="F81" s="3">
-        <v>2445100</v>
+        <v>2562500</v>
       </c>
       <c r="G81" s="3">
-        <v>2235700</v>
+        <v>2343100</v>
       </c>
       <c r="H81" s="3">
-        <v>2257500</v>
+        <v>2366000</v>
       </c>
       <c r="I81" s="3">
-        <v>1817100</v>
+        <v>1904400</v>
       </c>
       <c r="J81" s="3">
-        <v>1900300</v>
+        <v>1991600</v>
       </c>
       <c r="K81" s="3">
         <v>1316400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>182600</v>
+        <v>191300</v>
       </c>
       <c r="E83" s="3">
-        <v>189000</v>
+        <v>198100</v>
       </c>
       <c r="F83" s="3">
-        <v>114700</v>
+        <v>120200</v>
       </c>
       <c r="G83" s="3">
-        <v>89700</v>
+        <v>94000</v>
       </c>
       <c r="H83" s="3">
-        <v>76700</v>
+        <v>80400</v>
       </c>
       <c r="I83" s="3">
-        <v>108100</v>
+        <v>113300</v>
       </c>
       <c r="J83" s="3">
-        <v>88700</v>
+        <v>93000</v>
       </c>
       <c r="K83" s="3">
         <v>141400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12621200</v>
+        <v>13227500</v>
       </c>
       <c r="E89" s="3">
-        <v>4386800</v>
+        <v>4597500</v>
       </c>
       <c r="F89" s="3">
-        <v>3135100</v>
+        <v>3285700</v>
       </c>
       <c r="G89" s="3">
-        <v>6563100</v>
+        <v>6878400</v>
       </c>
       <c r="H89" s="3">
-        <v>-6198100</v>
+        <v>-6495900</v>
       </c>
       <c r="I89" s="3">
-        <v>8195500</v>
+        <v>8589200</v>
       </c>
       <c r="J89" s="3">
-        <v>1031800</v>
+        <v>1081300</v>
       </c>
       <c r="K89" s="3">
         <v>-3103100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42100</v>
+        <v>-44100</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-27100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1770200</v>
+        <v>-1855200</v>
       </c>
       <c r="G91" s="3">
-        <v>-58200</v>
+        <v>-61000</v>
       </c>
       <c r="H91" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="I91" s="3">
-        <v>-470800</v>
+        <v>-493400</v>
       </c>
       <c r="J91" s="3">
-        <v>-128400</v>
+        <v>-134500</v>
       </c>
       <c r="K91" s="3">
         <v>-98300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>159800</v>
+        <v>167500</v>
       </c>
       <c r="E94" s="3">
-        <v>115000</v>
+        <v>120500</v>
       </c>
       <c r="F94" s="3">
-        <v>193100</v>
+        <v>202300</v>
       </c>
       <c r="G94" s="3">
-        <v>86300</v>
+        <v>90500</v>
       </c>
       <c r="H94" s="3">
-        <v>35400</v>
+        <v>37100</v>
       </c>
       <c r="I94" s="3">
-        <v>-262300</v>
+        <v>-274900</v>
       </c>
       <c r="J94" s="3">
-        <v>-585900</v>
+        <v>-614000</v>
       </c>
       <c r="K94" s="3">
         <v>182400</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1836300</v>
+        <v>-1924500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1677900</v>
+        <v>-1758500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1698300</v>
+        <v>-1779900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1373200</v>
+        <v>-1439200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1449300</v>
+        <v>-1519000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1286900</v>
+        <v>-1348700</v>
       </c>
       <c r="K96" s="3">
         <v>-1281800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1005000</v>
+        <v>-1053200</v>
       </c>
       <c r="E100" s="3">
-        <v>-941300</v>
+        <v>-986500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7957800</v>
+        <v>-8340100</v>
       </c>
       <c r="G100" s="3">
-        <v>2376700</v>
+        <v>2490800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1611700</v>
+        <v>-1689100</v>
       </c>
       <c r="I100" s="3">
-        <v>604000</v>
+        <v>633100</v>
       </c>
       <c r="J100" s="3">
-        <v>5622300</v>
+        <v>5892400</v>
       </c>
       <c r="K100" s="3">
         <v>-5497200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-392500</v>
+        <v>-411300</v>
       </c>
       <c r="E101" s="3">
-        <v>151200</v>
+        <v>158500</v>
       </c>
       <c r="F101" s="3">
-        <v>330400</v>
+        <v>346300</v>
       </c>
       <c r="G101" s="3">
-        <v>104300</v>
+        <v>109300</v>
       </c>
       <c r="H101" s="3">
-        <v>268400</v>
+        <v>281300</v>
       </c>
       <c r="I101" s="3">
-        <v>-155500</v>
+        <v>-163000</v>
       </c>
       <c r="J101" s="3">
-        <v>215600</v>
+        <v>226000</v>
       </c>
       <c r="K101" s="3">
         <v>95000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11383600</v>
+        <v>11930400</v>
       </c>
       <c r="E102" s="3">
-        <v>3711700</v>
+        <v>3890000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4299200</v>
+        <v>-4505800</v>
       </c>
       <c r="G102" s="3">
-        <v>9130400</v>
+        <v>9569000</v>
       </c>
       <c r="H102" s="3">
-        <v>-7506100</v>
+        <v>-7866600</v>
       </c>
       <c r="I102" s="3">
-        <v>8381700</v>
+        <v>8784400</v>
       </c>
       <c r="J102" s="3">
-        <v>6283800</v>
+        <v>6585600</v>
       </c>
       <c r="K102" s="3">
         <v>-8322800</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4091800</v>
+        <v>3842000</v>
       </c>
       <c r="E8" s="3">
-        <v>4283000</v>
+        <v>4021600</v>
       </c>
       <c r="F8" s="3">
-        <v>4124100</v>
+        <v>3872400</v>
       </c>
       <c r="G8" s="3">
-        <v>3897600</v>
+        <v>3659800</v>
       </c>
       <c r="H8" s="3">
-        <v>3798700</v>
+        <v>3566900</v>
       </c>
       <c r="I8" s="3">
-        <v>4236100</v>
+        <v>3977600</v>
       </c>
       <c r="J8" s="3">
-        <v>4971000</v>
+        <v>4667600</v>
       </c>
       <c r="K8" s="3">
         <v>5177700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-191300</v>
+        <v>-179600</v>
       </c>
       <c r="E15" s="3">
-        <v>-187800</v>
+        <v>-176300</v>
       </c>
       <c r="F15" s="3">
-        <v>-83100</v>
+        <v>-78000</v>
       </c>
       <c r="G15" s="3">
-        <v>-106100</v>
+        <v>-99600</v>
       </c>
       <c r="H15" s="3">
-        <v>-76200</v>
+        <v>-71500</v>
       </c>
       <c r="I15" s="3">
-        <v>-81400</v>
+        <v>-76400</v>
       </c>
       <c r="J15" s="3">
-        <v>-86900</v>
+        <v>-81600</v>
       </c>
       <c r="K15" s="3">
         <v>-87000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1364900</v>
+        <v>1281600</v>
       </c>
       <c r="E17" s="3">
-        <v>1313800</v>
+        <v>1233600</v>
       </c>
       <c r="F17" s="3">
-        <v>1132300</v>
+        <v>1063200</v>
       </c>
       <c r="G17" s="3">
-        <v>1075000</v>
+        <v>1009400</v>
       </c>
       <c r="H17" s="3">
-        <v>1197300</v>
+        <v>1124300</v>
       </c>
       <c r="I17" s="3">
-        <v>1523800</v>
+        <v>1430800</v>
       </c>
       <c r="J17" s="3">
-        <v>2280000</v>
+        <v>2140900</v>
       </c>
       <c r="K17" s="3">
         <v>2590600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2726800</v>
+        <v>2560400</v>
       </c>
       <c r="E18" s="3">
-        <v>2969100</v>
+        <v>2787900</v>
       </c>
       <c r="F18" s="3">
-        <v>2991800</v>
+        <v>2809200</v>
       </c>
       <c r="G18" s="3">
-        <v>2822600</v>
+        <v>2650300</v>
       </c>
       <c r="H18" s="3">
-        <v>2601400</v>
+        <v>2442600</v>
       </c>
       <c r="I18" s="3">
-        <v>2712300</v>
+        <v>2546800</v>
       </c>
       <c r="J18" s="3">
-        <v>2691000</v>
+        <v>2526800</v>
       </c>
       <c r="K18" s="3">
         <v>2587100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-694900</v>
+        <v>-652500</v>
       </c>
       <c r="E20" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="F20" s="3">
-        <v>223400</v>
+        <v>209800</v>
       </c>
       <c r="G20" s="3">
-        <v>120700</v>
+        <v>113400</v>
       </c>
       <c r="H20" s="3">
-        <v>275800</v>
+        <v>259000</v>
       </c>
       <c r="I20" s="3">
-        <v>-245600</v>
+        <v>-230600</v>
       </c>
       <c r="J20" s="3">
-        <v>-144900</v>
+        <v>-136100</v>
       </c>
       <c r="K20" s="3">
         <v>-307800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2222000</v>
+        <v>2088900</v>
       </c>
       <c r="E21" s="3">
-        <v>3153800</v>
+        <v>2964000</v>
       </c>
       <c r="F21" s="3">
-        <v>3334600</v>
+        <v>3132700</v>
       </c>
       <c r="G21" s="3">
-        <v>3036700</v>
+        <v>2852600</v>
       </c>
       <c r="H21" s="3">
-        <v>2957100</v>
+        <v>2777700</v>
       </c>
       <c r="I21" s="3">
-        <v>2579300</v>
+        <v>2423400</v>
       </c>
       <c r="J21" s="3">
-        <v>2638400</v>
+        <v>2478600</v>
       </c>
       <c r="K21" s="3">
         <v>2420200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2031900</v>
+        <v>1907900</v>
       </c>
       <c r="E23" s="3">
-        <v>2957000</v>
+        <v>2776600</v>
       </c>
       <c r="F23" s="3">
-        <v>3215200</v>
+        <v>3019000</v>
       </c>
       <c r="G23" s="3">
-        <v>2943300</v>
+        <v>2763700</v>
       </c>
       <c r="H23" s="3">
-        <v>2877200</v>
+        <v>2701600</v>
       </c>
       <c r="I23" s="3">
-        <v>2466700</v>
+        <v>2316200</v>
       </c>
       <c r="J23" s="3">
-        <v>2546000</v>
+        <v>2390700</v>
       </c>
       <c r="K23" s="3">
         <v>2279200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>466300</v>
+        <v>437900</v>
       </c>
       <c r="E24" s="3">
-        <v>570500</v>
+        <v>535600</v>
       </c>
       <c r="F24" s="3">
-        <v>650700</v>
+        <v>611000</v>
       </c>
       <c r="G24" s="3">
-        <v>598500</v>
+        <v>562000</v>
       </c>
       <c r="H24" s="3">
-        <v>509700</v>
+        <v>478600</v>
       </c>
       <c r="I24" s="3">
-        <v>560000</v>
+        <v>525900</v>
       </c>
       <c r="J24" s="3">
-        <v>520800</v>
+        <v>489000</v>
       </c>
       <c r="K24" s="3">
         <v>482700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1565600</v>
+        <v>1470000</v>
       </c>
       <c r="E26" s="3">
-        <v>2386600</v>
+        <v>2240900</v>
       </c>
       <c r="F26" s="3">
-        <v>2564400</v>
+        <v>2407900</v>
       </c>
       <c r="G26" s="3">
-        <v>2344800</v>
+        <v>2201700</v>
       </c>
       <c r="H26" s="3">
-        <v>2367600</v>
+        <v>2223100</v>
       </c>
       <c r="I26" s="3">
-        <v>1906700</v>
+        <v>1790300</v>
       </c>
       <c r="J26" s="3">
-        <v>2025200</v>
+        <v>1901600</v>
       </c>
       <c r="K26" s="3">
         <v>1796500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1565600</v>
+        <v>1470000</v>
       </c>
       <c r="E27" s="3">
-        <v>2385100</v>
+        <v>2239500</v>
       </c>
       <c r="F27" s="3">
-        <v>2562500</v>
+        <v>2406100</v>
       </c>
       <c r="G27" s="3">
-        <v>2343100</v>
+        <v>2200100</v>
       </c>
       <c r="H27" s="3">
-        <v>2366000</v>
+        <v>2221600</v>
       </c>
       <c r="I27" s="3">
-        <v>1905100</v>
+        <v>1788800</v>
       </c>
       <c r="J27" s="3">
-        <v>2023300</v>
+        <v>1899800</v>
       </c>
       <c r="K27" s="3">
         <v>1592000</v>
@@ -1431,7 +1431,7 @@
         <v>-700</v>
       </c>
       <c r="J29" s="3">
-        <v>-31700</v>
+        <v>-29800</v>
       </c>
       <c r="K29" s="3">
         <v>-275600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>694900</v>
+        <v>652500</v>
       </c>
       <c r="E32" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="F32" s="3">
-        <v>-223400</v>
+        <v>-209800</v>
       </c>
       <c r="G32" s="3">
-        <v>-120700</v>
+        <v>-113400</v>
       </c>
       <c r="H32" s="3">
-        <v>-275800</v>
+        <v>-259000</v>
       </c>
       <c r="I32" s="3">
-        <v>245600</v>
+        <v>230600</v>
       </c>
       <c r="J32" s="3">
-        <v>144900</v>
+        <v>136100</v>
       </c>
       <c r="K32" s="3">
         <v>307800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1565600</v>
+        <v>1470000</v>
       </c>
       <c r="E33" s="3">
-        <v>2385100</v>
+        <v>2239500</v>
       </c>
       <c r="F33" s="3">
-        <v>2562500</v>
+        <v>2406100</v>
       </c>
       <c r="G33" s="3">
-        <v>2343100</v>
+        <v>2200100</v>
       </c>
       <c r="H33" s="3">
-        <v>2366000</v>
+        <v>2221600</v>
       </c>
       <c r="I33" s="3">
-        <v>1904400</v>
+        <v>1788200</v>
       </c>
       <c r="J33" s="3">
-        <v>1991600</v>
+        <v>1870000</v>
       </c>
       <c r="K33" s="3">
         <v>1316400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1565600</v>
+        <v>1470000</v>
       </c>
       <c r="E35" s="3">
-        <v>2385100</v>
+        <v>2239500</v>
       </c>
       <c r="F35" s="3">
-        <v>2562500</v>
+        <v>2406100</v>
       </c>
       <c r="G35" s="3">
-        <v>2343100</v>
+        <v>2200100</v>
       </c>
       <c r="H35" s="3">
-        <v>2366000</v>
+        <v>2221600</v>
       </c>
       <c r="I35" s="3">
-        <v>1904400</v>
+        <v>1788200</v>
       </c>
       <c r="J35" s="3">
-        <v>1991600</v>
+        <v>1870000</v>
       </c>
       <c r="K35" s="3">
         <v>1316400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39634100</v>
+        <v>37215300</v>
       </c>
       <c r="E41" s="3">
-        <v>28594800</v>
+        <v>26849700</v>
       </c>
       <c r="F41" s="3">
-        <v>23673500</v>
+        <v>22228700</v>
       </c>
       <c r="G41" s="3">
-        <v>27524400</v>
+        <v>25844600</v>
       </c>
       <c r="H41" s="3">
-        <v>18489500</v>
+        <v>17361100</v>
       </c>
       <c r="I41" s="3">
-        <v>32814300</v>
+        <v>30811700</v>
       </c>
       <c r="J41" s="3">
-        <v>25443300</v>
+        <v>23890500</v>
       </c>
       <c r="K41" s="3">
         <v>25462100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62251000</v>
+        <v>58451900</v>
       </c>
       <c r="E42" s="3">
-        <v>55963600</v>
+        <v>52548200</v>
       </c>
       <c r="F42" s="3">
-        <v>44173600</v>
+        <v>41477800</v>
       </c>
       <c r="G42" s="3">
-        <v>44926000</v>
+        <v>42184200</v>
       </c>
       <c r="H42" s="3">
-        <v>60710700</v>
+        <v>57005500</v>
       </c>
       <c r="I42" s="3">
-        <v>54395000</v>
+        <v>51075300</v>
       </c>
       <c r="J42" s="3">
-        <v>63834700</v>
+        <v>59938900</v>
       </c>
       <c r="K42" s="3">
         <v>50791900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>882400</v>
+        <v>828500</v>
       </c>
       <c r="E47" s="3">
-        <v>808800</v>
+        <v>759400</v>
       </c>
       <c r="F47" s="3">
-        <v>737200</v>
+        <v>692200</v>
       </c>
       <c r="G47" s="3">
-        <v>769800</v>
+        <v>722800</v>
       </c>
       <c r="H47" s="3">
-        <v>886300</v>
+        <v>832200</v>
       </c>
       <c r="I47" s="3">
-        <v>651700</v>
+        <v>611900</v>
       </c>
       <c r="J47" s="3">
-        <v>596200</v>
+        <v>559900</v>
       </c>
       <c r="K47" s="3">
         <v>428600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>656400</v>
+        <v>616400</v>
       </c>
       <c r="E48" s="3">
-        <v>674700</v>
+        <v>633500</v>
       </c>
       <c r="F48" s="3">
-        <v>238100</v>
+        <v>223500</v>
       </c>
       <c r="G48" s="3">
-        <v>236700</v>
+        <v>222300</v>
       </c>
       <c r="H48" s="3">
-        <v>225700</v>
+        <v>211900</v>
       </c>
       <c r="I48" s="3">
-        <v>240800</v>
+        <v>226100</v>
       </c>
       <c r="J48" s="3">
-        <v>333000</v>
+        <v>312700</v>
       </c>
       <c r="K48" s="3">
         <v>900600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2223300</v>
+        <v>2087600</v>
       </c>
       <c r="E49" s="3">
-        <v>2163200</v>
+        <v>2031100</v>
       </c>
       <c r="F49" s="3">
-        <v>2072800</v>
+        <v>1946300</v>
       </c>
       <c r="G49" s="3">
-        <v>1977300</v>
+        <v>1856600</v>
       </c>
       <c r="H49" s="3">
-        <v>1729000</v>
+        <v>1623500</v>
       </c>
       <c r="I49" s="3">
-        <v>1657700</v>
+        <v>1556600</v>
       </c>
       <c r="J49" s="3">
-        <v>1733900</v>
+        <v>1628100</v>
       </c>
       <c r="K49" s="3">
         <v>1831900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="E52" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="F52" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="G52" s="3">
-        <v>20900</v>
+        <v>19700</v>
       </c>
       <c r="H52" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="I52" s="3">
-        <v>195400</v>
+        <v>183500</v>
       </c>
       <c r="J52" s="3">
-        <v>151700</v>
+        <v>142500</v>
       </c>
       <c r="K52" s="3">
         <v>268400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>314185000</v>
+        <v>295011000</v>
       </c>
       <c r="E54" s="3">
-        <v>291612000</v>
+        <v>273816000</v>
       </c>
       <c r="F54" s="3">
-        <v>271979000</v>
+        <v>255381000</v>
       </c>
       <c r="G54" s="3">
-        <v>267928000</v>
+        <v>251577000</v>
       </c>
       <c r="H54" s="3">
-        <v>260852000</v>
+        <v>244933000</v>
       </c>
       <c r="I54" s="3">
-        <v>260205000</v>
+        <v>244325000</v>
       </c>
       <c r="J54" s="3">
-        <v>256868000</v>
+        <v>241192000</v>
       </c>
       <c r="K54" s="3">
         <v>214806000</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>805700</v>
+        <v>756600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33295900</v>
+        <v>31263900</v>
       </c>
       <c r="E58" s="3">
-        <v>37482000</v>
+        <v>35194500</v>
       </c>
       <c r="F58" s="3">
-        <v>24975400</v>
+        <v>23451200</v>
       </c>
       <c r="G58" s="3">
-        <v>31071600</v>
+        <v>29175300</v>
       </c>
       <c r="H58" s="3">
-        <v>33096800</v>
+        <v>31076900</v>
       </c>
       <c r="I58" s="3">
-        <v>26446100</v>
+        <v>24832100</v>
       </c>
       <c r="J58" s="3">
-        <v>39167200</v>
+        <v>36776800</v>
       </c>
       <c r="K58" s="3">
         <v>27442100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>540300</v>
+        <v>507300</v>
       </c>
       <c r="E59" s="3">
-        <v>632000</v>
+        <v>593400</v>
       </c>
       <c r="F59" s="3">
-        <v>626400</v>
+        <v>588200</v>
       </c>
       <c r="G59" s="3">
-        <v>602500</v>
+        <v>565800</v>
       </c>
       <c r="H59" s="3">
-        <v>1442100</v>
+        <v>1354100</v>
       </c>
       <c r="I59" s="3">
-        <v>1616300</v>
+        <v>1517700</v>
       </c>
       <c r="J59" s="3">
-        <v>1761600</v>
+        <v>1654100</v>
       </c>
       <c r="K59" s="3">
         <v>1894400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62007000</v>
+        <v>58222800</v>
       </c>
       <c r="E61" s="3">
-        <v>71761800</v>
+        <v>67382300</v>
       </c>
       <c r="F61" s="3">
-        <v>76641500</v>
+        <v>71964100</v>
       </c>
       <c r="G61" s="3">
-        <v>75296200</v>
+        <v>70700900</v>
       </c>
       <c r="H61" s="3">
-        <v>73442100</v>
+        <v>68960000</v>
       </c>
       <c r="I61" s="3">
-        <v>77057100</v>
+        <v>72354400</v>
       </c>
       <c r="J61" s="3">
-        <v>66845100</v>
+        <v>62765600</v>
       </c>
       <c r="K61" s="3">
         <v>62820700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1112000</v>
+        <v>1044100</v>
       </c>
       <c r="E62" s="3">
-        <v>1565800</v>
+        <v>1470300</v>
       </c>
       <c r="F62" s="3">
-        <v>1079200</v>
+        <v>1013300</v>
       </c>
       <c r="G62" s="3">
-        <v>933600</v>
+        <v>876600</v>
       </c>
       <c r="H62" s="3">
-        <v>714200</v>
+        <v>670600</v>
       </c>
       <c r="I62" s="3">
-        <v>626300</v>
+        <v>588100</v>
       </c>
       <c r="J62" s="3">
-        <v>912900</v>
+        <v>857200</v>
       </c>
       <c r="K62" s="3">
         <v>1387100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>295396000</v>
+        <v>277368000</v>
       </c>
       <c r="E66" s="3">
-        <v>274828000</v>
+        <v>258056000</v>
       </c>
       <c r="F66" s="3">
-        <v>255342000</v>
+        <v>239759000</v>
       </c>
       <c r="G66" s="3">
-        <v>251778000</v>
+        <v>236412000</v>
       </c>
       <c r="H66" s="3">
-        <v>245170000</v>
+        <v>230207000</v>
       </c>
       <c r="I66" s="3">
-        <v>245291000</v>
+        <v>230321000</v>
       </c>
       <c r="J66" s="3">
-        <v>242676000</v>
+        <v>227866000</v>
       </c>
       <c r="K66" s="3">
         <v>201907000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13977800</v>
+        <v>13124700</v>
       </c>
       <c r="E72" s="3">
-        <v>11881800</v>
+        <v>11156700</v>
       </c>
       <c r="F72" s="3">
-        <v>11774400</v>
+        <v>11055800</v>
       </c>
       <c r="G72" s="3">
-        <v>11368800</v>
+        <v>10675000</v>
       </c>
       <c r="H72" s="3">
-        <v>10462900</v>
+        <v>9824400</v>
       </c>
       <c r="I72" s="3">
-        <v>9788300</v>
+        <v>9190900</v>
       </c>
       <c r="J72" s="3">
-        <v>9005000</v>
+        <v>8455400</v>
       </c>
       <c r="K72" s="3">
         <v>8012400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18789300</v>
+        <v>17642600</v>
       </c>
       <c r="E76" s="3">
-        <v>16784000</v>
+        <v>15759700</v>
       </c>
       <c r="F76" s="3">
-        <v>16637300</v>
+        <v>15621900</v>
       </c>
       <c r="G76" s="3">
-        <v>16150000</v>
+        <v>15164400</v>
       </c>
       <c r="H76" s="3">
-        <v>15683000</v>
+        <v>14725900</v>
       </c>
       <c r="I76" s="3">
-        <v>14913800</v>
+        <v>14003600</v>
       </c>
       <c r="J76" s="3">
-        <v>14192100</v>
+        <v>13326000</v>
       </c>
       <c r="K76" s="3">
         <v>12899400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1565600</v>
+        <v>1470000</v>
       </c>
       <c r="E81" s="3">
-        <v>2385100</v>
+        <v>2239500</v>
       </c>
       <c r="F81" s="3">
-        <v>2562500</v>
+        <v>2406100</v>
       </c>
       <c r="G81" s="3">
-        <v>2343100</v>
+        <v>2200100</v>
       </c>
       <c r="H81" s="3">
-        <v>2366000</v>
+        <v>2221600</v>
       </c>
       <c r="I81" s="3">
-        <v>1904400</v>
+        <v>1788200</v>
       </c>
       <c r="J81" s="3">
-        <v>1991600</v>
+        <v>1870000</v>
       </c>
       <c r="K81" s="3">
         <v>1316400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191300</v>
+        <v>179600</v>
       </c>
       <c r="E83" s="3">
-        <v>198100</v>
+        <v>186000</v>
       </c>
       <c r="F83" s="3">
-        <v>120200</v>
+        <v>112900</v>
       </c>
       <c r="G83" s="3">
-        <v>94000</v>
+        <v>88200</v>
       </c>
       <c r="H83" s="3">
-        <v>80400</v>
+        <v>75500</v>
       </c>
       <c r="I83" s="3">
-        <v>113300</v>
+        <v>106400</v>
       </c>
       <c r="J83" s="3">
-        <v>93000</v>
+        <v>87300</v>
       </c>
       <c r="K83" s="3">
         <v>141400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13227500</v>
+        <v>12420200</v>
       </c>
       <c r="E89" s="3">
-        <v>4597500</v>
+        <v>4317000</v>
       </c>
       <c r="F89" s="3">
-        <v>3285700</v>
+        <v>3085100</v>
       </c>
       <c r="G89" s="3">
-        <v>6878400</v>
+        <v>6458600</v>
       </c>
       <c r="H89" s="3">
-        <v>-6495900</v>
+        <v>-6099400</v>
       </c>
       <c r="I89" s="3">
-        <v>8589200</v>
+        <v>8065000</v>
       </c>
       <c r="J89" s="3">
-        <v>1081300</v>
+        <v>1015300</v>
       </c>
       <c r="K89" s="3">
         <v>-3103100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44100</v>
+        <v>-41400</v>
       </c>
       <c r="E91" s="3">
-        <v>-27100</v>
+        <v>-25500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1855200</v>
+        <v>-1742000</v>
       </c>
       <c r="G91" s="3">
-        <v>-61000</v>
+        <v>-57300</v>
       </c>
       <c r="H91" s="3">
-        <v>-54600</v>
+        <v>-51300</v>
       </c>
       <c r="I91" s="3">
-        <v>-493400</v>
+        <v>-463300</v>
       </c>
       <c r="J91" s="3">
-        <v>-134500</v>
+        <v>-126300</v>
       </c>
       <c r="K91" s="3">
         <v>-98300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>167500</v>
+        <v>157200</v>
       </c>
       <c r="E94" s="3">
-        <v>120500</v>
+        <v>113100</v>
       </c>
       <c r="F94" s="3">
-        <v>202300</v>
+        <v>190000</v>
       </c>
       <c r="G94" s="3">
-        <v>90500</v>
+        <v>84900</v>
       </c>
       <c r="H94" s="3">
-        <v>37100</v>
+        <v>34800</v>
       </c>
       <c r="I94" s="3">
-        <v>-274900</v>
+        <v>-258100</v>
       </c>
       <c r="J94" s="3">
-        <v>-614000</v>
+        <v>-576600</v>
       </c>
       <c r="K94" s="3">
         <v>182400</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1924500</v>
+        <v>-1805300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1758500</v>
+        <v>-1650600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1779900</v>
+        <v>-1671300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1439200</v>
+        <v>-1351300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1519000</v>
+        <v>-1426300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1348700</v>
+        <v>-1266400</v>
       </c>
       <c r="K96" s="3">
         <v>-1281800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1053200</v>
+        <v>-989000</v>
       </c>
       <c r="E100" s="3">
-        <v>-986500</v>
+        <v>-926300</v>
       </c>
       <c r="F100" s="3">
-        <v>-8340100</v>
+        <v>-7831100</v>
       </c>
       <c r="G100" s="3">
-        <v>2490800</v>
+        <v>2338800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1689100</v>
+        <v>-1586000</v>
       </c>
       <c r="I100" s="3">
-        <v>633100</v>
+        <v>594400</v>
       </c>
       <c r="J100" s="3">
-        <v>5892400</v>
+        <v>5532800</v>
       </c>
       <c r="K100" s="3">
         <v>-5497200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-411300</v>
+        <v>-386200</v>
       </c>
       <c r="E101" s="3">
-        <v>158500</v>
+        <v>148800</v>
       </c>
       <c r="F101" s="3">
-        <v>346300</v>
+        <v>325200</v>
       </c>
       <c r="G101" s="3">
-        <v>109300</v>
+        <v>102700</v>
       </c>
       <c r="H101" s="3">
-        <v>281300</v>
+        <v>264100</v>
       </c>
       <c r="I101" s="3">
-        <v>-163000</v>
+        <v>-153000</v>
       </c>
       <c r="J101" s="3">
-        <v>226000</v>
+        <v>212200</v>
       </c>
       <c r="K101" s="3">
         <v>95000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11930400</v>
+        <v>11202300</v>
       </c>
       <c r="E102" s="3">
-        <v>3890000</v>
+        <v>3652600</v>
       </c>
       <c r="F102" s="3">
-        <v>-4505800</v>
+        <v>-4230800</v>
       </c>
       <c r="G102" s="3">
-        <v>9569000</v>
+        <v>8985000</v>
       </c>
       <c r="H102" s="3">
-        <v>-7866600</v>
+        <v>-7386500</v>
       </c>
       <c r="I102" s="3">
-        <v>8784400</v>
+        <v>8248300</v>
       </c>
       <c r="J102" s="3">
-        <v>6585600</v>
+        <v>6183700</v>
       </c>
       <c r="K102" s="3">
         <v>-8322800</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3842000</v>
+        <v>3729900</v>
       </c>
       <c r="E8" s="3">
-        <v>4021600</v>
+        <v>3904100</v>
       </c>
       <c r="F8" s="3">
-        <v>3872400</v>
+        <v>3759300</v>
       </c>
       <c r="G8" s="3">
-        <v>3659800</v>
+        <v>3552900</v>
       </c>
       <c r="H8" s="3">
-        <v>3566900</v>
+        <v>3462700</v>
       </c>
       <c r="I8" s="3">
-        <v>3977600</v>
+        <v>3861400</v>
       </c>
       <c r="J8" s="3">
-        <v>4667600</v>
+        <v>4531300</v>
       </c>
       <c r="K8" s="3">
         <v>5177700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-179600</v>
+        <v>-174400</v>
       </c>
       <c r="E15" s="3">
-        <v>-176300</v>
+        <v>-171200</v>
       </c>
       <c r="F15" s="3">
-        <v>-78000</v>
+        <v>-75700</v>
       </c>
       <c r="G15" s="3">
-        <v>-99600</v>
+        <v>-96700</v>
       </c>
       <c r="H15" s="3">
-        <v>-71500</v>
+        <v>-69400</v>
       </c>
       <c r="I15" s="3">
-        <v>-76400</v>
+        <v>-74200</v>
       </c>
       <c r="J15" s="3">
-        <v>-81600</v>
+        <v>-79300</v>
       </c>
       <c r="K15" s="3">
         <v>-87000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1281600</v>
+        <v>1244200</v>
       </c>
       <c r="E17" s="3">
-        <v>1233600</v>
+        <v>1197600</v>
       </c>
       <c r="F17" s="3">
-        <v>1063200</v>
+        <v>1032200</v>
       </c>
       <c r="G17" s="3">
-        <v>1009400</v>
+        <v>980000</v>
       </c>
       <c r="H17" s="3">
-        <v>1124300</v>
+        <v>1091400</v>
       </c>
       <c r="I17" s="3">
-        <v>1430800</v>
+        <v>1389000</v>
       </c>
       <c r="J17" s="3">
-        <v>2140900</v>
+        <v>2078300</v>
       </c>
       <c r="K17" s="3">
         <v>2590600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2560400</v>
+        <v>2485600</v>
       </c>
       <c r="E18" s="3">
-        <v>2787900</v>
+        <v>2706500</v>
       </c>
       <c r="F18" s="3">
-        <v>2809200</v>
+        <v>2727200</v>
       </c>
       <c r="G18" s="3">
-        <v>2650300</v>
+        <v>2573000</v>
       </c>
       <c r="H18" s="3">
-        <v>2442600</v>
+        <v>2371300</v>
       </c>
       <c r="I18" s="3">
-        <v>2546800</v>
+        <v>2472400</v>
       </c>
       <c r="J18" s="3">
-        <v>2526800</v>
+        <v>2453000</v>
       </c>
       <c r="K18" s="3">
         <v>2587100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-652500</v>
+        <v>-633500</v>
       </c>
       <c r="E20" s="3">
-        <v>-11400</v>
+        <v>-11000</v>
       </c>
       <c r="F20" s="3">
-        <v>209800</v>
+        <v>203700</v>
       </c>
       <c r="G20" s="3">
-        <v>113400</v>
+        <v>110000</v>
       </c>
       <c r="H20" s="3">
-        <v>259000</v>
+        <v>251400</v>
       </c>
       <c r="I20" s="3">
-        <v>-230600</v>
+        <v>-223900</v>
       </c>
       <c r="J20" s="3">
-        <v>-136100</v>
+        <v>-132100</v>
       </c>
       <c r="K20" s="3">
         <v>-307800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2088900</v>
+        <v>2025100</v>
       </c>
       <c r="E21" s="3">
-        <v>2964000</v>
+        <v>2874500</v>
       </c>
       <c r="F21" s="3">
-        <v>3132700</v>
+        <v>3039500</v>
       </c>
       <c r="G21" s="3">
-        <v>2852600</v>
+        <v>2767900</v>
       </c>
       <c r="H21" s="3">
-        <v>2777700</v>
+        <v>2695400</v>
       </c>
       <c r="I21" s="3">
-        <v>2423400</v>
+        <v>2351000</v>
       </c>
       <c r="J21" s="3">
-        <v>2478600</v>
+        <v>2404900</v>
       </c>
       <c r="K21" s="3">
         <v>2420200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1907900</v>
+        <v>1852200</v>
       </c>
       <c r="E23" s="3">
-        <v>2776600</v>
+        <v>2695500</v>
       </c>
       <c r="F23" s="3">
-        <v>3019000</v>
+        <v>2930800</v>
       </c>
       <c r="G23" s="3">
-        <v>2763700</v>
+        <v>2683000</v>
       </c>
       <c r="H23" s="3">
-        <v>2701600</v>
+        <v>2622700</v>
       </c>
       <c r="I23" s="3">
-        <v>2316200</v>
+        <v>2248600</v>
       </c>
       <c r="J23" s="3">
-        <v>2390700</v>
+        <v>2320800</v>
       </c>
       <c r="K23" s="3">
         <v>2279200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>437900</v>
+        <v>425100</v>
       </c>
       <c r="E24" s="3">
-        <v>535600</v>
+        <v>520000</v>
       </c>
       <c r="F24" s="3">
-        <v>611000</v>
+        <v>593200</v>
       </c>
       <c r="G24" s="3">
-        <v>562000</v>
+        <v>545600</v>
       </c>
       <c r="H24" s="3">
-        <v>478600</v>
+        <v>464600</v>
       </c>
       <c r="I24" s="3">
-        <v>525900</v>
+        <v>510500</v>
       </c>
       <c r="J24" s="3">
-        <v>489000</v>
+        <v>474700</v>
       </c>
       <c r="K24" s="3">
         <v>482700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1470000</v>
+        <v>1427100</v>
       </c>
       <c r="E26" s="3">
-        <v>2240900</v>
+        <v>2175500</v>
       </c>
       <c r="F26" s="3">
-        <v>2407900</v>
+        <v>2337600</v>
       </c>
       <c r="G26" s="3">
-        <v>2201700</v>
+        <v>2137400</v>
       </c>
       <c r="H26" s="3">
-        <v>2223100</v>
+        <v>2158100</v>
       </c>
       <c r="I26" s="3">
-        <v>1790300</v>
+        <v>1738000</v>
       </c>
       <c r="J26" s="3">
-        <v>1901600</v>
+        <v>1846100</v>
       </c>
       <c r="K26" s="3">
         <v>1796500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1470000</v>
+        <v>1427100</v>
       </c>
       <c r="E27" s="3">
-        <v>2239500</v>
+        <v>2174200</v>
       </c>
       <c r="F27" s="3">
-        <v>2406100</v>
+        <v>2335900</v>
       </c>
       <c r="G27" s="3">
-        <v>2200100</v>
+        <v>2135900</v>
       </c>
       <c r="H27" s="3">
-        <v>2221600</v>
+        <v>2156700</v>
       </c>
       <c r="I27" s="3">
-        <v>1788800</v>
+        <v>1736600</v>
       </c>
       <c r="J27" s="3">
-        <v>1899800</v>
+        <v>1844300</v>
       </c>
       <c r="K27" s="3">
         <v>1592000</v>
@@ -1431,7 +1431,7 @@
         <v>-700</v>
       </c>
       <c r="J29" s="3">
-        <v>-29800</v>
+        <v>-28900</v>
       </c>
       <c r="K29" s="3">
         <v>-275600</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>652500</v>
+        <v>633500</v>
       </c>
       <c r="E32" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="F32" s="3">
-        <v>-209800</v>
+        <v>-203700</v>
       </c>
       <c r="G32" s="3">
-        <v>-113400</v>
+        <v>-110000</v>
       </c>
       <c r="H32" s="3">
-        <v>-259000</v>
+        <v>-251400</v>
       </c>
       <c r="I32" s="3">
-        <v>230600</v>
+        <v>223900</v>
       </c>
       <c r="J32" s="3">
-        <v>136100</v>
+        <v>132100</v>
       </c>
       <c r="K32" s="3">
         <v>307800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1470000</v>
+        <v>1427100</v>
       </c>
       <c r="E33" s="3">
-        <v>2239500</v>
+        <v>2174200</v>
       </c>
       <c r="F33" s="3">
-        <v>2406100</v>
+        <v>2335900</v>
       </c>
       <c r="G33" s="3">
-        <v>2200100</v>
+        <v>2135900</v>
       </c>
       <c r="H33" s="3">
-        <v>2221600</v>
+        <v>2156700</v>
       </c>
       <c r="I33" s="3">
-        <v>1788200</v>
+        <v>1735900</v>
       </c>
       <c r="J33" s="3">
-        <v>1870000</v>
+        <v>1815400</v>
       </c>
       <c r="K33" s="3">
         <v>1316400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1470000</v>
+        <v>1427100</v>
       </c>
       <c r="E35" s="3">
-        <v>2239500</v>
+        <v>2174200</v>
       </c>
       <c r="F35" s="3">
-        <v>2406100</v>
+        <v>2335900</v>
       </c>
       <c r="G35" s="3">
-        <v>2200100</v>
+        <v>2135900</v>
       </c>
       <c r="H35" s="3">
-        <v>2221600</v>
+        <v>2156700</v>
       </c>
       <c r="I35" s="3">
-        <v>1788200</v>
+        <v>1735900</v>
       </c>
       <c r="J35" s="3">
-        <v>1870000</v>
+        <v>1815400</v>
       </c>
       <c r="K35" s="3">
         <v>1316400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37215300</v>
+        <v>36128600</v>
       </c>
       <c r="E41" s="3">
-        <v>26849700</v>
+        <v>26065700</v>
       </c>
       <c r="F41" s="3">
-        <v>22228700</v>
+        <v>21579600</v>
       </c>
       <c r="G41" s="3">
-        <v>25844600</v>
+        <v>25089900</v>
       </c>
       <c r="H41" s="3">
-        <v>17361100</v>
+        <v>16854100</v>
       </c>
       <c r="I41" s="3">
-        <v>30811700</v>
+        <v>29912000</v>
       </c>
       <c r="J41" s="3">
-        <v>23890500</v>
+        <v>23192900</v>
       </c>
       <c r="K41" s="3">
         <v>25462100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>58451900</v>
+        <v>56745100</v>
       </c>
       <c r="E42" s="3">
-        <v>52548200</v>
+        <v>51013800</v>
       </c>
       <c r="F42" s="3">
-        <v>41477800</v>
+        <v>40266600</v>
       </c>
       <c r="G42" s="3">
-        <v>42184200</v>
+        <v>40952400</v>
       </c>
       <c r="H42" s="3">
-        <v>57005500</v>
+        <v>55341000</v>
       </c>
       <c r="I42" s="3">
-        <v>51075300</v>
+        <v>49583900</v>
       </c>
       <c r="J42" s="3">
-        <v>59938900</v>
+        <v>58188700</v>
       </c>
       <c r="K42" s="3">
         <v>50791900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>828500</v>
+        <v>804300</v>
       </c>
       <c r="E47" s="3">
-        <v>759400</v>
+        <v>737200</v>
       </c>
       <c r="F47" s="3">
-        <v>692200</v>
+        <v>672000</v>
       </c>
       <c r="G47" s="3">
-        <v>722800</v>
+        <v>701700</v>
       </c>
       <c r="H47" s="3">
-        <v>832200</v>
+        <v>807900</v>
       </c>
       <c r="I47" s="3">
-        <v>611900</v>
+        <v>594100</v>
       </c>
       <c r="J47" s="3">
-        <v>559900</v>
+        <v>543500</v>
       </c>
       <c r="K47" s="3">
         <v>428600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>616400</v>
+        <v>598400</v>
       </c>
       <c r="E48" s="3">
-        <v>633500</v>
+        <v>615000</v>
       </c>
       <c r="F48" s="3">
-        <v>223500</v>
+        <v>217000</v>
       </c>
       <c r="G48" s="3">
-        <v>222300</v>
+        <v>215800</v>
       </c>
       <c r="H48" s="3">
-        <v>211900</v>
+        <v>205700</v>
       </c>
       <c r="I48" s="3">
-        <v>226100</v>
+        <v>219500</v>
       </c>
       <c r="J48" s="3">
-        <v>312700</v>
+        <v>303500</v>
       </c>
       <c r="K48" s="3">
         <v>900600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2087600</v>
+        <v>2026700</v>
       </c>
       <c r="E49" s="3">
-        <v>2031100</v>
+        <v>1971800</v>
       </c>
       <c r="F49" s="3">
-        <v>1946300</v>
+        <v>1889500</v>
       </c>
       <c r="G49" s="3">
-        <v>1856600</v>
+        <v>1802400</v>
       </c>
       <c r="H49" s="3">
-        <v>1623500</v>
+        <v>1576100</v>
       </c>
       <c r="I49" s="3">
-        <v>1556600</v>
+        <v>1511100</v>
       </c>
       <c r="J49" s="3">
-        <v>1628100</v>
+        <v>1580500</v>
       </c>
       <c r="K49" s="3">
         <v>1831900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="E52" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="F52" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="G52" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="H52" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="I52" s="3">
-        <v>183500</v>
+        <v>178200</v>
       </c>
       <c r="J52" s="3">
-        <v>142500</v>
+        <v>138300</v>
       </c>
       <c r="K52" s="3">
         <v>268400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>295011000</v>
+        <v>286397000</v>
       </c>
       <c r="E54" s="3">
-        <v>273816000</v>
+        <v>265820000</v>
       </c>
       <c r="F54" s="3">
-        <v>255381000</v>
+        <v>247924000</v>
       </c>
       <c r="G54" s="3">
-        <v>251577000</v>
+        <v>244231000</v>
       </c>
       <c r="H54" s="3">
-        <v>244933000</v>
+        <v>237781000</v>
       </c>
       <c r="I54" s="3">
-        <v>244325000</v>
+        <v>237191000</v>
       </c>
       <c r="J54" s="3">
-        <v>241192000</v>
+        <v>234149000</v>
       </c>
       <c r="K54" s="3">
         <v>214806000</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>756600</v>
+        <v>734500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31263900</v>
+        <v>30351000</v>
       </c>
       <c r="E58" s="3">
-        <v>35194500</v>
+        <v>34166800</v>
       </c>
       <c r="F58" s="3">
-        <v>23451200</v>
+        <v>22766400</v>
       </c>
       <c r="G58" s="3">
-        <v>29175300</v>
+        <v>28323400</v>
       </c>
       <c r="H58" s="3">
-        <v>31076900</v>
+        <v>30169500</v>
       </c>
       <c r="I58" s="3">
-        <v>24832100</v>
+        <v>24107000</v>
       </c>
       <c r="J58" s="3">
-        <v>36776800</v>
+        <v>35703000</v>
       </c>
       <c r="K58" s="3">
         <v>27442100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>507300</v>
+        <v>492500</v>
       </c>
       <c r="E59" s="3">
-        <v>593400</v>
+        <v>576100</v>
       </c>
       <c r="F59" s="3">
-        <v>588200</v>
+        <v>571000</v>
       </c>
       <c r="G59" s="3">
-        <v>565800</v>
+        <v>549300</v>
       </c>
       <c r="H59" s="3">
-        <v>1354100</v>
+        <v>1314500</v>
       </c>
       <c r="I59" s="3">
-        <v>1517700</v>
+        <v>1473400</v>
       </c>
       <c r="J59" s="3">
-        <v>1654100</v>
+        <v>1605800</v>
       </c>
       <c r="K59" s="3">
         <v>1894400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58222800</v>
+        <v>56522700</v>
       </c>
       <c r="E61" s="3">
-        <v>67382300</v>
+        <v>65414700</v>
       </c>
       <c r="F61" s="3">
-        <v>71964100</v>
+        <v>69862800</v>
       </c>
       <c r="G61" s="3">
-        <v>70700900</v>
+        <v>68636500</v>
       </c>
       <c r="H61" s="3">
-        <v>68960000</v>
+        <v>66946400</v>
       </c>
       <c r="I61" s="3">
-        <v>72354400</v>
+        <v>70241600</v>
       </c>
       <c r="J61" s="3">
-        <v>62765600</v>
+        <v>60932900</v>
       </c>
       <c r="K61" s="3">
         <v>62820700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1044100</v>
+        <v>1013600</v>
       </c>
       <c r="E62" s="3">
-        <v>1470300</v>
+        <v>1427300</v>
       </c>
       <c r="F62" s="3">
-        <v>1013300</v>
+        <v>983700</v>
       </c>
       <c r="G62" s="3">
-        <v>876600</v>
+        <v>851000</v>
       </c>
       <c r="H62" s="3">
-        <v>670600</v>
+        <v>651000</v>
       </c>
       <c r="I62" s="3">
-        <v>588100</v>
+        <v>570900</v>
       </c>
       <c r="J62" s="3">
-        <v>857200</v>
+        <v>832200</v>
       </c>
       <c r="K62" s="3">
         <v>1387100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>277368000</v>
+        <v>269269000</v>
       </c>
       <c r="E66" s="3">
-        <v>258056000</v>
+        <v>250521000</v>
       </c>
       <c r="F66" s="3">
-        <v>239759000</v>
+        <v>232758000</v>
       </c>
       <c r="G66" s="3">
-        <v>236412000</v>
+        <v>229509000</v>
       </c>
       <c r="H66" s="3">
-        <v>230207000</v>
+        <v>223485000</v>
       </c>
       <c r="I66" s="3">
-        <v>230321000</v>
+        <v>223596000</v>
       </c>
       <c r="J66" s="3">
-        <v>227866000</v>
+        <v>221212000</v>
       </c>
       <c r="K66" s="3">
         <v>201907000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13124700</v>
+        <v>12741500</v>
       </c>
       <c r="E72" s="3">
-        <v>11156700</v>
+        <v>10830900</v>
       </c>
       <c r="F72" s="3">
-        <v>11055800</v>
+        <v>10733000</v>
       </c>
       <c r="G72" s="3">
-        <v>10675000</v>
+        <v>10363200</v>
       </c>
       <c r="H72" s="3">
-        <v>9824400</v>
+        <v>9537500</v>
       </c>
       <c r="I72" s="3">
-        <v>9190900</v>
+        <v>8922600</v>
       </c>
       <c r="J72" s="3">
-        <v>8455400</v>
+        <v>8208500</v>
       </c>
       <c r="K72" s="3">
         <v>8012400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17642600</v>
+        <v>17127400</v>
       </c>
       <c r="E76" s="3">
-        <v>15759700</v>
+        <v>15299600</v>
       </c>
       <c r="F76" s="3">
-        <v>15621900</v>
+        <v>15165800</v>
       </c>
       <c r="G76" s="3">
-        <v>15164400</v>
+        <v>14721600</v>
       </c>
       <c r="H76" s="3">
-        <v>14725900</v>
+        <v>14295900</v>
       </c>
       <c r="I76" s="3">
-        <v>14003600</v>
+        <v>13594700</v>
       </c>
       <c r="J76" s="3">
-        <v>13326000</v>
+        <v>12936900</v>
       </c>
       <c r="K76" s="3">
         <v>12899400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1470000</v>
+        <v>1427100</v>
       </c>
       <c r="E81" s="3">
-        <v>2239500</v>
+        <v>2174200</v>
       </c>
       <c r="F81" s="3">
-        <v>2406100</v>
+        <v>2335900</v>
       </c>
       <c r="G81" s="3">
-        <v>2200100</v>
+        <v>2135900</v>
       </c>
       <c r="H81" s="3">
-        <v>2221600</v>
+        <v>2156700</v>
       </c>
       <c r="I81" s="3">
-        <v>1788200</v>
+        <v>1735900</v>
       </c>
       <c r="J81" s="3">
-        <v>1870000</v>
+        <v>1815400</v>
       </c>
       <c r="K81" s="3">
         <v>1316400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179600</v>
+        <v>174400</v>
       </c>
       <c r="E83" s="3">
-        <v>186000</v>
+        <v>180600</v>
       </c>
       <c r="F83" s="3">
-        <v>112900</v>
+        <v>109600</v>
       </c>
       <c r="G83" s="3">
-        <v>88200</v>
+        <v>85700</v>
       </c>
       <c r="H83" s="3">
-        <v>75500</v>
+        <v>73300</v>
       </c>
       <c r="I83" s="3">
-        <v>106400</v>
+        <v>103300</v>
       </c>
       <c r="J83" s="3">
-        <v>87300</v>
+        <v>84800</v>
       </c>
       <c r="K83" s="3">
         <v>141400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12420200</v>
+        <v>12057600</v>
       </c>
       <c r="E89" s="3">
-        <v>4317000</v>
+        <v>4190900</v>
       </c>
       <c r="F89" s="3">
-        <v>3085100</v>
+        <v>2995100</v>
       </c>
       <c r="G89" s="3">
-        <v>6458600</v>
+        <v>6270000</v>
       </c>
       <c r="H89" s="3">
-        <v>-6099400</v>
+        <v>-5921300</v>
       </c>
       <c r="I89" s="3">
-        <v>8065000</v>
+        <v>7829500</v>
       </c>
       <c r="J89" s="3">
-        <v>1015300</v>
+        <v>985700</v>
       </c>
       <c r="K89" s="3">
         <v>-3103100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41400</v>
+        <v>-40200</v>
       </c>
       <c r="E91" s="3">
-        <v>-25500</v>
+        <v>-24700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1742000</v>
+        <v>-1691100</v>
       </c>
       <c r="G91" s="3">
-        <v>-57300</v>
+        <v>-55600</v>
       </c>
       <c r="H91" s="3">
-        <v>-51300</v>
+        <v>-49800</v>
       </c>
       <c r="I91" s="3">
-        <v>-463300</v>
+        <v>-449800</v>
       </c>
       <c r="J91" s="3">
-        <v>-126300</v>
+        <v>-122600</v>
       </c>
       <c r="K91" s="3">
         <v>-98300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>157200</v>
+        <v>152700</v>
       </c>
       <c r="E94" s="3">
-        <v>113100</v>
+        <v>109800</v>
       </c>
       <c r="F94" s="3">
-        <v>190000</v>
+        <v>184400</v>
       </c>
       <c r="G94" s="3">
-        <v>84900</v>
+        <v>82500</v>
       </c>
       <c r="H94" s="3">
-        <v>34800</v>
+        <v>33800</v>
       </c>
       <c r="I94" s="3">
-        <v>-258100</v>
+        <v>-250600</v>
       </c>
       <c r="J94" s="3">
-        <v>-576600</v>
+        <v>-559700</v>
       </c>
       <c r="K94" s="3">
         <v>182400</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1805300</v>
+        <v>-1752600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1650600</v>
+        <v>-1602400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1671300</v>
+        <v>-1622500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1351300</v>
+        <v>-1311900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1426300</v>
+        <v>-1384600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1266400</v>
+        <v>-1229400</v>
       </c>
       <c r="K96" s="3">
         <v>-1281800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-989000</v>
+        <v>-960100</v>
       </c>
       <c r="E100" s="3">
-        <v>-926300</v>
+        <v>-899300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7831100</v>
+        <v>-7602400</v>
       </c>
       <c r="G100" s="3">
-        <v>2338800</v>
+        <v>2270500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1586000</v>
+        <v>-1539700</v>
       </c>
       <c r="I100" s="3">
-        <v>594400</v>
+        <v>577100</v>
       </c>
       <c r="J100" s="3">
-        <v>5532800</v>
+        <v>5371200</v>
       </c>
       <c r="K100" s="3">
         <v>-5497200</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-386200</v>
+        <v>-375000</v>
       </c>
       <c r="E101" s="3">
-        <v>148800</v>
+        <v>144500</v>
       </c>
       <c r="F101" s="3">
-        <v>325200</v>
+        <v>315700</v>
       </c>
       <c r="G101" s="3">
-        <v>102700</v>
+        <v>99700</v>
       </c>
       <c r="H101" s="3">
-        <v>264100</v>
+        <v>256400</v>
       </c>
       <c r="I101" s="3">
-        <v>-153000</v>
+        <v>-148600</v>
       </c>
       <c r="J101" s="3">
-        <v>212200</v>
+        <v>206000</v>
       </c>
       <c r="K101" s="3">
         <v>95000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11202300</v>
+        <v>10875200</v>
       </c>
       <c r="E102" s="3">
-        <v>3652600</v>
+        <v>3546000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4230800</v>
+        <v>-4107200</v>
       </c>
       <c r="G102" s="3">
-        <v>8985000</v>
+        <v>8722700</v>
       </c>
       <c r="H102" s="3">
-        <v>-7386500</v>
+        <v>-7170800</v>
       </c>
       <c r="I102" s="3">
-        <v>8248300</v>
+        <v>8007400</v>
       </c>
       <c r="J102" s="3">
-        <v>6183700</v>
+        <v>6003100</v>
       </c>
       <c r="K102" s="3">
         <v>-8322800</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SWDBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3729900</v>
+        <v>3118700</v>
       </c>
       <c r="E8" s="3">
-        <v>3904100</v>
+        <v>3470700</v>
       </c>
       <c r="F8" s="3">
-        <v>3759300</v>
+        <v>3632900</v>
       </c>
       <c r="G8" s="3">
-        <v>3552900</v>
+        <v>3498100</v>
       </c>
       <c r="H8" s="3">
-        <v>3462700</v>
+        <v>3306000</v>
       </c>
       <c r="I8" s="3">
-        <v>3861400</v>
+        <v>3222100</v>
       </c>
       <c r="J8" s="3">
+        <v>3593100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4531300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5177700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5248800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6082100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-174400</v>
+        <v>-167500</v>
       </c>
       <c r="E15" s="3">
-        <v>-171200</v>
+        <v>-162300</v>
       </c>
       <c r="F15" s="3">
-        <v>-75700</v>
+        <v>-159300</v>
       </c>
       <c r="G15" s="3">
-        <v>-96700</v>
+        <v>-70500</v>
       </c>
       <c r="H15" s="3">
-        <v>-69400</v>
+        <v>-90000</v>
       </c>
       <c r="I15" s="3">
-        <v>-74200</v>
+        <v>-64600</v>
       </c>
       <c r="J15" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-79300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-87000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-207900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-114800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1244200</v>
+        <v>439300</v>
       </c>
       <c r="E17" s="3">
-        <v>1197600</v>
+        <v>1157700</v>
       </c>
       <c r="F17" s="3">
-        <v>1032200</v>
+        <v>1114400</v>
       </c>
       <c r="G17" s="3">
-        <v>980000</v>
+        <v>960400</v>
       </c>
       <c r="H17" s="3">
-        <v>1091400</v>
+        <v>911900</v>
       </c>
       <c r="I17" s="3">
-        <v>1389000</v>
+        <v>1015600</v>
       </c>
       <c r="J17" s="3">
+        <v>1292500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2078300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2590600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3113400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3706700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2485600</v>
+        <v>2679400</v>
       </c>
       <c r="E18" s="3">
-        <v>2706500</v>
+        <v>2312900</v>
       </c>
       <c r="F18" s="3">
-        <v>2727200</v>
+        <v>2518400</v>
       </c>
       <c r="G18" s="3">
-        <v>2573000</v>
+        <v>2537700</v>
       </c>
       <c r="H18" s="3">
-        <v>2371300</v>
+        <v>2394200</v>
       </c>
       <c r="I18" s="3">
-        <v>2472400</v>
+        <v>2206500</v>
       </c>
       <c r="J18" s="3">
+        <v>2300600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2453000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2587100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2135300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2375400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-633500</v>
+        <v>-27700</v>
       </c>
       <c r="E20" s="3">
-        <v>-11000</v>
+        <v>-589500</v>
       </c>
       <c r="F20" s="3">
-        <v>203700</v>
+        <v>-10300</v>
       </c>
       <c r="G20" s="3">
-        <v>110000</v>
+        <v>189500</v>
       </c>
       <c r="H20" s="3">
-        <v>251400</v>
+        <v>102400</v>
       </c>
       <c r="I20" s="3">
-        <v>-223900</v>
+        <v>234000</v>
       </c>
       <c r="J20" s="3">
+        <v>-208300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-132100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-307800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-112200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-624600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2025100</v>
+        <v>2826100</v>
       </c>
       <c r="E21" s="3">
-        <v>2874500</v>
+        <v>1886800</v>
       </c>
       <c r="F21" s="3">
-        <v>3039500</v>
+        <v>2677300</v>
       </c>
       <c r="G21" s="3">
-        <v>2767900</v>
+        <v>2829800</v>
       </c>
       <c r="H21" s="3">
-        <v>2695400</v>
+        <v>2576800</v>
       </c>
       <c r="I21" s="3">
-        <v>2351000</v>
+        <v>2509100</v>
       </c>
       <c r="J21" s="3">
+        <v>2189100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2404900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2420200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>2103400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1852200</v>
+        <v>2651700</v>
       </c>
       <c r="E23" s="3">
-        <v>2695500</v>
+        <v>1723500</v>
       </c>
       <c r="F23" s="3">
-        <v>2930800</v>
+        <v>2508200</v>
       </c>
       <c r="G23" s="3">
-        <v>2683000</v>
+        <v>2727200</v>
       </c>
       <c r="H23" s="3">
-        <v>2622700</v>
+        <v>2496600</v>
       </c>
       <c r="I23" s="3">
-        <v>2248600</v>
+        <v>2440500</v>
       </c>
       <c r="J23" s="3">
+        <v>2092300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2320800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2279200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2023100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1750800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>425100</v>
+        <v>507900</v>
       </c>
       <c r="E24" s="3">
-        <v>520000</v>
+        <v>395500</v>
       </c>
       <c r="F24" s="3">
-        <v>593200</v>
+        <v>483900</v>
       </c>
       <c r="G24" s="3">
-        <v>545600</v>
+        <v>552000</v>
       </c>
       <c r="H24" s="3">
-        <v>464600</v>
+        <v>507700</v>
       </c>
       <c r="I24" s="3">
-        <v>510500</v>
+        <v>432300</v>
       </c>
       <c r="J24" s="3">
+        <v>475000</v>
+      </c>
+      <c r="K24" s="3">
         <v>474700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>482700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>432000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>416500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1427100</v>
+        <v>2143800</v>
       </c>
       <c r="E26" s="3">
-        <v>2175500</v>
+        <v>1327900</v>
       </c>
       <c r="F26" s="3">
-        <v>2337600</v>
+        <v>2024300</v>
       </c>
       <c r="G26" s="3">
-        <v>2137400</v>
+        <v>2175200</v>
       </c>
       <c r="H26" s="3">
-        <v>2158100</v>
+        <v>1988900</v>
       </c>
       <c r="I26" s="3">
-        <v>1738000</v>
+        <v>2008200</v>
       </c>
       <c r="J26" s="3">
+        <v>1617300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1846100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1796500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1591100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1334300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1427100</v>
+        <v>2143700</v>
       </c>
       <c r="E27" s="3">
-        <v>2174200</v>
+        <v>1327900</v>
       </c>
       <c r="F27" s="3">
-        <v>2335900</v>
+        <v>2023100</v>
       </c>
       <c r="G27" s="3">
-        <v>2135900</v>
+        <v>2173500</v>
       </c>
       <c r="H27" s="3">
-        <v>2156700</v>
+        <v>1987400</v>
       </c>
       <c r="I27" s="3">
-        <v>1736600</v>
+        <v>2006900</v>
       </c>
       <c r="J27" s="3">
+        <v>1615900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1844300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1592000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1485600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1219900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,27 +1484,30 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-28900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-275600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-104300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>633500</v>
+        <v>27700</v>
       </c>
       <c r="E32" s="3">
-        <v>11000</v>
+        <v>589500</v>
       </c>
       <c r="F32" s="3">
-        <v>-203700</v>
+        <v>10300</v>
       </c>
       <c r="G32" s="3">
-        <v>-110000</v>
+        <v>-189500</v>
       </c>
       <c r="H32" s="3">
-        <v>-251400</v>
+        <v>-102400</v>
       </c>
       <c r="I32" s="3">
-        <v>223900</v>
+        <v>-234000</v>
       </c>
       <c r="J32" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K32" s="3">
         <v>132100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>307800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>112200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>624600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1427100</v>
+        <v>2143700</v>
       </c>
       <c r="E33" s="3">
-        <v>2174200</v>
+        <v>1327900</v>
       </c>
       <c r="F33" s="3">
-        <v>2335900</v>
+        <v>2023100</v>
       </c>
       <c r="G33" s="3">
-        <v>2135900</v>
+        <v>2173500</v>
       </c>
       <c r="H33" s="3">
-        <v>2156700</v>
+        <v>1987400</v>
       </c>
       <c r="I33" s="3">
-        <v>1735900</v>
+        <v>2006900</v>
       </c>
       <c r="J33" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1815400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1316400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1381200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1220200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1427100</v>
+        <v>2143700</v>
       </c>
       <c r="E35" s="3">
-        <v>2174200</v>
+        <v>1327900</v>
       </c>
       <c r="F35" s="3">
-        <v>2335900</v>
+        <v>2023100</v>
       </c>
       <c r="G35" s="3">
-        <v>2135900</v>
+        <v>2173500</v>
       </c>
       <c r="H35" s="3">
-        <v>2156700</v>
+        <v>1987400</v>
       </c>
       <c r="I35" s="3">
-        <v>1735900</v>
+        <v>2006900</v>
       </c>
       <c r="J35" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1815400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1316400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1381200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1220200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36128600</v>
+        <v>40520600</v>
       </c>
       <c r="E41" s="3">
-        <v>26065700</v>
+        <v>33618100</v>
       </c>
       <c r="F41" s="3">
-        <v>21579600</v>
+        <v>24254500</v>
       </c>
       <c r="G41" s="3">
-        <v>25089900</v>
+        <v>20080100</v>
       </c>
       <c r="H41" s="3">
-        <v>16854100</v>
+        <v>23346500</v>
       </c>
       <c r="I41" s="3">
-        <v>29912000</v>
+        <v>15683000</v>
       </c>
       <c r="J41" s="3">
+        <v>27833500</v>
+      </c>
+      <c r="K41" s="3">
         <v>23192900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25462100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29623700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159111000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56745100</v>
+        <v>58833600</v>
       </c>
       <c r="E42" s="3">
-        <v>51013800</v>
+        <v>52802100</v>
       </c>
       <c r="F42" s="3">
-        <v>40266600</v>
+        <v>47469000</v>
       </c>
       <c r="G42" s="3">
-        <v>40952400</v>
+        <v>37468600</v>
       </c>
       <c r="H42" s="3">
-        <v>55341000</v>
+        <v>38106700</v>
       </c>
       <c r="I42" s="3">
-        <v>49583900</v>
+        <v>51495500</v>
       </c>
       <c r="J42" s="3">
+        <v>46138500</v>
+      </c>
+      <c r="K42" s="3">
         <v>58188700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50791900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42847600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>804300</v>
+        <v>791400</v>
       </c>
       <c r="E47" s="3">
-        <v>737200</v>
+        <v>748400</v>
       </c>
       <c r="F47" s="3">
-        <v>672000</v>
+        <v>686000</v>
       </c>
       <c r="G47" s="3">
-        <v>701700</v>
+        <v>625300</v>
       </c>
       <c r="H47" s="3">
-        <v>807900</v>
+        <v>652900</v>
       </c>
       <c r="I47" s="3">
-        <v>594100</v>
+        <v>751700</v>
       </c>
       <c r="J47" s="3">
+        <v>552800</v>
+      </c>
+      <c r="K47" s="3">
         <v>543500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>428600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>369200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>353200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>598400</v>
+        <v>567300</v>
       </c>
       <c r="E48" s="3">
-        <v>615000</v>
+        <v>556800</v>
       </c>
       <c r="F48" s="3">
-        <v>217000</v>
+        <v>572300</v>
       </c>
       <c r="G48" s="3">
-        <v>215800</v>
+        <v>201900</v>
       </c>
       <c r="H48" s="3">
-        <v>205700</v>
+        <v>200800</v>
       </c>
       <c r="I48" s="3">
-        <v>219500</v>
+        <v>191500</v>
       </c>
       <c r="J48" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K48" s="3">
         <v>303500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1461500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>941400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2026700</v>
+        <v>2001600</v>
       </c>
       <c r="E49" s="3">
-        <v>1971800</v>
+        <v>1885900</v>
       </c>
       <c r="F49" s="3">
-        <v>1889500</v>
+        <v>1834800</v>
       </c>
       <c r="G49" s="3">
-        <v>1802400</v>
+        <v>1758200</v>
       </c>
       <c r="H49" s="3">
-        <v>1576100</v>
+        <v>1677200</v>
       </c>
       <c r="I49" s="3">
-        <v>1511100</v>
+        <v>1466600</v>
       </c>
       <c r="J49" s="3">
+        <v>1406100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1580500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1831900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4190500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1566500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13700</v>
+        <v>11600</v>
       </c>
       <c r="E52" s="3">
-        <v>18800</v>
+        <v>12700</v>
       </c>
       <c r="F52" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="G52" s="3">
-        <v>19100</v>
+        <v>16800</v>
       </c>
       <c r="H52" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="I52" s="3">
-        <v>178200</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K52" s="3">
         <v>138300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>268400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>89900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>286397000</v>
+        <v>282516000</v>
       </c>
       <c r="E54" s="3">
-        <v>265820000</v>
+        <v>266496000</v>
       </c>
       <c r="F54" s="3">
-        <v>247924000</v>
+        <v>247349000</v>
       </c>
       <c r="G54" s="3">
-        <v>244231000</v>
+        <v>230696000</v>
       </c>
       <c r="H54" s="3">
-        <v>237781000</v>
+        <v>227260000</v>
       </c>
       <c r="I54" s="3">
-        <v>237191000</v>
+        <v>221258000</v>
       </c>
       <c r="J54" s="3">
+        <v>220709000</v>
+      </c>
+      <c r="K54" s="3">
         <v>234149000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214806000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>191944000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>210814000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2279,14 +2409,14 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>734500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>683400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2294,90 +2424,99 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1262200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1365400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30351000</v>
+        <v>34087300</v>
       </c>
       <c r="E58" s="3">
-        <v>34166800</v>
+        <v>28242000</v>
       </c>
       <c r="F58" s="3">
-        <v>22766400</v>
+        <v>31792600</v>
       </c>
       <c r="G58" s="3">
-        <v>28323400</v>
+        <v>21184500</v>
       </c>
       <c r="H58" s="3">
-        <v>30169500</v>
+        <v>26355300</v>
       </c>
       <c r="I58" s="3">
-        <v>24107000</v>
+        <v>28073100</v>
       </c>
       <c r="J58" s="3">
+        <v>22431900</v>
+      </c>
+      <c r="K58" s="3">
         <v>35703000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27442100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>492500</v>
+        <v>563400</v>
       </c>
       <c r="E59" s="3">
-        <v>576100</v>
+        <v>458300</v>
       </c>
       <c r="F59" s="3">
-        <v>571000</v>
+        <v>536000</v>
       </c>
       <c r="G59" s="3">
-        <v>549300</v>
+        <v>531300</v>
       </c>
       <c r="H59" s="3">
-        <v>1314500</v>
+        <v>511100</v>
       </c>
       <c r="I59" s="3">
-        <v>1473400</v>
+        <v>1223200</v>
       </c>
       <c r="J59" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1605800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1894400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1887400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2166400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56522700</v>
+        <v>49231100</v>
       </c>
       <c r="E61" s="3">
-        <v>65414700</v>
+        <v>52595100</v>
       </c>
       <c r="F61" s="3">
-        <v>69862800</v>
+        <v>60869200</v>
       </c>
       <c r="G61" s="3">
-        <v>68636500</v>
+        <v>65008200</v>
       </c>
       <c r="H61" s="3">
-        <v>66946400</v>
+        <v>63867100</v>
       </c>
       <c r="I61" s="3">
-        <v>70241600</v>
+        <v>62294400</v>
       </c>
       <c r="J61" s="3">
+        <v>65360700</v>
+      </c>
+      <c r="K61" s="3">
         <v>60932900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>62820700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81248400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>104674000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1013600</v>
+        <v>809900</v>
       </c>
       <c r="E62" s="3">
-        <v>1427300</v>
+        <v>943200</v>
       </c>
       <c r="F62" s="3">
-        <v>983700</v>
+        <v>1328100</v>
       </c>
       <c r="G62" s="3">
-        <v>851000</v>
+        <v>915400</v>
       </c>
       <c r="H62" s="3">
-        <v>651000</v>
+        <v>791900</v>
       </c>
       <c r="I62" s="3">
-        <v>570900</v>
+        <v>605800</v>
       </c>
       <c r="J62" s="3">
+        <v>531200</v>
+      </c>
+      <c r="K62" s="3">
         <v>832200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1387100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1009600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>751800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>269269000</v>
+        <v>265911000</v>
       </c>
       <c r="E66" s="3">
-        <v>250521000</v>
+        <v>250558000</v>
       </c>
       <c r="F66" s="3">
-        <v>232758000</v>
+        <v>233113000</v>
       </c>
       <c r="G66" s="3">
-        <v>229509000</v>
+        <v>216584000</v>
       </c>
       <c r="H66" s="3">
-        <v>223485000</v>
+        <v>213561000</v>
       </c>
       <c r="I66" s="3">
-        <v>223596000</v>
+        <v>207956000</v>
       </c>
       <c r="J66" s="3">
+        <v>208059000</v>
+      </c>
+      <c r="K66" s="3">
         <v>221212000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>201907000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181236000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>199690000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12741500</v>
+        <v>12052500</v>
       </c>
       <c r="E72" s="3">
-        <v>10830900</v>
+        <v>11856100</v>
       </c>
       <c r="F72" s="3">
-        <v>10733000</v>
+        <v>10078300</v>
       </c>
       <c r="G72" s="3">
-        <v>10363200</v>
+        <v>9987200</v>
       </c>
       <c r="H72" s="3">
-        <v>9537500</v>
+        <v>9643100</v>
       </c>
       <c r="I72" s="3">
-        <v>8922600</v>
+        <v>8874800</v>
       </c>
       <c r="J72" s="3">
+        <v>8302600</v>
+      </c>
+      <c r="K72" s="3">
         <v>8208500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8012400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6624700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6630500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17127400</v>
+        <v>16605100</v>
       </c>
       <c r="E76" s="3">
-        <v>15299600</v>
+        <v>15937300</v>
       </c>
       <c r="F76" s="3">
-        <v>15165800</v>
+        <v>14236400</v>
       </c>
       <c r="G76" s="3">
-        <v>14721600</v>
+        <v>14111900</v>
       </c>
       <c r="H76" s="3">
-        <v>14295900</v>
+        <v>13698600</v>
       </c>
       <c r="I76" s="3">
-        <v>13594700</v>
+        <v>13302500</v>
       </c>
       <c r="J76" s="3">
+        <v>12650100</v>
+      </c>
+      <c r="K76" s="3">
         <v>12936900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12899400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10708100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11124200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1427100</v>
+        <v>2143700</v>
       </c>
       <c r="E81" s="3">
-        <v>2174200</v>
+        <v>1327900</v>
       </c>
       <c r="F81" s="3">
-        <v>2335900</v>
+        <v>2023100</v>
       </c>
       <c r="G81" s="3">
-        <v>2135900</v>
+        <v>2173500</v>
       </c>
       <c r="H81" s="3">
-        <v>2156700</v>
+        <v>1987400</v>
       </c>
       <c r="I81" s="3">
-        <v>1735900</v>
+        <v>2006900</v>
       </c>
       <c r="J81" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1815400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1316400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1381200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1220200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>174400</v>
+        <v>173300</v>
       </c>
       <c r="E83" s="3">
-        <v>180600</v>
+        <v>162300</v>
       </c>
       <c r="F83" s="3">
-        <v>109600</v>
+        <v>168000</v>
       </c>
       <c r="G83" s="3">
-        <v>85700</v>
+        <v>102000</v>
       </c>
       <c r="H83" s="3">
-        <v>73300</v>
+        <v>79700</v>
       </c>
       <c r="I83" s="3">
-        <v>103300</v>
+        <v>68200</v>
       </c>
       <c r="J83" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K83" s="3">
         <v>84800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>141400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>352100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12057600</v>
+        <v>5074800</v>
       </c>
       <c r="E89" s="3">
-        <v>4190900</v>
+        <v>11219700</v>
       </c>
       <c r="F89" s="3">
-        <v>2995100</v>
+        <v>3899700</v>
       </c>
       <c r="G89" s="3">
-        <v>6270000</v>
+        <v>2786900</v>
       </c>
       <c r="H89" s="3">
-        <v>-5921300</v>
+        <v>5834300</v>
       </c>
       <c r="I89" s="3">
-        <v>7829500</v>
+        <v>-5509900</v>
       </c>
       <c r="J89" s="3">
+        <v>7285400</v>
+      </c>
+      <c r="K89" s="3">
         <v>985700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3103100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-839900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9148000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40200</v>
+        <v>-26000</v>
       </c>
       <c r="E91" s="3">
-        <v>-24700</v>
+        <v>-37400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1691100</v>
+        <v>-23000</v>
       </c>
       <c r="G91" s="3">
-        <v>-55600</v>
+        <v>-1573600</v>
       </c>
       <c r="H91" s="3">
-        <v>-49800</v>
+        <v>-51800</v>
       </c>
       <c r="I91" s="3">
-        <v>-449800</v>
+        <v>-46300</v>
       </c>
       <c r="J91" s="3">
+        <v>-418500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-191400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-499000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>152700</v>
+        <v>64500</v>
       </c>
       <c r="E94" s="3">
-        <v>109800</v>
+        <v>142000</v>
       </c>
       <c r="F94" s="3">
-        <v>184400</v>
+        <v>102200</v>
       </c>
       <c r="G94" s="3">
-        <v>82500</v>
+        <v>171600</v>
       </c>
       <c r="H94" s="3">
-        <v>33800</v>
+        <v>76700</v>
       </c>
       <c r="I94" s="3">
-        <v>-250600</v>
+        <v>31400</v>
       </c>
       <c r="J94" s="3">
+        <v>-233200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-559700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>182400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>11600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1675200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1752600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1602400</v>
+        <v>-1630800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1622500</v>
+        <v>-1491000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1311900</v>
+        <v>-1509700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1384600</v>
+        <v>-1220700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1288400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1229400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1281800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-606000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-341700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-960100</v>
+        <v>1453400</v>
       </c>
       <c r="E100" s="3">
-        <v>-899300</v>
+        <v>-893400</v>
       </c>
       <c r="F100" s="3">
-        <v>-7602400</v>
+        <v>-836800</v>
       </c>
       <c r="G100" s="3">
-        <v>2270500</v>
+        <v>-7074200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1539700</v>
+        <v>2112700</v>
       </c>
       <c r="I100" s="3">
-        <v>577100</v>
+        <v>-1432700</v>
       </c>
       <c r="J100" s="3">
+        <v>537000</v>
+      </c>
+      <c r="K100" s="3">
         <v>5371200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5497200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>7557400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-375000</v>
+        <v>221200</v>
       </c>
       <c r="E101" s="3">
-        <v>144500</v>
+        <v>-348900</v>
       </c>
       <c r="F101" s="3">
-        <v>315700</v>
+        <v>134400</v>
       </c>
       <c r="G101" s="3">
-        <v>99700</v>
+        <v>293800</v>
       </c>
       <c r="H101" s="3">
-        <v>256400</v>
+        <v>92700</v>
       </c>
       <c r="I101" s="3">
-        <v>-148600</v>
+        <v>238600</v>
       </c>
       <c r="J101" s="3">
+        <v>-138200</v>
+      </c>
+      <c r="K101" s="3">
         <v>206000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>95000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10875200</v>
+        <v>6814000</v>
       </c>
       <c r="E102" s="3">
-        <v>3546000</v>
+        <v>10119500</v>
       </c>
       <c r="F102" s="3">
-        <v>-4107200</v>
+        <v>3299600</v>
       </c>
       <c r="G102" s="3">
-        <v>8722700</v>
+        <v>-3821800</v>
       </c>
       <c r="H102" s="3">
-        <v>-7170800</v>
+        <v>8116600</v>
       </c>
       <c r="I102" s="3">
-        <v>8007400</v>
+        <v>-6672600</v>
       </c>
       <c r="J102" s="3">
+        <v>7451000</v>
+      </c>
+      <c r="K102" s="3">
         <v>6003100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8322800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3559500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16709900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3118700</v>
+        <v>2993000</v>
       </c>
       <c r="E8" s="3">
-        <v>3470700</v>
+        <v>3330800</v>
       </c>
       <c r="F8" s="3">
-        <v>3632900</v>
+        <v>3486400</v>
       </c>
       <c r="G8" s="3">
-        <v>3498100</v>
+        <v>3357100</v>
       </c>
       <c r="H8" s="3">
-        <v>3306000</v>
+        <v>3172800</v>
       </c>
       <c r="I8" s="3">
-        <v>3222100</v>
+        <v>3092200</v>
       </c>
       <c r="J8" s="3">
-        <v>3593100</v>
+        <v>3448300</v>
       </c>
       <c r="K8" s="3">
         <v>4531300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-167500</v>
+        <v>-160800</v>
       </c>
       <c r="E15" s="3">
-        <v>-162300</v>
+        <v>-155700</v>
       </c>
       <c r="F15" s="3">
-        <v>-159300</v>
+        <v>-152900</v>
       </c>
       <c r="G15" s="3">
-        <v>-70500</v>
+        <v>-67600</v>
       </c>
       <c r="H15" s="3">
-        <v>-90000</v>
+        <v>-86300</v>
       </c>
       <c r="I15" s="3">
-        <v>-64600</v>
+        <v>-62000</v>
       </c>
       <c r="J15" s="3">
-        <v>-69000</v>
+        <v>-66200</v>
       </c>
       <c r="K15" s="3">
         <v>-79300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>439300</v>
+        <v>421600</v>
       </c>
       <c r="E17" s="3">
-        <v>1157700</v>
+        <v>1111100</v>
       </c>
       <c r="F17" s="3">
-        <v>1114400</v>
+        <v>1069500</v>
       </c>
       <c r="G17" s="3">
-        <v>960400</v>
+        <v>921700</v>
       </c>
       <c r="H17" s="3">
-        <v>911900</v>
+        <v>875100</v>
       </c>
       <c r="I17" s="3">
-        <v>1015600</v>
+        <v>974700</v>
       </c>
       <c r="J17" s="3">
-        <v>1292500</v>
+        <v>1240400</v>
       </c>
       <c r="K17" s="3">
         <v>2078300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2679400</v>
+        <v>2571400</v>
       </c>
       <c r="E18" s="3">
-        <v>2312900</v>
+        <v>2219700</v>
       </c>
       <c r="F18" s="3">
-        <v>2518400</v>
+        <v>2416900</v>
       </c>
       <c r="G18" s="3">
-        <v>2537700</v>
+        <v>2435400</v>
       </c>
       <c r="H18" s="3">
-        <v>2394200</v>
+        <v>2297700</v>
       </c>
       <c r="I18" s="3">
-        <v>2206500</v>
+        <v>2117600</v>
       </c>
       <c r="J18" s="3">
-        <v>2300600</v>
+        <v>2207900</v>
       </c>
       <c r="K18" s="3">
         <v>2453000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27700</v>
+        <v>-26600</v>
       </c>
       <c r="E20" s="3">
-        <v>-589500</v>
+        <v>-565700</v>
       </c>
       <c r="F20" s="3">
-        <v>-10300</v>
+        <v>-9900</v>
       </c>
       <c r="G20" s="3">
-        <v>189500</v>
+        <v>181900</v>
       </c>
       <c r="H20" s="3">
-        <v>102400</v>
+        <v>98300</v>
       </c>
       <c r="I20" s="3">
-        <v>234000</v>
+        <v>224500</v>
       </c>
       <c r="J20" s="3">
-        <v>-208300</v>
+        <v>-199900</v>
       </c>
       <c r="K20" s="3">
         <v>-132100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2826100</v>
+        <v>2712400</v>
       </c>
       <c r="E21" s="3">
-        <v>1886800</v>
+        <v>1811000</v>
       </c>
       <c r="F21" s="3">
-        <v>2677300</v>
+        <v>2569600</v>
       </c>
       <c r="G21" s="3">
-        <v>2829800</v>
+        <v>2715900</v>
       </c>
       <c r="H21" s="3">
-        <v>2576800</v>
+        <v>2473000</v>
       </c>
       <c r="I21" s="3">
-        <v>2509100</v>
+        <v>2408100</v>
       </c>
       <c r="J21" s="3">
-        <v>2189100</v>
+        <v>2101000</v>
       </c>
       <c r="K21" s="3">
         <v>2404900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2651700</v>
+        <v>2544800</v>
       </c>
       <c r="E23" s="3">
-        <v>1723500</v>
+        <v>1654000</v>
       </c>
       <c r="F23" s="3">
-        <v>2508200</v>
+        <v>2407100</v>
       </c>
       <c r="G23" s="3">
-        <v>2727200</v>
+        <v>2617200</v>
       </c>
       <c r="H23" s="3">
-        <v>2496600</v>
+        <v>2395900</v>
       </c>
       <c r="I23" s="3">
-        <v>2440500</v>
+        <v>2342100</v>
       </c>
       <c r="J23" s="3">
-        <v>2092300</v>
+        <v>2008000</v>
       </c>
       <c r="K23" s="3">
         <v>2320800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>507900</v>
+        <v>487400</v>
       </c>
       <c r="E24" s="3">
-        <v>395500</v>
+        <v>379600</v>
       </c>
       <c r="F24" s="3">
-        <v>483900</v>
+        <v>464400</v>
       </c>
       <c r="G24" s="3">
-        <v>552000</v>
+        <v>529700</v>
       </c>
       <c r="H24" s="3">
-        <v>507700</v>
+        <v>487200</v>
       </c>
       <c r="I24" s="3">
-        <v>432300</v>
+        <v>414900</v>
       </c>
       <c r="J24" s="3">
-        <v>475000</v>
+        <v>455900</v>
       </c>
       <c r="K24" s="3">
         <v>474700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2143800</v>
+        <v>2057400</v>
       </c>
       <c r="E26" s="3">
-        <v>1327900</v>
+        <v>1274400</v>
       </c>
       <c r="F26" s="3">
-        <v>2024300</v>
+        <v>1942700</v>
       </c>
       <c r="G26" s="3">
-        <v>2175200</v>
+        <v>2087500</v>
       </c>
       <c r="H26" s="3">
-        <v>1988900</v>
+        <v>1908700</v>
       </c>
       <c r="I26" s="3">
-        <v>2008200</v>
+        <v>1927200</v>
       </c>
       <c r="J26" s="3">
-        <v>1617300</v>
+        <v>1552100</v>
       </c>
       <c r="K26" s="3">
         <v>1846100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2143700</v>
+        <v>2057300</v>
       </c>
       <c r="E27" s="3">
-        <v>1327900</v>
+        <v>1274400</v>
       </c>
       <c r="F27" s="3">
-        <v>2023100</v>
+        <v>1941500</v>
       </c>
       <c r="G27" s="3">
-        <v>2173500</v>
+        <v>2085900</v>
       </c>
       <c r="H27" s="3">
-        <v>1987400</v>
+        <v>1907300</v>
       </c>
       <c r="I27" s="3">
-        <v>2006900</v>
+        <v>1926000</v>
       </c>
       <c r="J27" s="3">
-        <v>1615900</v>
+        <v>1550800</v>
       </c>
       <c r="K27" s="3">
         <v>1844300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27700</v>
+        <v>26600</v>
       </c>
       <c r="E32" s="3">
-        <v>589500</v>
+        <v>565700</v>
       </c>
       <c r="F32" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-189500</v>
+        <v>-181900</v>
       </c>
       <c r="H32" s="3">
-        <v>-102400</v>
+        <v>-98300</v>
       </c>
       <c r="I32" s="3">
-        <v>-234000</v>
+        <v>-224500</v>
       </c>
       <c r="J32" s="3">
-        <v>208300</v>
+        <v>199900</v>
       </c>
       <c r="K32" s="3">
         <v>132100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2143700</v>
+        <v>2057300</v>
       </c>
       <c r="E33" s="3">
-        <v>1327900</v>
+        <v>1274400</v>
       </c>
       <c r="F33" s="3">
-        <v>2023100</v>
+        <v>1941500</v>
       </c>
       <c r="G33" s="3">
-        <v>2173500</v>
+        <v>2085900</v>
       </c>
       <c r="H33" s="3">
-        <v>1987400</v>
+        <v>1907300</v>
       </c>
       <c r="I33" s="3">
-        <v>2006900</v>
+        <v>1926000</v>
       </c>
       <c r="J33" s="3">
-        <v>1615300</v>
+        <v>1550200</v>
       </c>
       <c r="K33" s="3">
         <v>1815400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2143700</v>
+        <v>2057300</v>
       </c>
       <c r="E35" s="3">
-        <v>1327900</v>
+        <v>1274400</v>
       </c>
       <c r="F35" s="3">
-        <v>2023100</v>
+        <v>1941500</v>
       </c>
       <c r="G35" s="3">
-        <v>2173500</v>
+        <v>2085900</v>
       </c>
       <c r="H35" s="3">
-        <v>1987400</v>
+        <v>1907300</v>
       </c>
       <c r="I35" s="3">
-        <v>2006900</v>
+        <v>1926000</v>
       </c>
       <c r="J35" s="3">
-        <v>1615300</v>
+        <v>1550200</v>
       </c>
       <c r="K35" s="3">
         <v>1815400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40520600</v>
+        <v>38887300</v>
       </c>
       <c r="E41" s="3">
-        <v>33618100</v>
+        <v>32263000</v>
       </c>
       <c r="F41" s="3">
-        <v>24254500</v>
+        <v>23276800</v>
       </c>
       <c r="G41" s="3">
-        <v>20080100</v>
+        <v>19270700</v>
       </c>
       <c r="H41" s="3">
-        <v>23346500</v>
+        <v>22405500</v>
       </c>
       <c r="I41" s="3">
-        <v>15683000</v>
+        <v>15050900</v>
       </c>
       <c r="J41" s="3">
-        <v>27833500</v>
+        <v>26711600</v>
       </c>
       <c r="K41" s="3">
         <v>23192900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>58833600</v>
+        <v>56462200</v>
       </c>
       <c r="E42" s="3">
-        <v>52802100</v>
+        <v>50673800</v>
       </c>
       <c r="F42" s="3">
-        <v>47469000</v>
+        <v>45555600</v>
       </c>
       <c r="G42" s="3">
-        <v>37468600</v>
+        <v>35958300</v>
       </c>
       <c r="H42" s="3">
-        <v>38106700</v>
+        <v>36570800</v>
       </c>
       <c r="I42" s="3">
-        <v>51495500</v>
+        <v>49419800</v>
       </c>
       <c r="J42" s="3">
-        <v>46138500</v>
+        <v>44278700</v>
       </c>
       <c r="K42" s="3">
         <v>58188700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>791400</v>
+        <v>759500</v>
       </c>
       <c r="E47" s="3">
-        <v>748400</v>
+        <v>718300</v>
       </c>
       <c r="F47" s="3">
-        <v>686000</v>
+        <v>658300</v>
       </c>
       <c r="G47" s="3">
-        <v>625300</v>
+        <v>600100</v>
       </c>
       <c r="H47" s="3">
-        <v>652900</v>
+        <v>626600</v>
       </c>
       <c r="I47" s="3">
-        <v>751700</v>
+        <v>721400</v>
       </c>
       <c r="J47" s="3">
-        <v>552800</v>
+        <v>530500</v>
       </c>
       <c r="K47" s="3">
         <v>543500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>567300</v>
+        <v>544400</v>
       </c>
       <c r="E48" s="3">
-        <v>556800</v>
+        <v>534300</v>
       </c>
       <c r="F48" s="3">
-        <v>572300</v>
+        <v>549200</v>
       </c>
       <c r="G48" s="3">
-        <v>201900</v>
+        <v>193800</v>
       </c>
       <c r="H48" s="3">
-        <v>200800</v>
+        <v>192700</v>
       </c>
       <c r="I48" s="3">
-        <v>191500</v>
+        <v>183700</v>
       </c>
       <c r="J48" s="3">
-        <v>204300</v>
+        <v>196100</v>
       </c>
       <c r="K48" s="3">
         <v>303500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2001600</v>
+        <v>1920900</v>
       </c>
       <c r="E49" s="3">
-        <v>1885900</v>
+        <v>1809800</v>
       </c>
       <c r="F49" s="3">
-        <v>1834800</v>
+        <v>1760900</v>
       </c>
       <c r="G49" s="3">
-        <v>1758200</v>
+        <v>1687300</v>
       </c>
       <c r="H49" s="3">
-        <v>1677200</v>
+        <v>1609500</v>
       </c>
       <c r="I49" s="3">
-        <v>1466600</v>
+        <v>1407500</v>
       </c>
       <c r="J49" s="3">
-        <v>1406100</v>
+        <v>1349400</v>
       </c>
       <c r="K49" s="3">
         <v>1580500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="E52" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="F52" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="G52" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="H52" s="3">
-        <v>17800</v>
+        <v>17100</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="J52" s="3">
-        <v>165800</v>
+        <v>159100</v>
       </c>
       <c r="K52" s="3">
         <v>138300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>282516000</v>
+        <v>271128000</v>
       </c>
       <c r="E54" s="3">
-        <v>266496000</v>
+        <v>255754000</v>
       </c>
       <c r="F54" s="3">
-        <v>247349000</v>
+        <v>237379000</v>
       </c>
       <c r="G54" s="3">
-        <v>230696000</v>
+        <v>221397000</v>
       </c>
       <c r="H54" s="3">
-        <v>227260000</v>
+        <v>218100000</v>
       </c>
       <c r="I54" s="3">
-        <v>221258000</v>
+        <v>212340000</v>
       </c>
       <c r="J54" s="3">
-        <v>220709000</v>
+        <v>211813000</v>
       </c>
       <c r="K54" s="3">
         <v>234149000</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>683400</v>
+        <v>655900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34087300</v>
+        <v>32713300</v>
       </c>
       <c r="E58" s="3">
-        <v>28242000</v>
+        <v>27103600</v>
       </c>
       <c r="F58" s="3">
-        <v>31792600</v>
+        <v>30511200</v>
       </c>
       <c r="G58" s="3">
-        <v>21184500</v>
+        <v>20330600</v>
       </c>
       <c r="H58" s="3">
-        <v>26355300</v>
+        <v>25293000</v>
       </c>
       <c r="I58" s="3">
-        <v>28073100</v>
+        <v>26941500</v>
       </c>
       <c r="J58" s="3">
-        <v>22431900</v>
+        <v>21527700</v>
       </c>
       <c r="K58" s="3">
         <v>35703000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>563400</v>
+        <v>540700</v>
       </c>
       <c r="E59" s="3">
-        <v>458300</v>
+        <v>439800</v>
       </c>
       <c r="F59" s="3">
-        <v>536000</v>
+        <v>514400</v>
       </c>
       <c r="G59" s="3">
-        <v>531300</v>
+        <v>509900</v>
       </c>
       <c r="H59" s="3">
-        <v>511100</v>
+        <v>490500</v>
       </c>
       <c r="I59" s="3">
-        <v>1223200</v>
+        <v>1173900</v>
       </c>
       <c r="J59" s="3">
-        <v>1371000</v>
+        <v>1315700</v>
       </c>
       <c r="K59" s="3">
         <v>1605800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49231100</v>
+        <v>47246700</v>
       </c>
       <c r="E61" s="3">
-        <v>52595100</v>
+        <v>50475100</v>
       </c>
       <c r="F61" s="3">
-        <v>60869200</v>
+        <v>58415700</v>
       </c>
       <c r="G61" s="3">
-        <v>65008200</v>
+        <v>62387900</v>
       </c>
       <c r="H61" s="3">
-        <v>63867100</v>
+        <v>61292800</v>
       </c>
       <c r="I61" s="3">
-        <v>62294400</v>
+        <v>59783500</v>
       </c>
       <c r="J61" s="3">
-        <v>65360700</v>
+        <v>62726200</v>
       </c>
       <c r="K61" s="3">
         <v>60932900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>809900</v>
+        <v>777200</v>
       </c>
       <c r="E62" s="3">
-        <v>943200</v>
+        <v>905200</v>
       </c>
       <c r="F62" s="3">
-        <v>1328100</v>
+        <v>1274600</v>
       </c>
       <c r="G62" s="3">
-        <v>915400</v>
+        <v>878500</v>
       </c>
       <c r="H62" s="3">
-        <v>791900</v>
+        <v>760000</v>
       </c>
       <c r="I62" s="3">
-        <v>605800</v>
+        <v>581400</v>
       </c>
       <c r="J62" s="3">
-        <v>531200</v>
+        <v>509800</v>
       </c>
       <c r="K62" s="3">
         <v>832200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>265911000</v>
+        <v>255193000</v>
       </c>
       <c r="E66" s="3">
-        <v>250558000</v>
+        <v>240459000</v>
       </c>
       <c r="F66" s="3">
-        <v>233113000</v>
+        <v>223716000</v>
       </c>
       <c r="G66" s="3">
-        <v>216584000</v>
+        <v>207854000</v>
       </c>
       <c r="H66" s="3">
-        <v>213561000</v>
+        <v>204953000</v>
       </c>
       <c r="I66" s="3">
-        <v>207956000</v>
+        <v>199574000</v>
       </c>
       <c r="J66" s="3">
-        <v>208059000</v>
+        <v>199673000</v>
       </c>
       <c r="K66" s="3">
         <v>221212000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12052500</v>
+        <v>11566700</v>
       </c>
       <c r="E72" s="3">
-        <v>11856100</v>
+        <v>11378200</v>
       </c>
       <c r="F72" s="3">
-        <v>10078300</v>
+        <v>9672100</v>
       </c>
       <c r="G72" s="3">
-        <v>9987200</v>
+        <v>9584700</v>
       </c>
       <c r="H72" s="3">
-        <v>9643100</v>
+        <v>9254400</v>
       </c>
       <c r="I72" s="3">
-        <v>8874800</v>
+        <v>8517000</v>
       </c>
       <c r="J72" s="3">
-        <v>8302600</v>
+        <v>7967900</v>
       </c>
       <c r="K72" s="3">
         <v>8208500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16605100</v>
+        <v>15935800</v>
       </c>
       <c r="E76" s="3">
-        <v>15937300</v>
+        <v>15294900</v>
       </c>
       <c r="F76" s="3">
-        <v>14236400</v>
+        <v>13662600</v>
       </c>
       <c r="G76" s="3">
-        <v>14111900</v>
+        <v>13543100</v>
       </c>
       <c r="H76" s="3">
-        <v>13698600</v>
+        <v>13146500</v>
       </c>
       <c r="I76" s="3">
-        <v>13302500</v>
+        <v>12766300</v>
       </c>
       <c r="J76" s="3">
-        <v>12650100</v>
+        <v>12140200</v>
       </c>
       <c r="K76" s="3">
         <v>12936900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2143700</v>
+        <v>2057300</v>
       </c>
       <c r="E81" s="3">
-        <v>1327900</v>
+        <v>1274400</v>
       </c>
       <c r="F81" s="3">
-        <v>2023100</v>
+        <v>1941500</v>
       </c>
       <c r="G81" s="3">
-        <v>2173500</v>
+        <v>2085900</v>
       </c>
       <c r="H81" s="3">
-        <v>1987400</v>
+        <v>1907300</v>
       </c>
       <c r="I81" s="3">
-        <v>2006900</v>
+        <v>1926000</v>
       </c>
       <c r="J81" s="3">
-        <v>1615300</v>
+        <v>1550200</v>
       </c>
       <c r="K81" s="3">
         <v>1815400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173300</v>
+        <v>166300</v>
       </c>
       <c r="E83" s="3">
-        <v>162300</v>
+        <v>155700</v>
       </c>
       <c r="F83" s="3">
-        <v>168000</v>
+        <v>161300</v>
       </c>
       <c r="G83" s="3">
-        <v>102000</v>
+        <v>97900</v>
       </c>
       <c r="H83" s="3">
-        <v>79700</v>
+        <v>76500</v>
       </c>
       <c r="I83" s="3">
-        <v>68200</v>
+        <v>65500</v>
       </c>
       <c r="J83" s="3">
-        <v>96100</v>
+        <v>92300</v>
       </c>
       <c r="K83" s="3">
         <v>84800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5074800</v>
+        <v>4870200</v>
       </c>
       <c r="E89" s="3">
-        <v>11219700</v>
+        <v>10767500</v>
       </c>
       <c r="F89" s="3">
-        <v>3899700</v>
+        <v>3742500</v>
       </c>
       <c r="G89" s="3">
-        <v>2786900</v>
+        <v>2674600</v>
       </c>
       <c r="H89" s="3">
-        <v>5834300</v>
+        <v>5599200</v>
       </c>
       <c r="I89" s="3">
-        <v>-5509900</v>
+        <v>-5287800</v>
       </c>
       <c r="J89" s="3">
-        <v>7285400</v>
+        <v>6991800</v>
       </c>
       <c r="K89" s="3">
         <v>985700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26000</v>
+        <v>-24900</v>
       </c>
       <c r="E91" s="3">
-        <v>-37400</v>
+        <v>-35900</v>
       </c>
       <c r="F91" s="3">
-        <v>-23000</v>
+        <v>-22100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1573600</v>
+        <v>-1510200</v>
       </c>
       <c r="H91" s="3">
-        <v>-51800</v>
+        <v>-49700</v>
       </c>
       <c r="I91" s="3">
-        <v>-46300</v>
+        <v>-44500</v>
       </c>
       <c r="J91" s="3">
-        <v>-418500</v>
+        <v>-401700</v>
       </c>
       <c r="K91" s="3">
         <v>-122600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>64500</v>
+        <v>61900</v>
       </c>
       <c r="E94" s="3">
-        <v>142000</v>
+        <v>136300</v>
       </c>
       <c r="F94" s="3">
-        <v>102200</v>
+        <v>98100</v>
       </c>
       <c r="G94" s="3">
-        <v>171600</v>
+        <v>164700</v>
       </c>
       <c r="H94" s="3">
-        <v>76700</v>
+        <v>73600</v>
       </c>
       <c r="I94" s="3">
-        <v>31400</v>
+        <v>30200</v>
       </c>
       <c r="J94" s="3">
-        <v>-233200</v>
+        <v>-223800</v>
       </c>
       <c r="K94" s="3">
         <v>-559700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1675200</v>
+        <v>-1607700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1630800</v>
+        <v>-1565100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1491000</v>
+        <v>-1430900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1509700</v>
+        <v>-1448900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1220700</v>
+        <v>-1171500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1288400</v>
+        <v>-1236500</v>
       </c>
       <c r="K96" s="3">
         <v>-1229400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1453400</v>
+        <v>1394900</v>
       </c>
       <c r="E100" s="3">
-        <v>-893400</v>
+        <v>-857400</v>
       </c>
       <c r="F100" s="3">
-        <v>-836800</v>
+        <v>-803000</v>
       </c>
       <c r="G100" s="3">
-        <v>-7074200</v>
+        <v>-6789000</v>
       </c>
       <c r="H100" s="3">
-        <v>2112700</v>
+        <v>2027600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1432700</v>
+        <v>-1375000</v>
       </c>
       <c r="J100" s="3">
-        <v>537000</v>
+        <v>515300</v>
       </c>
       <c r="K100" s="3">
         <v>5371200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>221200</v>
+        <v>212300</v>
       </c>
       <c r="E101" s="3">
-        <v>-348900</v>
+        <v>-334800</v>
       </c>
       <c r="F101" s="3">
-        <v>134400</v>
+        <v>129000</v>
       </c>
       <c r="G101" s="3">
-        <v>293800</v>
+        <v>281900</v>
       </c>
       <c r="H101" s="3">
-        <v>92700</v>
+        <v>89000</v>
       </c>
       <c r="I101" s="3">
-        <v>238600</v>
+        <v>229000</v>
       </c>
       <c r="J101" s="3">
-        <v>-138200</v>
+        <v>-132700</v>
       </c>
       <c r="K101" s="3">
         <v>206000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6814000</v>
+        <v>6539300</v>
       </c>
       <c r="E102" s="3">
-        <v>10119500</v>
+        <v>9711600</v>
       </c>
       <c r="F102" s="3">
-        <v>3299600</v>
+        <v>3166600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3821800</v>
+        <v>-3667800</v>
       </c>
       <c r="H102" s="3">
-        <v>8116600</v>
+        <v>7789400</v>
       </c>
       <c r="I102" s="3">
-        <v>-6672600</v>
+        <v>-6403600</v>
       </c>
       <c r="J102" s="3">
-        <v>7451000</v>
+        <v>7150700</v>
       </c>
       <c r="K102" s="3">
         <v>6003100</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2993000</v>
+        <v>2868200</v>
       </c>
       <c r="E8" s="3">
-        <v>3330800</v>
+        <v>3191900</v>
       </c>
       <c r="F8" s="3">
-        <v>3486400</v>
+        <v>3341100</v>
       </c>
       <c r="G8" s="3">
-        <v>3357100</v>
+        <v>3217100</v>
       </c>
       <c r="H8" s="3">
-        <v>3172800</v>
+        <v>3040500</v>
       </c>
       <c r="I8" s="3">
-        <v>3092200</v>
+        <v>2963300</v>
       </c>
       <c r="J8" s="3">
-        <v>3448300</v>
+        <v>3304500</v>
       </c>
       <c r="K8" s="3">
         <v>4531300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-160800</v>
+        <v>-154100</v>
       </c>
       <c r="E15" s="3">
-        <v>-155700</v>
+        <v>-149200</v>
       </c>
       <c r="F15" s="3">
-        <v>-152900</v>
+        <v>-146500</v>
       </c>
       <c r="G15" s="3">
-        <v>-67600</v>
+        <v>-64800</v>
       </c>
       <c r="H15" s="3">
-        <v>-86300</v>
+        <v>-82700</v>
       </c>
       <c r="I15" s="3">
-        <v>-62000</v>
+        <v>-59400</v>
       </c>
       <c r="J15" s="3">
-        <v>-66200</v>
+        <v>-63500</v>
       </c>
       <c r="K15" s="3">
         <v>-79300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>421600</v>
+        <v>404000</v>
       </c>
       <c r="E17" s="3">
-        <v>1111100</v>
+        <v>1064800</v>
       </c>
       <c r="F17" s="3">
-        <v>1069500</v>
+        <v>1024900</v>
       </c>
       <c r="G17" s="3">
-        <v>921700</v>
+        <v>883300</v>
       </c>
       <c r="H17" s="3">
-        <v>875100</v>
+        <v>838600</v>
       </c>
       <c r="I17" s="3">
-        <v>974700</v>
+        <v>934000</v>
       </c>
       <c r="J17" s="3">
-        <v>1240400</v>
+        <v>1188700</v>
       </c>
       <c r="K17" s="3">
         <v>2078300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2571400</v>
+        <v>2464200</v>
       </c>
       <c r="E18" s="3">
-        <v>2219700</v>
+        <v>2127100</v>
       </c>
       <c r="F18" s="3">
-        <v>2416900</v>
+        <v>2316200</v>
       </c>
       <c r="G18" s="3">
-        <v>2435400</v>
+        <v>2333800</v>
       </c>
       <c r="H18" s="3">
-        <v>2297700</v>
+        <v>2201900</v>
       </c>
       <c r="I18" s="3">
-        <v>2117600</v>
+        <v>2029300</v>
       </c>
       <c r="J18" s="3">
-        <v>2207900</v>
+        <v>2115800</v>
       </c>
       <c r="K18" s="3">
         <v>2453000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26600</v>
+        <v>-25500</v>
       </c>
       <c r="E20" s="3">
-        <v>-565700</v>
+        <v>-542100</v>
       </c>
       <c r="F20" s="3">
-        <v>-9900</v>
+        <v>-9400</v>
       </c>
       <c r="G20" s="3">
-        <v>181900</v>
+        <v>174300</v>
       </c>
       <c r="H20" s="3">
-        <v>98300</v>
+        <v>94200</v>
       </c>
       <c r="I20" s="3">
-        <v>224500</v>
+        <v>215200</v>
       </c>
       <c r="J20" s="3">
-        <v>-199900</v>
+        <v>-191600</v>
       </c>
       <c r="K20" s="3">
         <v>-132100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2712400</v>
+        <v>2597700</v>
       </c>
       <c r="E21" s="3">
-        <v>1811000</v>
+        <v>1734000</v>
       </c>
       <c r="F21" s="3">
-        <v>2569600</v>
+        <v>2461000</v>
       </c>
       <c r="G21" s="3">
-        <v>2715900</v>
+        <v>2601700</v>
       </c>
       <c r="H21" s="3">
-        <v>2473000</v>
+        <v>2369200</v>
       </c>
       <c r="I21" s="3">
-        <v>2408100</v>
+        <v>2307100</v>
       </c>
       <c r="J21" s="3">
-        <v>2101000</v>
+        <v>2012500</v>
       </c>
       <c r="K21" s="3">
         <v>2404900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2544800</v>
+        <v>2438700</v>
       </c>
       <c r="E23" s="3">
-        <v>1654000</v>
+        <v>1585000</v>
       </c>
       <c r="F23" s="3">
-        <v>2407100</v>
+        <v>2306700</v>
       </c>
       <c r="G23" s="3">
-        <v>2617200</v>
+        <v>2508100</v>
       </c>
       <c r="H23" s="3">
-        <v>2395900</v>
+        <v>2296000</v>
       </c>
       <c r="I23" s="3">
-        <v>2342100</v>
+        <v>2244500</v>
       </c>
       <c r="J23" s="3">
-        <v>2008000</v>
+        <v>1924200</v>
       </c>
       <c r="K23" s="3">
         <v>2320800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>487400</v>
+        <v>467100</v>
       </c>
       <c r="E24" s="3">
-        <v>379600</v>
+        <v>363800</v>
       </c>
       <c r="F24" s="3">
-        <v>464400</v>
+        <v>445000</v>
       </c>
       <c r="G24" s="3">
-        <v>529700</v>
+        <v>507600</v>
       </c>
       <c r="H24" s="3">
-        <v>487200</v>
+        <v>466900</v>
       </c>
       <c r="I24" s="3">
-        <v>414900</v>
+        <v>397600</v>
       </c>
       <c r="J24" s="3">
-        <v>455900</v>
+        <v>436900</v>
       </c>
       <c r="K24" s="3">
         <v>474700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2057400</v>
+        <v>1971600</v>
       </c>
       <c r="E26" s="3">
-        <v>1274400</v>
+        <v>1221300</v>
       </c>
       <c r="F26" s="3">
-        <v>1942700</v>
+        <v>1861700</v>
       </c>
       <c r="G26" s="3">
-        <v>2087500</v>
+        <v>2000500</v>
       </c>
       <c r="H26" s="3">
-        <v>1908700</v>
+        <v>1829100</v>
       </c>
       <c r="I26" s="3">
-        <v>1927200</v>
+        <v>1846900</v>
       </c>
       <c r="J26" s="3">
-        <v>1552100</v>
+        <v>1487400</v>
       </c>
       <c r="K26" s="3">
         <v>1846100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2057300</v>
+        <v>1971500</v>
       </c>
       <c r="E27" s="3">
-        <v>1274400</v>
+        <v>1221300</v>
       </c>
       <c r="F27" s="3">
-        <v>1941500</v>
+        <v>1860600</v>
       </c>
       <c r="G27" s="3">
-        <v>2085900</v>
+        <v>1999000</v>
       </c>
       <c r="H27" s="3">
-        <v>1907300</v>
+        <v>1827800</v>
       </c>
       <c r="I27" s="3">
-        <v>1926000</v>
+        <v>1845700</v>
       </c>
       <c r="J27" s="3">
-        <v>1550800</v>
+        <v>1486100</v>
       </c>
       <c r="K27" s="3">
         <v>1844300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26600</v>
+        <v>25500</v>
       </c>
       <c r="E32" s="3">
-        <v>565700</v>
+        <v>542100</v>
       </c>
       <c r="F32" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="G32" s="3">
-        <v>-181900</v>
+        <v>-174300</v>
       </c>
       <c r="H32" s="3">
-        <v>-98300</v>
+        <v>-94200</v>
       </c>
       <c r="I32" s="3">
-        <v>-224500</v>
+        <v>-215200</v>
       </c>
       <c r="J32" s="3">
-        <v>199900</v>
+        <v>191600</v>
       </c>
       <c r="K32" s="3">
         <v>132100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2057300</v>
+        <v>1971500</v>
       </c>
       <c r="E33" s="3">
-        <v>1274400</v>
+        <v>1221300</v>
       </c>
       <c r="F33" s="3">
-        <v>1941500</v>
+        <v>1860600</v>
       </c>
       <c r="G33" s="3">
-        <v>2085900</v>
+        <v>1999000</v>
       </c>
       <c r="H33" s="3">
-        <v>1907300</v>
+        <v>1827800</v>
       </c>
       <c r="I33" s="3">
-        <v>1926000</v>
+        <v>1845700</v>
       </c>
       <c r="J33" s="3">
-        <v>1550200</v>
+        <v>1485600</v>
       </c>
       <c r="K33" s="3">
         <v>1815400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2057300</v>
+        <v>1971500</v>
       </c>
       <c r="E35" s="3">
-        <v>1274400</v>
+        <v>1221300</v>
       </c>
       <c r="F35" s="3">
-        <v>1941500</v>
+        <v>1860600</v>
       </c>
       <c r="G35" s="3">
-        <v>2085900</v>
+        <v>1999000</v>
       </c>
       <c r="H35" s="3">
-        <v>1907300</v>
+        <v>1827800</v>
       </c>
       <c r="I35" s="3">
-        <v>1926000</v>
+        <v>1845700</v>
       </c>
       <c r="J35" s="3">
-        <v>1550200</v>
+        <v>1485600</v>
       </c>
       <c r="K35" s="3">
         <v>1815400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38887300</v>
+        <v>37265900</v>
       </c>
       <c r="E41" s="3">
-        <v>32263000</v>
+        <v>30917800</v>
       </c>
       <c r="F41" s="3">
-        <v>23276800</v>
+        <v>22306300</v>
       </c>
       <c r="G41" s="3">
-        <v>19270700</v>
+        <v>18467200</v>
       </c>
       <c r="H41" s="3">
-        <v>22405500</v>
+        <v>21471200</v>
       </c>
       <c r="I41" s="3">
-        <v>15050900</v>
+        <v>14423300</v>
       </c>
       <c r="J41" s="3">
-        <v>26711600</v>
+        <v>25597800</v>
       </c>
       <c r="K41" s="3">
         <v>23192900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56462200</v>
+        <v>54107900</v>
       </c>
       <c r="E42" s="3">
-        <v>50673800</v>
+        <v>48560800</v>
       </c>
       <c r="F42" s="3">
-        <v>45555600</v>
+        <v>43656100</v>
       </c>
       <c r="G42" s="3">
-        <v>35958300</v>
+        <v>34459000</v>
       </c>
       <c r="H42" s="3">
-        <v>36570800</v>
+        <v>35045900</v>
       </c>
       <c r="I42" s="3">
-        <v>49419800</v>
+        <v>47359200</v>
       </c>
       <c r="J42" s="3">
-        <v>44278700</v>
+        <v>42432500</v>
       </c>
       <c r="K42" s="3">
         <v>58188700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>759500</v>
+        <v>727800</v>
       </c>
       <c r="E47" s="3">
-        <v>718300</v>
+        <v>688300</v>
       </c>
       <c r="F47" s="3">
-        <v>658300</v>
+        <v>630900</v>
       </c>
       <c r="G47" s="3">
-        <v>600100</v>
+        <v>575100</v>
       </c>
       <c r="H47" s="3">
-        <v>626600</v>
+        <v>600500</v>
       </c>
       <c r="I47" s="3">
-        <v>721400</v>
+        <v>691400</v>
       </c>
       <c r="J47" s="3">
-        <v>530500</v>
+        <v>508400</v>
       </c>
       <c r="K47" s="3">
         <v>543500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>544400</v>
+        <v>521700</v>
       </c>
       <c r="E48" s="3">
-        <v>534300</v>
+        <v>512100</v>
       </c>
       <c r="F48" s="3">
-        <v>549200</v>
+        <v>526300</v>
       </c>
       <c r="G48" s="3">
-        <v>193800</v>
+        <v>185700</v>
       </c>
       <c r="H48" s="3">
-        <v>192700</v>
+        <v>184700</v>
       </c>
       <c r="I48" s="3">
-        <v>183700</v>
+        <v>176100</v>
       </c>
       <c r="J48" s="3">
-        <v>196100</v>
+        <v>187900</v>
       </c>
       <c r="K48" s="3">
         <v>303500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1920900</v>
+        <v>1840800</v>
       </c>
       <c r="E49" s="3">
-        <v>1809800</v>
+        <v>1734400</v>
       </c>
       <c r="F49" s="3">
-        <v>1760900</v>
+        <v>1687400</v>
       </c>
       <c r="G49" s="3">
-        <v>1687300</v>
+        <v>1617000</v>
       </c>
       <c r="H49" s="3">
-        <v>1609500</v>
+        <v>1542400</v>
       </c>
       <c r="I49" s="3">
-        <v>1407500</v>
+        <v>1348800</v>
       </c>
       <c r="J49" s="3">
-        <v>1349400</v>
+        <v>1293200</v>
       </c>
       <c r="K49" s="3">
         <v>1580500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="F52" s="3">
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="G52" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="H52" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I52" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="J52" s="3">
-        <v>159100</v>
+        <v>152500</v>
       </c>
       <c r="K52" s="3">
         <v>138300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>271128000</v>
+        <v>259823000</v>
       </c>
       <c r="E54" s="3">
-        <v>255754000</v>
+        <v>245090000</v>
       </c>
       <c r="F54" s="3">
-        <v>237379000</v>
+        <v>227481000</v>
       </c>
       <c r="G54" s="3">
-        <v>221397000</v>
+        <v>212166000</v>
       </c>
       <c r="H54" s="3">
-        <v>218100000</v>
+        <v>209006000</v>
       </c>
       <c r="I54" s="3">
-        <v>212340000</v>
+        <v>203486000</v>
       </c>
       <c r="J54" s="3">
-        <v>211813000</v>
+        <v>202981000</v>
       </c>
       <c r="K54" s="3">
         <v>234149000</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>655900</v>
+        <v>628500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32713300</v>
+        <v>31349300</v>
       </c>
       <c r="E58" s="3">
-        <v>27103600</v>
+        <v>25973500</v>
       </c>
       <c r="F58" s="3">
-        <v>30511200</v>
+        <v>29239000</v>
       </c>
       <c r="G58" s="3">
-        <v>20330600</v>
+        <v>19482800</v>
       </c>
       <c r="H58" s="3">
-        <v>25293000</v>
+        <v>24238300</v>
       </c>
       <c r="I58" s="3">
-        <v>26941500</v>
+        <v>25818200</v>
       </c>
       <c r="J58" s="3">
-        <v>21527700</v>
+        <v>20630100</v>
       </c>
       <c r="K58" s="3">
         <v>35703000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>540700</v>
+        <v>518100</v>
       </c>
       <c r="E59" s="3">
-        <v>439800</v>
+        <v>421500</v>
       </c>
       <c r="F59" s="3">
-        <v>514400</v>
+        <v>493000</v>
       </c>
       <c r="G59" s="3">
-        <v>509900</v>
+        <v>488600</v>
       </c>
       <c r="H59" s="3">
-        <v>490500</v>
+        <v>470000</v>
       </c>
       <c r="I59" s="3">
-        <v>1173900</v>
+        <v>1124900</v>
       </c>
       <c r="J59" s="3">
-        <v>1315700</v>
+        <v>1260900</v>
       </c>
       <c r="K59" s="3">
         <v>1605800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47246700</v>
+        <v>45276700</v>
       </c>
       <c r="E61" s="3">
-        <v>50475100</v>
+        <v>48370500</v>
       </c>
       <c r="F61" s="3">
-        <v>58415700</v>
+        <v>55980000</v>
       </c>
       <c r="G61" s="3">
-        <v>62387900</v>
+        <v>59786600</v>
       </c>
       <c r="H61" s="3">
-        <v>61292800</v>
+        <v>58737100</v>
       </c>
       <c r="I61" s="3">
-        <v>59783500</v>
+        <v>57290700</v>
       </c>
       <c r="J61" s="3">
-        <v>62726200</v>
+        <v>60110800</v>
       </c>
       <c r="K61" s="3">
         <v>60932900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>777200</v>
+        <v>744800</v>
       </c>
       <c r="E62" s="3">
-        <v>905200</v>
+        <v>867400</v>
       </c>
       <c r="F62" s="3">
-        <v>1274600</v>
+        <v>1221500</v>
       </c>
       <c r="G62" s="3">
-        <v>878500</v>
+        <v>841800</v>
       </c>
       <c r="H62" s="3">
-        <v>760000</v>
+        <v>728300</v>
       </c>
       <c r="I62" s="3">
-        <v>581400</v>
+        <v>557100</v>
       </c>
       <c r="J62" s="3">
-        <v>509800</v>
+        <v>488500</v>
       </c>
       <c r="K62" s="3">
         <v>832200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>255193000</v>
+        <v>244552000</v>
       </c>
       <c r="E66" s="3">
-        <v>240459000</v>
+        <v>230433000</v>
       </c>
       <c r="F66" s="3">
-        <v>223716000</v>
+        <v>214388000</v>
       </c>
       <c r="G66" s="3">
-        <v>207854000</v>
+        <v>199187000</v>
       </c>
       <c r="H66" s="3">
-        <v>204953000</v>
+        <v>196407000</v>
       </c>
       <c r="I66" s="3">
-        <v>199574000</v>
+        <v>191252000</v>
       </c>
       <c r="J66" s="3">
-        <v>199673000</v>
+        <v>191347000</v>
       </c>
       <c r="K66" s="3">
         <v>221212000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11566700</v>
+        <v>11084400</v>
       </c>
       <c r="E72" s="3">
-        <v>11378200</v>
+        <v>10903800</v>
       </c>
       <c r="F72" s="3">
-        <v>9672100</v>
+        <v>9268800</v>
       </c>
       <c r="G72" s="3">
-        <v>9584700</v>
+        <v>9185000</v>
       </c>
       <c r="H72" s="3">
-        <v>9254400</v>
+        <v>8868600</v>
       </c>
       <c r="I72" s="3">
-        <v>8517000</v>
+        <v>8161900</v>
       </c>
       <c r="J72" s="3">
-        <v>7967900</v>
+        <v>7635700</v>
       </c>
       <c r="K72" s="3">
         <v>8208500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15935800</v>
+        <v>15271300</v>
       </c>
       <c r="E76" s="3">
-        <v>15294900</v>
+        <v>14657200</v>
       </c>
       <c r="F76" s="3">
-        <v>13662600</v>
+        <v>13092900</v>
       </c>
       <c r="G76" s="3">
-        <v>13543100</v>
+        <v>12978400</v>
       </c>
       <c r="H76" s="3">
-        <v>13146500</v>
+        <v>12598300</v>
       </c>
       <c r="I76" s="3">
-        <v>12766300</v>
+        <v>12234000</v>
       </c>
       <c r="J76" s="3">
-        <v>12140200</v>
+        <v>11634000</v>
       </c>
       <c r="K76" s="3">
         <v>12936900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2057300</v>
+        <v>1971500</v>
       </c>
       <c r="E81" s="3">
-        <v>1274400</v>
+        <v>1221300</v>
       </c>
       <c r="F81" s="3">
-        <v>1941500</v>
+        <v>1860600</v>
       </c>
       <c r="G81" s="3">
-        <v>2085900</v>
+        <v>1999000</v>
       </c>
       <c r="H81" s="3">
-        <v>1907300</v>
+        <v>1827800</v>
       </c>
       <c r="I81" s="3">
-        <v>1926000</v>
+        <v>1845700</v>
       </c>
       <c r="J81" s="3">
-        <v>1550200</v>
+        <v>1485600</v>
       </c>
       <c r="K81" s="3">
         <v>1815400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>166300</v>
+        <v>159400</v>
       </c>
       <c r="E83" s="3">
-        <v>155700</v>
+        <v>149200</v>
       </c>
       <c r="F83" s="3">
-        <v>161300</v>
+        <v>154500</v>
       </c>
       <c r="G83" s="3">
-        <v>97900</v>
+        <v>93800</v>
       </c>
       <c r="H83" s="3">
-        <v>76500</v>
+        <v>73300</v>
       </c>
       <c r="I83" s="3">
-        <v>65500</v>
+        <v>62700</v>
       </c>
       <c r="J83" s="3">
-        <v>92300</v>
+        <v>88400</v>
       </c>
       <c r="K83" s="3">
         <v>84800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4870200</v>
+        <v>4667200</v>
       </c>
       <c r="E89" s="3">
-        <v>10767500</v>
+        <v>10318500</v>
       </c>
       <c r="F89" s="3">
-        <v>3742500</v>
+        <v>3586500</v>
       </c>
       <c r="G89" s="3">
-        <v>2674600</v>
+        <v>2563100</v>
       </c>
       <c r="H89" s="3">
-        <v>5599200</v>
+        <v>5365700</v>
       </c>
       <c r="I89" s="3">
-        <v>-5287800</v>
+        <v>-5067300</v>
       </c>
       <c r="J89" s="3">
-        <v>6991800</v>
+        <v>6700200</v>
       </c>
       <c r="K89" s="3">
         <v>985700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24900</v>
+        <v>-23900</v>
       </c>
       <c r="E91" s="3">
-        <v>-35900</v>
+        <v>-34400</v>
       </c>
       <c r="F91" s="3">
-        <v>-22100</v>
+        <v>-21200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1510200</v>
+        <v>-1447200</v>
       </c>
       <c r="H91" s="3">
-        <v>-49700</v>
+        <v>-47600</v>
       </c>
       <c r="I91" s="3">
-        <v>-44500</v>
+        <v>-42600</v>
       </c>
       <c r="J91" s="3">
-        <v>-401700</v>
+        <v>-384900</v>
       </c>
       <c r="K91" s="3">
         <v>-122600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>61900</v>
+        <v>59300</v>
       </c>
       <c r="E94" s="3">
-        <v>136300</v>
+        <v>130600</v>
       </c>
       <c r="F94" s="3">
-        <v>98100</v>
+        <v>94000</v>
       </c>
       <c r="G94" s="3">
-        <v>164700</v>
+        <v>157800</v>
       </c>
       <c r="H94" s="3">
-        <v>73600</v>
+        <v>70600</v>
       </c>
       <c r="I94" s="3">
-        <v>30200</v>
+        <v>28900</v>
       </c>
       <c r="J94" s="3">
-        <v>-223800</v>
+        <v>-214400</v>
       </c>
       <c r="K94" s="3">
         <v>-559700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1607700</v>
+        <v>-1540600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1565100</v>
+        <v>-1499800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1430900</v>
+        <v>-1371300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1448900</v>
+        <v>-1388500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1171500</v>
+        <v>-1122700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1236500</v>
+        <v>-1184900</v>
       </c>
       <c r="K96" s="3">
         <v>-1229400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1394900</v>
+        <v>1336700</v>
       </c>
       <c r="E100" s="3">
-        <v>-857400</v>
+        <v>-821600</v>
       </c>
       <c r="F100" s="3">
-        <v>-803000</v>
+        <v>-769600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6789000</v>
+        <v>-6505900</v>
       </c>
       <c r="H100" s="3">
-        <v>2027600</v>
+        <v>1943000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1375000</v>
+        <v>-1317600</v>
       </c>
       <c r="J100" s="3">
-        <v>515300</v>
+        <v>493800</v>
       </c>
       <c r="K100" s="3">
         <v>5371200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>212300</v>
+        <v>203500</v>
       </c>
       <c r="E101" s="3">
-        <v>-334800</v>
+        <v>-320900</v>
       </c>
       <c r="F101" s="3">
-        <v>129000</v>
+        <v>123600</v>
       </c>
       <c r="G101" s="3">
-        <v>281900</v>
+        <v>270200</v>
       </c>
       <c r="H101" s="3">
-        <v>89000</v>
+        <v>85300</v>
       </c>
       <c r="I101" s="3">
-        <v>229000</v>
+        <v>219400</v>
       </c>
       <c r="J101" s="3">
-        <v>-132700</v>
+        <v>-127100</v>
       </c>
       <c r="K101" s="3">
         <v>206000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6539300</v>
+        <v>6266700</v>
       </c>
       <c r="E102" s="3">
-        <v>9711600</v>
+        <v>9306700</v>
       </c>
       <c r="F102" s="3">
-        <v>3166600</v>
+        <v>3034500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3667800</v>
+        <v>-3514900</v>
       </c>
       <c r="H102" s="3">
-        <v>7789400</v>
+        <v>7464600</v>
       </c>
       <c r="I102" s="3">
-        <v>-6403600</v>
+        <v>-6136600</v>
       </c>
       <c r="J102" s="3">
-        <v>7150700</v>
+        <v>6852500</v>
       </c>
       <c r="K102" s="3">
         <v>6003100</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2868200</v>
+        <v>2871200</v>
       </c>
       <c r="E8" s="3">
-        <v>3191900</v>
+        <v>3195300</v>
       </c>
       <c r="F8" s="3">
-        <v>3341100</v>
+        <v>3344600</v>
       </c>
       <c r="G8" s="3">
-        <v>3217100</v>
+        <v>3220500</v>
       </c>
       <c r="H8" s="3">
-        <v>3040500</v>
+        <v>3043700</v>
       </c>
       <c r="I8" s="3">
-        <v>2963300</v>
+        <v>2966400</v>
       </c>
       <c r="J8" s="3">
-        <v>3304500</v>
+        <v>3308000</v>
       </c>
       <c r="K8" s="3">
         <v>4531300</v>
@@ -974,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-154100</v>
+        <v>-154200</v>
       </c>
       <c r="E15" s="3">
-        <v>-149200</v>
+        <v>-149400</v>
       </c>
       <c r="F15" s="3">
-        <v>-146500</v>
+        <v>-146700</v>
       </c>
       <c r="G15" s="3">
-        <v>-64800</v>
+        <v>-64900</v>
       </c>
       <c r="H15" s="3">
-        <v>-82700</v>
+        <v>-82800</v>
       </c>
       <c r="I15" s="3">
-        <v>-59400</v>
+        <v>-59500</v>
       </c>
       <c r="J15" s="3">
         <v>-63500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>404000</v>
+        <v>404400</v>
       </c>
       <c r="E17" s="3">
-        <v>1064800</v>
+        <v>1065900</v>
       </c>
       <c r="F17" s="3">
-        <v>1024900</v>
+        <v>1026000</v>
       </c>
       <c r="G17" s="3">
-        <v>883300</v>
+        <v>884200</v>
       </c>
       <c r="H17" s="3">
-        <v>838600</v>
+        <v>839500</v>
       </c>
       <c r="I17" s="3">
-        <v>934000</v>
+        <v>935000</v>
       </c>
       <c r="J17" s="3">
-        <v>1188700</v>
+        <v>1189900</v>
       </c>
       <c r="K17" s="3">
         <v>2078300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2464200</v>
+        <v>2466800</v>
       </c>
       <c r="E18" s="3">
-        <v>2127100</v>
+        <v>2129400</v>
       </c>
       <c r="F18" s="3">
-        <v>2316200</v>
+        <v>2318600</v>
       </c>
       <c r="G18" s="3">
-        <v>2333800</v>
+        <v>2336300</v>
       </c>
       <c r="H18" s="3">
-        <v>2201900</v>
+        <v>2204200</v>
       </c>
       <c r="I18" s="3">
-        <v>2029300</v>
+        <v>2031400</v>
       </c>
       <c r="J18" s="3">
-        <v>2115800</v>
+        <v>2118000</v>
       </c>
       <c r="K18" s="3">
         <v>2453000</v>
@@ -1125,22 +1125,22 @@
         <v>-25500</v>
       </c>
       <c r="E20" s="3">
-        <v>-542100</v>
+        <v>-542700</v>
       </c>
       <c r="F20" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="G20" s="3">
-        <v>174300</v>
+        <v>174500</v>
       </c>
       <c r="H20" s="3">
-        <v>94200</v>
+        <v>94300</v>
       </c>
       <c r="I20" s="3">
-        <v>215200</v>
+        <v>215400</v>
       </c>
       <c r="J20" s="3">
-        <v>-191600</v>
+        <v>-191800</v>
       </c>
       <c r="K20" s="3">
         <v>-132100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2597700</v>
+        <v>2596300</v>
       </c>
       <c r="E21" s="3">
-        <v>1734000</v>
+        <v>1731900</v>
       </c>
       <c r="F21" s="3">
-        <v>2461000</v>
+        <v>2459500</v>
       </c>
       <c r="G21" s="3">
-        <v>2601700</v>
+        <v>2602000</v>
       </c>
       <c r="H21" s="3">
-        <v>2369200</v>
+        <v>2369800</v>
       </c>
       <c r="I21" s="3">
-        <v>2307100</v>
+        <v>2307900</v>
       </c>
       <c r="J21" s="3">
-        <v>2012500</v>
+        <v>2012300</v>
       </c>
       <c r="K21" s="3">
         <v>2404900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2438700</v>
+        <v>2441300</v>
       </c>
       <c r="E23" s="3">
-        <v>1585000</v>
+        <v>1586700</v>
       </c>
       <c r="F23" s="3">
-        <v>2306700</v>
+        <v>2309200</v>
       </c>
       <c r="G23" s="3">
-        <v>2508100</v>
+        <v>2510800</v>
       </c>
       <c r="H23" s="3">
-        <v>2296000</v>
+        <v>2298500</v>
       </c>
       <c r="I23" s="3">
-        <v>2244500</v>
+        <v>2246800</v>
       </c>
       <c r="J23" s="3">
-        <v>1924200</v>
+        <v>1926300</v>
       </c>
       <c r="K23" s="3">
         <v>2320800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>467100</v>
+        <v>467600</v>
       </c>
       <c r="E24" s="3">
-        <v>363800</v>
+        <v>364200</v>
       </c>
       <c r="F24" s="3">
-        <v>445000</v>
+        <v>445500</v>
       </c>
       <c r="G24" s="3">
-        <v>507600</v>
+        <v>508200</v>
       </c>
       <c r="H24" s="3">
-        <v>466900</v>
+        <v>467400</v>
       </c>
       <c r="I24" s="3">
-        <v>397600</v>
+        <v>398000</v>
       </c>
       <c r="J24" s="3">
-        <v>436900</v>
+        <v>437300</v>
       </c>
       <c r="K24" s="3">
         <v>474700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1971600</v>
+        <v>1973700</v>
       </c>
       <c r="E26" s="3">
-        <v>1221300</v>
+        <v>1222600</v>
       </c>
       <c r="F26" s="3">
-        <v>1861700</v>
+        <v>1863700</v>
       </c>
       <c r="G26" s="3">
-        <v>2000500</v>
+        <v>2002600</v>
       </c>
       <c r="H26" s="3">
-        <v>1829100</v>
+        <v>1831100</v>
       </c>
       <c r="I26" s="3">
-        <v>1846900</v>
+        <v>1848800</v>
       </c>
       <c r="J26" s="3">
-        <v>1487400</v>
+        <v>1488900</v>
       </c>
       <c r="K26" s="3">
         <v>1846100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1971500</v>
+        <v>1973600</v>
       </c>
       <c r="E27" s="3">
-        <v>1221300</v>
+        <v>1222600</v>
       </c>
       <c r="F27" s="3">
-        <v>1860600</v>
+        <v>1862500</v>
       </c>
       <c r="G27" s="3">
-        <v>1999000</v>
+        <v>2001100</v>
       </c>
       <c r="H27" s="3">
-        <v>1827800</v>
+        <v>1829700</v>
       </c>
       <c r="I27" s="3">
-        <v>1845700</v>
+        <v>1847600</v>
       </c>
       <c r="J27" s="3">
-        <v>1486100</v>
+        <v>1487700</v>
       </c>
       <c r="K27" s="3">
         <v>1844300</v>
@@ -1593,22 +1593,22 @@
         <v>25500</v>
       </c>
       <c r="E32" s="3">
-        <v>542100</v>
+        <v>542700</v>
       </c>
       <c r="F32" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-174300</v>
+        <v>-174500</v>
       </c>
       <c r="H32" s="3">
-        <v>-94200</v>
+        <v>-94300</v>
       </c>
       <c r="I32" s="3">
-        <v>-215200</v>
+        <v>-215400</v>
       </c>
       <c r="J32" s="3">
-        <v>191600</v>
+        <v>191800</v>
       </c>
       <c r="K32" s="3">
         <v>132100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1971500</v>
+        <v>1973600</v>
       </c>
       <c r="E33" s="3">
-        <v>1221300</v>
+        <v>1222600</v>
       </c>
       <c r="F33" s="3">
-        <v>1860600</v>
+        <v>1862500</v>
       </c>
       <c r="G33" s="3">
-        <v>1999000</v>
+        <v>2001100</v>
       </c>
       <c r="H33" s="3">
-        <v>1827800</v>
+        <v>1829700</v>
       </c>
       <c r="I33" s="3">
-        <v>1845700</v>
+        <v>1847600</v>
       </c>
       <c r="J33" s="3">
-        <v>1485600</v>
+        <v>1487100</v>
       </c>
       <c r="K33" s="3">
         <v>1815400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1971500</v>
+        <v>1973600</v>
       </c>
       <c r="E35" s="3">
-        <v>1221300</v>
+        <v>1222600</v>
       </c>
       <c r="F35" s="3">
-        <v>1860600</v>
+        <v>1862500</v>
       </c>
       <c r="G35" s="3">
-        <v>1999000</v>
+        <v>2001100</v>
       </c>
       <c r="H35" s="3">
-        <v>1827800</v>
+        <v>1829700</v>
       </c>
       <c r="I35" s="3">
-        <v>1845700</v>
+        <v>1847600</v>
       </c>
       <c r="J35" s="3">
-        <v>1485600</v>
+        <v>1487100</v>
       </c>
       <c r="K35" s="3">
         <v>1815400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37265900</v>
+        <v>37305300</v>
       </c>
       <c r="E41" s="3">
-        <v>30917800</v>
+        <v>30950500</v>
       </c>
       <c r="F41" s="3">
-        <v>22306300</v>
+        <v>22329900</v>
       </c>
       <c r="G41" s="3">
-        <v>18467200</v>
+        <v>18486800</v>
       </c>
       <c r="H41" s="3">
-        <v>21471200</v>
+        <v>21494000</v>
       </c>
       <c r="I41" s="3">
-        <v>14423300</v>
+        <v>14438600</v>
       </c>
       <c r="J41" s="3">
-        <v>25597800</v>
+        <v>25624900</v>
       </c>
       <c r="K41" s="3">
         <v>23192900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54107900</v>
+        <v>54165200</v>
       </c>
       <c r="E42" s="3">
-        <v>48560800</v>
+        <v>48612300</v>
       </c>
       <c r="F42" s="3">
-        <v>43656100</v>
+        <v>43702300</v>
       </c>
       <c r="G42" s="3">
-        <v>34459000</v>
+        <v>34495500</v>
       </c>
       <c r="H42" s="3">
-        <v>35045900</v>
+        <v>35083000</v>
       </c>
       <c r="I42" s="3">
-        <v>47359200</v>
+        <v>47409400</v>
       </c>
       <c r="J42" s="3">
-        <v>42432500</v>
+        <v>42477400</v>
       </c>
       <c r="K42" s="3">
         <v>58188700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>727800</v>
+        <v>728600</v>
       </c>
       <c r="E47" s="3">
-        <v>688300</v>
+        <v>689100</v>
       </c>
       <c r="F47" s="3">
-        <v>630900</v>
+        <v>631600</v>
       </c>
       <c r="G47" s="3">
-        <v>575100</v>
+        <v>575700</v>
       </c>
       <c r="H47" s="3">
-        <v>600500</v>
+        <v>601100</v>
       </c>
       <c r="I47" s="3">
-        <v>691400</v>
+        <v>692100</v>
       </c>
       <c r="J47" s="3">
-        <v>508400</v>
+        <v>508900</v>
       </c>
       <c r="K47" s="3">
         <v>543500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>521700</v>
+        <v>522300</v>
       </c>
       <c r="E48" s="3">
-        <v>512100</v>
+        <v>512600</v>
       </c>
       <c r="F48" s="3">
-        <v>526300</v>
+        <v>526900</v>
       </c>
       <c r="G48" s="3">
-        <v>185700</v>
+        <v>185900</v>
       </c>
       <c r="H48" s="3">
-        <v>184700</v>
+        <v>184900</v>
       </c>
       <c r="I48" s="3">
-        <v>176100</v>
+        <v>176300</v>
       </c>
       <c r="J48" s="3">
-        <v>187900</v>
+        <v>188100</v>
       </c>
       <c r="K48" s="3">
         <v>303500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1840800</v>
+        <v>1842800</v>
       </c>
       <c r="E49" s="3">
-        <v>1734400</v>
+        <v>1736200</v>
       </c>
       <c r="F49" s="3">
-        <v>1687400</v>
+        <v>1689200</v>
       </c>
       <c r="G49" s="3">
-        <v>1617000</v>
+        <v>1618700</v>
       </c>
       <c r="H49" s="3">
-        <v>1542400</v>
+        <v>1544100</v>
       </c>
       <c r="I49" s="3">
-        <v>1348800</v>
+        <v>1350200</v>
       </c>
       <c r="J49" s="3">
-        <v>1293200</v>
+        <v>1294500</v>
       </c>
       <c r="K49" s="3">
         <v>1580500</v>
@@ -2265,13 +2265,13 @@
         <v>15500</v>
       </c>
       <c r="H52" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="I52" s="3">
         <v>15100</v>
       </c>
       <c r="J52" s="3">
-        <v>152500</v>
+        <v>152600</v>
       </c>
       <c r="K52" s="3">
         <v>138300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>259823000</v>
+        <v>260098000</v>
       </c>
       <c r="E54" s="3">
-        <v>245090000</v>
+        <v>245349000</v>
       </c>
       <c r="F54" s="3">
-        <v>227481000</v>
+        <v>227722000</v>
       </c>
       <c r="G54" s="3">
-        <v>212166000</v>
+        <v>212391000</v>
       </c>
       <c r="H54" s="3">
-        <v>209006000</v>
+        <v>209227000</v>
       </c>
       <c r="I54" s="3">
-        <v>203486000</v>
+        <v>203701000</v>
       </c>
       <c r="J54" s="3">
-        <v>202981000</v>
+        <v>203196000</v>
       </c>
       <c r="K54" s="3">
         <v>234149000</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>628500</v>
+        <v>629200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31349300</v>
+        <v>31382500</v>
       </c>
       <c r="E58" s="3">
-        <v>25973500</v>
+        <v>26001000</v>
       </c>
       <c r="F58" s="3">
-        <v>29239000</v>
+        <v>29269900</v>
       </c>
       <c r="G58" s="3">
-        <v>19482800</v>
+        <v>19503500</v>
       </c>
       <c r="H58" s="3">
-        <v>24238300</v>
+        <v>24264000</v>
       </c>
       <c r="I58" s="3">
-        <v>25818200</v>
+        <v>25845500</v>
       </c>
       <c r="J58" s="3">
-        <v>20630100</v>
+        <v>20651900</v>
       </c>
       <c r="K58" s="3">
         <v>35703000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>518100</v>
+        <v>518700</v>
       </c>
       <c r="E59" s="3">
-        <v>421500</v>
+        <v>421900</v>
       </c>
       <c r="F59" s="3">
-        <v>493000</v>
+        <v>493500</v>
       </c>
       <c r="G59" s="3">
-        <v>488600</v>
+        <v>489200</v>
       </c>
       <c r="H59" s="3">
-        <v>470000</v>
+        <v>470500</v>
       </c>
       <c r="I59" s="3">
-        <v>1124900</v>
+        <v>1126100</v>
       </c>
       <c r="J59" s="3">
-        <v>1260900</v>
+        <v>1262200</v>
       </c>
       <c r="K59" s="3">
         <v>1605800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45276700</v>
+        <v>45324600</v>
       </c>
       <c r="E61" s="3">
-        <v>48370500</v>
+        <v>48421700</v>
       </c>
       <c r="F61" s="3">
-        <v>55980000</v>
+        <v>56039300</v>
       </c>
       <c r="G61" s="3">
-        <v>59786600</v>
+        <v>59849900</v>
       </c>
       <c r="H61" s="3">
-        <v>58737100</v>
+        <v>58799300</v>
       </c>
       <c r="I61" s="3">
-        <v>57290700</v>
+        <v>57351400</v>
       </c>
       <c r="J61" s="3">
-        <v>60110800</v>
+        <v>60174400</v>
       </c>
       <c r="K61" s="3">
         <v>60932900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>744800</v>
+        <v>745600</v>
       </c>
       <c r="E62" s="3">
-        <v>867400</v>
+        <v>868300</v>
       </c>
       <c r="F62" s="3">
-        <v>1221500</v>
+        <v>1222800</v>
       </c>
       <c r="G62" s="3">
-        <v>841800</v>
+        <v>842700</v>
       </c>
       <c r="H62" s="3">
-        <v>728300</v>
+        <v>729100</v>
       </c>
       <c r="I62" s="3">
-        <v>557100</v>
+        <v>557700</v>
       </c>
       <c r="J62" s="3">
-        <v>488500</v>
+        <v>489100</v>
       </c>
       <c r="K62" s="3">
         <v>832200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>244552000</v>
+        <v>244811000</v>
       </c>
       <c r="E66" s="3">
-        <v>230433000</v>
+        <v>230677000</v>
       </c>
       <c r="F66" s="3">
-        <v>214388000</v>
+        <v>214615000</v>
       </c>
       <c r="G66" s="3">
-        <v>199187000</v>
+        <v>199398000</v>
       </c>
       <c r="H66" s="3">
-        <v>196407000</v>
+        <v>196615000</v>
       </c>
       <c r="I66" s="3">
-        <v>191252000</v>
+        <v>191455000</v>
       </c>
       <c r="J66" s="3">
-        <v>191347000</v>
+        <v>191549000</v>
       </c>
       <c r="K66" s="3">
         <v>221212000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11084400</v>
+        <v>11096100</v>
       </c>
       <c r="E72" s="3">
-        <v>10903800</v>
+        <v>10915300</v>
       </c>
       <c r="F72" s="3">
-        <v>9268800</v>
+        <v>9278600</v>
       </c>
       <c r="G72" s="3">
-        <v>9185000</v>
+        <v>9194700</v>
       </c>
       <c r="H72" s="3">
-        <v>8868600</v>
+        <v>8878000</v>
       </c>
       <c r="I72" s="3">
-        <v>8161900</v>
+        <v>8170600</v>
       </c>
       <c r="J72" s="3">
-        <v>7635700</v>
+        <v>7643800</v>
       </c>
       <c r="K72" s="3">
         <v>8208500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15271300</v>
+        <v>15287500</v>
       </c>
       <c r="E76" s="3">
-        <v>14657200</v>
+        <v>14672700</v>
       </c>
       <c r="F76" s="3">
-        <v>13092900</v>
+        <v>13106800</v>
       </c>
       <c r="G76" s="3">
-        <v>12978400</v>
+        <v>12992200</v>
       </c>
       <c r="H76" s="3">
-        <v>12598300</v>
+        <v>12611700</v>
       </c>
       <c r="I76" s="3">
-        <v>12234000</v>
+        <v>12246900</v>
       </c>
       <c r="J76" s="3">
-        <v>11634000</v>
+        <v>11646300</v>
       </c>
       <c r="K76" s="3">
         <v>12936900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1971500</v>
+        <v>1973600</v>
       </c>
       <c r="E81" s="3">
-        <v>1221300</v>
+        <v>1222600</v>
       </c>
       <c r="F81" s="3">
-        <v>1860600</v>
+        <v>1862500</v>
       </c>
       <c r="G81" s="3">
-        <v>1999000</v>
+        <v>2001100</v>
       </c>
       <c r="H81" s="3">
-        <v>1827800</v>
+        <v>1829700</v>
       </c>
       <c r="I81" s="3">
-        <v>1845700</v>
+        <v>1847600</v>
       </c>
       <c r="J81" s="3">
-        <v>1485600</v>
+        <v>1487100</v>
       </c>
       <c r="K81" s="3">
         <v>1815400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="E83" s="3">
-        <v>149200</v>
+        <v>149400</v>
       </c>
       <c r="F83" s="3">
-        <v>154500</v>
+        <v>154700</v>
       </c>
       <c r="G83" s="3">
-        <v>93800</v>
+        <v>93900</v>
       </c>
       <c r="H83" s="3">
-        <v>73300</v>
+        <v>73400</v>
       </c>
       <c r="I83" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="J83" s="3">
-        <v>88400</v>
+        <v>88500</v>
       </c>
       <c r="K83" s="3">
         <v>84800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4667200</v>
+        <v>4672100</v>
       </c>
       <c r="E89" s="3">
-        <v>10318500</v>
+        <v>10329500</v>
       </c>
       <c r="F89" s="3">
-        <v>3586500</v>
+        <v>3590300</v>
       </c>
       <c r="G89" s="3">
-        <v>2563100</v>
+        <v>2565800</v>
       </c>
       <c r="H89" s="3">
-        <v>5365700</v>
+        <v>5371400</v>
       </c>
       <c r="I89" s="3">
-        <v>-5067300</v>
+        <v>-5072700</v>
       </c>
       <c r="J89" s="3">
-        <v>6700200</v>
+        <v>6707300</v>
       </c>
       <c r="K89" s="3">
         <v>985700</v>
@@ -3600,16 +3600,16 @@
         <v>-21200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1447200</v>
+        <v>-1448800</v>
       </c>
       <c r="H91" s="3">
-        <v>-47600</v>
+        <v>-47700</v>
       </c>
       <c r="I91" s="3">
         <v>-42600</v>
       </c>
       <c r="J91" s="3">
-        <v>-384900</v>
+        <v>-385300</v>
       </c>
       <c r="K91" s="3">
         <v>-122600</v>
@@ -3708,16 +3708,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>59300</v>
+        <v>59400</v>
       </c>
       <c r="E94" s="3">
-        <v>130600</v>
+        <v>130800</v>
       </c>
       <c r="F94" s="3">
-        <v>94000</v>
+        <v>94100</v>
       </c>
       <c r="G94" s="3">
-        <v>157800</v>
+        <v>158000</v>
       </c>
       <c r="H94" s="3">
         <v>70600</v>
@@ -3726,7 +3726,7 @@
         <v>28900</v>
       </c>
       <c r="J94" s="3">
-        <v>-214400</v>
+        <v>-214700</v>
       </c>
       <c r="K94" s="3">
         <v>-559700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1540600</v>
+        <v>-1542300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1499800</v>
+        <v>-1501400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1371300</v>
+        <v>-1372700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1388500</v>
+        <v>-1389900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1122700</v>
+        <v>-1123800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1184900</v>
+        <v>-1186200</v>
       </c>
       <c r="K96" s="3">
         <v>-1229400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1336700</v>
+        <v>1338100</v>
       </c>
       <c r="E100" s="3">
-        <v>-821600</v>
+        <v>-822500</v>
       </c>
       <c r="F100" s="3">
-        <v>-769600</v>
+        <v>-770400</v>
       </c>
       <c r="G100" s="3">
-        <v>-6505900</v>
+        <v>-6512800</v>
       </c>
       <c r="H100" s="3">
-        <v>1943000</v>
+        <v>1945100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1317600</v>
+        <v>-1319000</v>
       </c>
       <c r="J100" s="3">
-        <v>493800</v>
+        <v>494400</v>
       </c>
       <c r="K100" s="3">
         <v>5371200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>203500</v>
+        <v>203700</v>
       </c>
       <c r="E101" s="3">
-        <v>-320900</v>
+        <v>-321200</v>
       </c>
       <c r="F101" s="3">
-        <v>123600</v>
+        <v>123800</v>
       </c>
       <c r="G101" s="3">
-        <v>270200</v>
+        <v>270400</v>
       </c>
       <c r="H101" s="3">
-        <v>85300</v>
+        <v>85400</v>
       </c>
       <c r="I101" s="3">
-        <v>219400</v>
+        <v>219700</v>
       </c>
       <c r="J101" s="3">
-        <v>-127100</v>
+        <v>-127300</v>
       </c>
       <c r="K101" s="3">
         <v>206000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6266700</v>
+        <v>6273300</v>
       </c>
       <c r="E102" s="3">
-        <v>9306700</v>
+        <v>9316500</v>
       </c>
       <c r="F102" s="3">
-        <v>3034500</v>
+        <v>3037700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3514900</v>
+        <v>-3518600</v>
       </c>
       <c r="H102" s="3">
-        <v>7464600</v>
+        <v>7472500</v>
       </c>
       <c r="I102" s="3">
-        <v>-6136600</v>
+        <v>-6143100</v>
       </c>
       <c r="J102" s="3">
-        <v>6852500</v>
+        <v>6859800</v>
       </c>
       <c r="K102" s="3">
         <v>6003100</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SWDBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2871200</v>
+        <v>4221300</v>
       </c>
       <c r="E8" s="3">
-        <v>3195300</v>
+        <v>2829600</v>
       </c>
       <c r="F8" s="3">
-        <v>3344600</v>
+        <v>3149000</v>
       </c>
       <c r="G8" s="3">
-        <v>3220500</v>
+        <v>3296100</v>
       </c>
       <c r="H8" s="3">
-        <v>3043700</v>
+        <v>3173900</v>
       </c>
       <c r="I8" s="3">
-        <v>2966400</v>
+        <v>2999600</v>
       </c>
       <c r="J8" s="3">
+        <v>2923500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3308000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4531300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5177700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5248800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6082100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-154200</v>
+        <v>-158000</v>
       </c>
       <c r="E15" s="3">
-        <v>-149400</v>
+        <v>-152000</v>
       </c>
       <c r="F15" s="3">
-        <v>-146700</v>
+        <v>-147200</v>
       </c>
       <c r="G15" s="3">
-        <v>-64900</v>
+        <v>-144500</v>
       </c>
       <c r="H15" s="3">
-        <v>-82800</v>
+        <v>-63900</v>
       </c>
       <c r="I15" s="3">
-        <v>-59500</v>
+        <v>-81600</v>
       </c>
       <c r="J15" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-63500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-79300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-87000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-207900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-114800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>404400</v>
+        <v>1269200</v>
       </c>
       <c r="E17" s="3">
-        <v>1065900</v>
+        <v>324900</v>
       </c>
       <c r="F17" s="3">
-        <v>1026000</v>
+        <v>1050400</v>
       </c>
       <c r="G17" s="3">
-        <v>884200</v>
+        <v>1011100</v>
       </c>
       <c r="H17" s="3">
-        <v>839500</v>
+        <v>871400</v>
       </c>
       <c r="I17" s="3">
-        <v>935000</v>
+        <v>827300</v>
       </c>
       <c r="J17" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1189900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2078300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2590600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3113400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3706700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2466800</v>
+        <v>2952100</v>
       </c>
       <c r="E18" s="3">
-        <v>2129400</v>
+        <v>2504800</v>
       </c>
       <c r="F18" s="3">
-        <v>2318600</v>
+        <v>2098500</v>
       </c>
       <c r="G18" s="3">
-        <v>2336300</v>
+        <v>2285000</v>
       </c>
       <c r="H18" s="3">
-        <v>2204200</v>
+        <v>2302400</v>
       </c>
       <c r="I18" s="3">
-        <v>2031400</v>
+        <v>2172300</v>
       </c>
       <c r="J18" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2118000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2453000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2587100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2135300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2375400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25500</v>
+        <v>-402600</v>
       </c>
       <c r="E20" s="3">
-        <v>-542700</v>
+        <v>-98900</v>
       </c>
       <c r="F20" s="3">
-        <v>-9500</v>
+        <v>-534800</v>
       </c>
       <c r="G20" s="3">
-        <v>174500</v>
+        <v>-9300</v>
       </c>
       <c r="H20" s="3">
-        <v>94300</v>
+        <v>171900</v>
       </c>
       <c r="I20" s="3">
-        <v>215400</v>
+        <v>92900</v>
       </c>
       <c r="J20" s="3">
+        <v>212300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-191800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-132100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-307800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-112200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-624600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2596300</v>
+        <v>2812400</v>
       </c>
       <c r="E21" s="3">
-        <v>1731900</v>
+        <v>2563100</v>
       </c>
       <c r="F21" s="3">
-        <v>2459500</v>
+        <v>1711000</v>
       </c>
       <c r="G21" s="3">
-        <v>2602000</v>
+        <v>2428200</v>
       </c>
       <c r="H21" s="3">
-        <v>2369800</v>
+        <v>2566900</v>
       </c>
       <c r="I21" s="3">
-        <v>2307900</v>
+        <v>2337500</v>
       </c>
       <c r="J21" s="3">
+        <v>2276200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2012300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2404900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2420200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>2103400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2441300</v>
+        <v>2549500</v>
       </c>
       <c r="E23" s="3">
-        <v>1586700</v>
+        <v>2405900</v>
       </c>
       <c r="F23" s="3">
-        <v>2309200</v>
+        <v>1563700</v>
       </c>
       <c r="G23" s="3">
-        <v>2510800</v>
+        <v>2275700</v>
       </c>
       <c r="H23" s="3">
-        <v>2298500</v>
+        <v>2474400</v>
       </c>
       <c r="I23" s="3">
-        <v>2246800</v>
+        <v>2265200</v>
       </c>
       <c r="J23" s="3">
+        <v>2214300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1926300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2320800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2279200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2023100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1750800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>467600</v>
+        <v>510500</v>
       </c>
       <c r="E24" s="3">
-        <v>364200</v>
+        <v>460800</v>
       </c>
       <c r="F24" s="3">
-        <v>445500</v>
+        <v>358900</v>
       </c>
       <c r="G24" s="3">
-        <v>508200</v>
+        <v>439000</v>
       </c>
       <c r="H24" s="3">
-        <v>467400</v>
+        <v>500800</v>
       </c>
       <c r="I24" s="3">
-        <v>398000</v>
+        <v>460600</v>
       </c>
       <c r="J24" s="3">
+        <v>392200</v>
+      </c>
+      <c r="K24" s="3">
         <v>437300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>474700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>482700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>432000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>416500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1973700</v>
+        <v>2039000</v>
       </c>
       <c r="E26" s="3">
-        <v>1222600</v>
+        <v>1945100</v>
       </c>
       <c r="F26" s="3">
-        <v>1863700</v>
+        <v>1204900</v>
       </c>
       <c r="G26" s="3">
-        <v>2002600</v>
+        <v>1836700</v>
       </c>
       <c r="H26" s="3">
-        <v>1831100</v>
+        <v>1973600</v>
       </c>
       <c r="I26" s="3">
-        <v>1848800</v>
+        <v>1804500</v>
       </c>
       <c r="J26" s="3">
+        <v>1822100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1488900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1846100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1796500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1591100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1334300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1973600</v>
+        <v>2038700</v>
       </c>
       <c r="E27" s="3">
-        <v>1222600</v>
+        <v>1945000</v>
       </c>
       <c r="F27" s="3">
-        <v>1862500</v>
+        <v>1204900</v>
       </c>
       <c r="G27" s="3">
-        <v>2001100</v>
+        <v>1835600</v>
       </c>
       <c r="H27" s="3">
-        <v>1829700</v>
+        <v>1972100</v>
       </c>
       <c r="I27" s="3">
-        <v>1847600</v>
+        <v>1803200</v>
       </c>
       <c r="J27" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1487700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1844300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1592000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1485600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1219900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,27 +1547,30 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-28900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-275600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-104300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25500</v>
+        <v>402600</v>
       </c>
       <c r="E32" s="3">
-        <v>542700</v>
+        <v>98900</v>
       </c>
       <c r="F32" s="3">
-        <v>9500</v>
+        <v>534800</v>
       </c>
       <c r="G32" s="3">
-        <v>-174500</v>
+        <v>9300</v>
       </c>
       <c r="H32" s="3">
-        <v>-94300</v>
+        <v>-171900</v>
       </c>
       <c r="I32" s="3">
-        <v>-215400</v>
+        <v>-92900</v>
       </c>
       <c r="J32" s="3">
+        <v>-212300</v>
+      </c>
+      <c r="K32" s="3">
         <v>191800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>132100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>307800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>112200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>624600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1973600</v>
+        <v>2038700</v>
       </c>
       <c r="E33" s="3">
-        <v>1222600</v>
+        <v>1945000</v>
       </c>
       <c r="F33" s="3">
-        <v>1862500</v>
+        <v>1204900</v>
       </c>
       <c r="G33" s="3">
-        <v>2001100</v>
+        <v>1835600</v>
       </c>
       <c r="H33" s="3">
-        <v>1829700</v>
+        <v>1972100</v>
       </c>
       <c r="I33" s="3">
-        <v>1847600</v>
+        <v>1803200</v>
       </c>
       <c r="J33" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1487100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1815400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1316400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1381200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1220200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1973600</v>
+        <v>2038700</v>
       </c>
       <c r="E35" s="3">
-        <v>1222600</v>
+        <v>1945000</v>
       </c>
       <c r="F35" s="3">
-        <v>1862500</v>
+        <v>1204900</v>
       </c>
       <c r="G35" s="3">
-        <v>2001100</v>
+        <v>1835600</v>
       </c>
       <c r="H35" s="3">
-        <v>1829700</v>
+        <v>1972100</v>
       </c>
       <c r="I35" s="3">
-        <v>1847600</v>
+        <v>1803200</v>
       </c>
       <c r="J35" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1487100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1815400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1316400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1381200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1220200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37305300</v>
+        <v>39378900</v>
       </c>
       <c r="E41" s="3">
-        <v>30950500</v>
+        <v>37115200</v>
       </c>
       <c r="F41" s="3">
-        <v>22329900</v>
+        <v>30502100</v>
       </c>
       <c r="G41" s="3">
-        <v>18486800</v>
+        <v>22006400</v>
       </c>
       <c r="H41" s="3">
-        <v>21494000</v>
+        <v>18218900</v>
       </c>
       <c r="I41" s="3">
-        <v>14438600</v>
+        <v>21182600</v>
       </c>
       <c r="J41" s="3">
+        <v>14229400</v>
+      </c>
+      <c r="K41" s="3">
         <v>25624900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23192900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25462100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29623700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159111000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54165200</v>
+        <v>47506800</v>
       </c>
       <c r="E42" s="3">
-        <v>48612300</v>
+        <v>53030100</v>
       </c>
       <c r="F42" s="3">
-        <v>43702300</v>
+        <v>47908000</v>
       </c>
       <c r="G42" s="3">
-        <v>34495500</v>
+        <v>43069200</v>
       </c>
       <c r="H42" s="3">
-        <v>35083000</v>
+        <v>33995700</v>
       </c>
       <c r="I42" s="3">
-        <v>47409400</v>
+        <v>34574700</v>
       </c>
       <c r="J42" s="3">
+        <v>46722500</v>
+      </c>
+      <c r="K42" s="3">
         <v>42477400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58188700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50791900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42847600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>728600</v>
+        <v>729700</v>
       </c>
       <c r="E47" s="3">
-        <v>689100</v>
+        <v>718000</v>
       </c>
       <c r="F47" s="3">
-        <v>631600</v>
+        <v>679100</v>
       </c>
       <c r="G47" s="3">
-        <v>575700</v>
+        <v>622400</v>
       </c>
       <c r="H47" s="3">
-        <v>601100</v>
+        <v>567300</v>
       </c>
       <c r="I47" s="3">
-        <v>692100</v>
+        <v>592400</v>
       </c>
       <c r="J47" s="3">
+        <v>682100</v>
+      </c>
+      <c r="K47" s="3">
         <v>508900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>543500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>428600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>369200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>353200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>522300</v>
+        <v>507800</v>
       </c>
       <c r="E48" s="3">
-        <v>512600</v>
+        <v>514700</v>
       </c>
       <c r="F48" s="3">
-        <v>526900</v>
+        <v>505200</v>
       </c>
       <c r="G48" s="3">
-        <v>185900</v>
+        <v>519300</v>
       </c>
       <c r="H48" s="3">
-        <v>184900</v>
+        <v>183200</v>
       </c>
       <c r="I48" s="3">
-        <v>176300</v>
+        <v>182200</v>
       </c>
       <c r="J48" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K48" s="3">
         <v>188100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>303500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1461500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>941400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1842800</v>
+        <v>1853200</v>
       </c>
       <c r="E49" s="3">
-        <v>1736200</v>
+        <v>1816100</v>
       </c>
       <c r="F49" s="3">
-        <v>1689200</v>
+        <v>1711100</v>
       </c>
       <c r="G49" s="3">
-        <v>1618700</v>
+        <v>1664700</v>
       </c>
       <c r="H49" s="3">
-        <v>1544100</v>
+        <v>1595200</v>
       </c>
       <c r="I49" s="3">
-        <v>1350200</v>
+        <v>1521700</v>
       </c>
       <c r="J49" s="3">
+        <v>1330700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1294500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1580500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1831900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4190500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1566500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>241400</v>
       </c>
       <c r="E52" s="3">
-        <v>11700</v>
+        <v>10500</v>
       </c>
       <c r="F52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I52" s="3">
         <v>16100</v>
       </c>
-      <c r="G52" s="3">
-        <v>15500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>15100</v>
-      </c>
       <c r="J52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K52" s="3">
         <v>152600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>138300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>268400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260098000</v>
+        <v>266046000</v>
       </c>
       <c r="E54" s="3">
-        <v>245349000</v>
+        <v>256330000</v>
       </c>
       <c r="F54" s="3">
-        <v>227722000</v>
+        <v>241795000</v>
       </c>
       <c r="G54" s="3">
-        <v>212391000</v>
+        <v>224423000</v>
       </c>
       <c r="H54" s="3">
-        <v>209227000</v>
+        <v>209313000</v>
       </c>
       <c r="I54" s="3">
-        <v>203701000</v>
+        <v>206196000</v>
       </c>
       <c r="J54" s="3">
+        <v>200750000</v>
+      </c>
+      <c r="K54" s="3">
         <v>203196000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234149000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214806000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>191944000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>210814000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2412,14 +2542,14 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>629200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>620100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2427,96 +2557,105 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1262200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1365400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31382500</v>
+        <v>42129900</v>
       </c>
       <c r="E58" s="3">
-        <v>26001000</v>
+        <v>31968500</v>
       </c>
       <c r="F58" s="3">
-        <v>29269900</v>
+        <v>25624300</v>
       </c>
       <c r="G58" s="3">
-        <v>19503500</v>
+        <v>28845800</v>
       </c>
       <c r="H58" s="3">
-        <v>24264000</v>
+        <v>19220900</v>
       </c>
       <c r="I58" s="3">
-        <v>25845500</v>
+        <v>23912500</v>
       </c>
       <c r="J58" s="3">
+        <v>25471100</v>
+      </c>
+      <c r="K58" s="3">
         <v>20651900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35703000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27442100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>518700</v>
+        <v>603400</v>
       </c>
       <c r="E59" s="3">
-        <v>421900</v>
+        <v>511100</v>
       </c>
       <c r="F59" s="3">
-        <v>493500</v>
+        <v>415800</v>
       </c>
       <c r="G59" s="3">
-        <v>489200</v>
+        <v>486400</v>
       </c>
       <c r="H59" s="3">
-        <v>470500</v>
+        <v>482100</v>
       </c>
       <c r="I59" s="3">
-        <v>1126100</v>
+        <v>463700</v>
       </c>
       <c r="J59" s="3">
+        <v>1109800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1262200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1605800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1894400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1887400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2166400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45324600</v>
+        <v>39884900</v>
       </c>
       <c r="E61" s="3">
-        <v>48421700</v>
+        <v>43627300</v>
       </c>
       <c r="F61" s="3">
-        <v>56039300</v>
+        <v>47720200</v>
       </c>
       <c r="G61" s="3">
-        <v>59849900</v>
+        <v>55227400</v>
       </c>
       <c r="H61" s="3">
-        <v>58799300</v>
+        <v>58982700</v>
       </c>
       <c r="I61" s="3">
-        <v>57351400</v>
+        <v>57947400</v>
       </c>
       <c r="J61" s="3">
+        <v>56520500</v>
+      </c>
+      <c r="K61" s="3">
         <v>60174400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>60932900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>62820700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81248400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>104674000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>745600</v>
+        <v>613900</v>
       </c>
       <c r="E62" s="3">
-        <v>868300</v>
+        <v>734800</v>
       </c>
       <c r="F62" s="3">
-        <v>1222800</v>
+        <v>855800</v>
       </c>
       <c r="G62" s="3">
-        <v>842700</v>
+        <v>1205000</v>
       </c>
       <c r="H62" s="3">
-        <v>729100</v>
+        <v>830500</v>
       </c>
       <c r="I62" s="3">
-        <v>557700</v>
+        <v>718500</v>
       </c>
       <c r="J62" s="3">
+        <v>549600</v>
+      </c>
+      <c r="K62" s="3">
         <v>489100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>832200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1387100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1009600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>751800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>244811000</v>
+        <v>249639000</v>
       </c>
       <c r="E66" s="3">
-        <v>230677000</v>
+        <v>241264000</v>
       </c>
       <c r="F66" s="3">
-        <v>214615000</v>
+        <v>227335000</v>
       </c>
       <c r="G66" s="3">
-        <v>199398000</v>
+        <v>211506000</v>
       </c>
       <c r="H66" s="3">
-        <v>196615000</v>
+        <v>196509000</v>
       </c>
       <c r="I66" s="3">
-        <v>191455000</v>
+        <v>193767000</v>
       </c>
       <c r="J66" s="3">
+        <v>188681000</v>
+      </c>
+      <c r="K66" s="3">
         <v>191549000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221212000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>201907000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181236000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>199690000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11096100</v>
+        <v>12102800</v>
       </c>
       <c r="E72" s="3">
-        <v>10915300</v>
+        <v>10935400</v>
       </c>
       <c r="F72" s="3">
-        <v>9278600</v>
+        <v>10757200</v>
       </c>
       <c r="G72" s="3">
-        <v>9194700</v>
+        <v>9144200</v>
       </c>
       <c r="H72" s="3">
-        <v>8878000</v>
+        <v>9061500</v>
       </c>
       <c r="I72" s="3">
-        <v>8170600</v>
+        <v>8749300</v>
       </c>
       <c r="J72" s="3">
+        <v>8052200</v>
+      </c>
+      <c r="K72" s="3">
         <v>7643800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8208500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8012400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6624700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6630500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15287500</v>
+        <v>16407300</v>
       </c>
       <c r="E76" s="3">
-        <v>14672700</v>
+        <v>15066000</v>
       </c>
       <c r="F76" s="3">
-        <v>13106800</v>
+        <v>14460100</v>
       </c>
       <c r="G76" s="3">
-        <v>12992200</v>
+        <v>12916900</v>
       </c>
       <c r="H76" s="3">
-        <v>12611700</v>
+        <v>12803900</v>
       </c>
       <c r="I76" s="3">
-        <v>12246900</v>
+        <v>12428900</v>
       </c>
       <c r="J76" s="3">
+        <v>12069500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11646300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12936900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12899400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10708100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11124200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1973600</v>
+        <v>2038700</v>
       </c>
       <c r="E81" s="3">
-        <v>1222600</v>
+        <v>1945000</v>
       </c>
       <c r="F81" s="3">
-        <v>1862500</v>
+        <v>1204900</v>
       </c>
       <c r="G81" s="3">
-        <v>2001100</v>
+        <v>1835600</v>
       </c>
       <c r="H81" s="3">
-        <v>1829700</v>
+        <v>1972100</v>
       </c>
       <c r="I81" s="3">
-        <v>1847600</v>
+        <v>1803200</v>
       </c>
       <c r="J81" s="3">
+        <v>1820800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1487100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1815400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1316400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1381200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1220200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159500</v>
+        <v>262800</v>
       </c>
       <c r="E83" s="3">
-        <v>149400</v>
+        <v>157200</v>
       </c>
       <c r="F83" s="3">
-        <v>154700</v>
+        <v>147200</v>
       </c>
       <c r="G83" s="3">
-        <v>93900</v>
+        <v>152500</v>
       </c>
       <c r="H83" s="3">
-        <v>73400</v>
+        <v>92500</v>
       </c>
       <c r="I83" s="3">
-        <v>62800</v>
+        <v>72300</v>
       </c>
       <c r="J83" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K83" s="3">
         <v>88500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>141400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>352100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4672100</v>
+        <v>-1735200</v>
       </c>
       <c r="E89" s="3">
-        <v>10329500</v>
+        <v>4604400</v>
       </c>
       <c r="F89" s="3">
-        <v>3590300</v>
+        <v>10179800</v>
       </c>
       <c r="G89" s="3">
-        <v>2565800</v>
+        <v>3538200</v>
       </c>
       <c r="H89" s="3">
-        <v>5371400</v>
+        <v>2528600</v>
       </c>
       <c r="I89" s="3">
-        <v>-5072700</v>
+        <v>5293600</v>
       </c>
       <c r="J89" s="3">
+        <v>-4999200</v>
+      </c>
+      <c r="K89" s="3">
         <v>6707300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>985700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3103100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-839900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9148000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23900</v>
+        <v>-33800</v>
       </c>
       <c r="E91" s="3">
-        <v>-34400</v>
+        <v>-23600</v>
       </c>
       <c r="F91" s="3">
-        <v>-21200</v>
+        <v>-33900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1448800</v>
+        <v>-20900</v>
       </c>
       <c r="H91" s="3">
-        <v>-47700</v>
+        <v>-1427800</v>
       </c>
       <c r="I91" s="3">
-        <v>-42600</v>
+        <v>-47000</v>
       </c>
       <c r="J91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-385300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-191400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-499000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>59400</v>
+        <v>64400</v>
       </c>
       <c r="E94" s="3">
-        <v>130800</v>
+        <v>58500</v>
       </c>
       <c r="F94" s="3">
-        <v>94100</v>
+        <v>128900</v>
       </c>
       <c r="G94" s="3">
-        <v>158000</v>
+        <v>92700</v>
       </c>
       <c r="H94" s="3">
-        <v>70600</v>
+        <v>155700</v>
       </c>
       <c r="I94" s="3">
-        <v>28900</v>
+        <v>69600</v>
       </c>
       <c r="J94" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-214700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-559700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>182400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>11600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1542300</v>
+        <v>-1177200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1519900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1501400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1372700</v>
+        <v>-1479700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1389900</v>
+        <v>-1352800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1123800</v>
+        <v>-1369800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1107600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1186200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1229400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1281800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-606000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-341700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1338100</v>
+        <v>933300</v>
       </c>
       <c r="E100" s="3">
-        <v>-822500</v>
+        <v>1318700</v>
       </c>
       <c r="F100" s="3">
-        <v>-770400</v>
+        <v>-810600</v>
       </c>
       <c r="G100" s="3">
-        <v>-6512800</v>
+        <v>-759200</v>
       </c>
       <c r="H100" s="3">
-        <v>1945100</v>
+        <v>-6418500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1319000</v>
+        <v>1916900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1299900</v>
+      </c>
+      <c r="K100" s="3">
         <v>494400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5371200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5497200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>7557400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>203700</v>
+        <v>1281600</v>
       </c>
       <c r="E101" s="3">
-        <v>-321200</v>
+        <v>200700</v>
       </c>
       <c r="F101" s="3">
-        <v>123800</v>
+        <v>-316600</v>
       </c>
       <c r="G101" s="3">
-        <v>270400</v>
+        <v>122000</v>
       </c>
       <c r="H101" s="3">
-        <v>85400</v>
+        <v>266500</v>
       </c>
       <c r="I101" s="3">
-        <v>219700</v>
+        <v>84200</v>
       </c>
       <c r="J101" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-127300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>206000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>95000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6273300</v>
+        <v>544100</v>
       </c>
       <c r="E102" s="3">
-        <v>9316500</v>
+        <v>6182400</v>
       </c>
       <c r="F102" s="3">
-        <v>3037700</v>
+        <v>9181500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3518600</v>
+        <v>2993700</v>
       </c>
       <c r="H102" s="3">
-        <v>7472500</v>
+        <v>-3467600</v>
       </c>
       <c r="I102" s="3">
-        <v>-6143100</v>
+        <v>7364200</v>
       </c>
       <c r="J102" s="3">
+        <v>-6054100</v>
+      </c>
+      <c r="K102" s="3">
         <v>6859800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6003100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8322800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3559500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16709900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4221300</v>
+        <v>4293000</v>
       </c>
       <c r="E8" s="3">
-        <v>2829600</v>
+        <v>2877900</v>
       </c>
       <c r="F8" s="3">
-        <v>3149000</v>
+        <v>3202700</v>
       </c>
       <c r="G8" s="3">
-        <v>3296100</v>
+        <v>3352400</v>
       </c>
       <c r="H8" s="3">
-        <v>3173900</v>
+        <v>3228000</v>
       </c>
       <c r="I8" s="3">
-        <v>2999600</v>
+        <v>3050800</v>
       </c>
       <c r="J8" s="3">
-        <v>2923500</v>
+        <v>2973300</v>
       </c>
       <c r="K8" s="3">
         <v>3308000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-158000</v>
+        <v>-282400</v>
       </c>
       <c r="E15" s="3">
-        <v>-152000</v>
+        <v>-154600</v>
       </c>
       <c r="F15" s="3">
-        <v>-147200</v>
+        <v>-149800</v>
       </c>
       <c r="G15" s="3">
-        <v>-144500</v>
+        <v>-147000</v>
       </c>
       <c r="H15" s="3">
-        <v>-63900</v>
+        <v>-65000</v>
       </c>
       <c r="I15" s="3">
-        <v>-81600</v>
+        <v>-83000</v>
       </c>
       <c r="J15" s="3">
-        <v>-58600</v>
+        <v>-59600</v>
       </c>
       <c r="K15" s="3">
         <v>-63500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1269200</v>
+        <v>1290900</v>
       </c>
       <c r="E17" s="3">
-        <v>324900</v>
+        <v>330400</v>
       </c>
       <c r="F17" s="3">
-        <v>1050400</v>
+        <v>1068400</v>
       </c>
       <c r="G17" s="3">
-        <v>1011100</v>
+        <v>1028400</v>
       </c>
       <c r="H17" s="3">
-        <v>871400</v>
+        <v>886300</v>
       </c>
       <c r="I17" s="3">
-        <v>827300</v>
+        <v>841500</v>
       </c>
       <c r="J17" s="3">
-        <v>921500</v>
+        <v>937200</v>
       </c>
       <c r="K17" s="3">
         <v>1189900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2952100</v>
+        <v>3002100</v>
       </c>
       <c r="E18" s="3">
-        <v>2504800</v>
+        <v>2547500</v>
       </c>
       <c r="F18" s="3">
-        <v>2098500</v>
+        <v>2134400</v>
       </c>
       <c r="G18" s="3">
-        <v>2285000</v>
+        <v>2324000</v>
       </c>
       <c r="H18" s="3">
-        <v>2302400</v>
+        <v>2341700</v>
       </c>
       <c r="I18" s="3">
-        <v>2172300</v>
+        <v>2209300</v>
       </c>
       <c r="J18" s="3">
-        <v>2002000</v>
+        <v>2036200</v>
       </c>
       <c r="K18" s="3">
         <v>2118000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-402600</v>
+        <v>-411700</v>
       </c>
       <c r="E20" s="3">
-        <v>-98900</v>
+        <v>-100600</v>
       </c>
       <c r="F20" s="3">
-        <v>-534800</v>
+        <v>-543900</v>
       </c>
       <c r="G20" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="H20" s="3">
-        <v>171900</v>
+        <v>174900</v>
       </c>
       <c r="I20" s="3">
-        <v>92900</v>
+        <v>94500</v>
       </c>
       <c r="J20" s="3">
-        <v>212300</v>
+        <v>215900</v>
       </c>
       <c r="K20" s="3">
         <v>-191800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2812400</v>
+        <v>2860300</v>
       </c>
       <c r="E21" s="3">
-        <v>2563100</v>
+        <v>2608400</v>
       </c>
       <c r="F21" s="3">
-        <v>1711000</v>
+        <v>1741700</v>
       </c>
       <c r="G21" s="3">
-        <v>2428200</v>
+        <v>2471100</v>
       </c>
       <c r="H21" s="3">
-        <v>2566900</v>
+        <v>2611700</v>
       </c>
       <c r="I21" s="3">
-        <v>2337500</v>
+        <v>2378100</v>
       </c>
       <c r="J21" s="3">
-        <v>2276200</v>
+        <v>2315600</v>
       </c>
       <c r="K21" s="3">
         <v>2012300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2549500</v>
+        <v>2590300</v>
       </c>
       <c r="E23" s="3">
-        <v>2405900</v>
+        <v>2446900</v>
       </c>
       <c r="F23" s="3">
-        <v>1563700</v>
+        <v>1590400</v>
       </c>
       <c r="G23" s="3">
-        <v>2275700</v>
+        <v>2314500</v>
       </c>
       <c r="H23" s="3">
-        <v>2474400</v>
+        <v>2516600</v>
       </c>
       <c r="I23" s="3">
-        <v>2265200</v>
+        <v>2303800</v>
       </c>
       <c r="J23" s="3">
-        <v>2214300</v>
+        <v>2252100</v>
       </c>
       <c r="K23" s="3">
         <v>1926300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>510500</v>
+        <v>518800</v>
       </c>
       <c r="E24" s="3">
-        <v>460800</v>
+        <v>468700</v>
       </c>
       <c r="F24" s="3">
-        <v>358900</v>
+        <v>365000</v>
       </c>
       <c r="G24" s="3">
-        <v>439000</v>
+        <v>446500</v>
       </c>
       <c r="H24" s="3">
-        <v>500800</v>
+        <v>509300</v>
       </c>
       <c r="I24" s="3">
-        <v>460600</v>
+        <v>468500</v>
       </c>
       <c r="J24" s="3">
-        <v>392200</v>
+        <v>398900</v>
       </c>
       <c r="K24" s="3">
         <v>437300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2039000</v>
+        <v>2071500</v>
       </c>
       <c r="E26" s="3">
-        <v>1945100</v>
+        <v>1978200</v>
       </c>
       <c r="F26" s="3">
-        <v>1204900</v>
+        <v>1225400</v>
       </c>
       <c r="G26" s="3">
-        <v>1836700</v>
+        <v>1868000</v>
       </c>
       <c r="H26" s="3">
-        <v>1973600</v>
+        <v>2007300</v>
       </c>
       <c r="I26" s="3">
-        <v>1804500</v>
+        <v>1835300</v>
       </c>
       <c r="J26" s="3">
-        <v>1822100</v>
+        <v>1853100</v>
       </c>
       <c r="K26" s="3">
         <v>1488900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2038700</v>
+        <v>2071200</v>
       </c>
       <c r="E27" s="3">
-        <v>1945000</v>
+        <v>1978200</v>
       </c>
       <c r="F27" s="3">
-        <v>1204900</v>
+        <v>1225400</v>
       </c>
       <c r="G27" s="3">
-        <v>1835600</v>
+        <v>1866900</v>
       </c>
       <c r="H27" s="3">
-        <v>1972100</v>
+        <v>2005700</v>
       </c>
       <c r="I27" s="3">
-        <v>1803200</v>
+        <v>1834000</v>
       </c>
       <c r="J27" s="3">
-        <v>1820800</v>
+        <v>1851900</v>
       </c>
       <c r="K27" s="3">
         <v>1487700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>402600</v>
+        <v>411700</v>
       </c>
       <c r="E32" s="3">
-        <v>98900</v>
+        <v>100600</v>
       </c>
       <c r="F32" s="3">
-        <v>534800</v>
+        <v>543900</v>
       </c>
       <c r="G32" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H32" s="3">
-        <v>-171900</v>
+        <v>-174900</v>
       </c>
       <c r="I32" s="3">
-        <v>-92900</v>
+        <v>-94500</v>
       </c>
       <c r="J32" s="3">
-        <v>-212300</v>
+        <v>-215900</v>
       </c>
       <c r="K32" s="3">
         <v>191800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2038700</v>
+        <v>2071200</v>
       </c>
       <c r="E33" s="3">
-        <v>1945000</v>
+        <v>1978200</v>
       </c>
       <c r="F33" s="3">
-        <v>1204900</v>
+        <v>1225400</v>
       </c>
       <c r="G33" s="3">
-        <v>1835600</v>
+        <v>1866900</v>
       </c>
       <c r="H33" s="3">
-        <v>1972100</v>
+        <v>2005700</v>
       </c>
       <c r="I33" s="3">
-        <v>1803200</v>
+        <v>1834000</v>
       </c>
       <c r="J33" s="3">
-        <v>1820800</v>
+        <v>1851900</v>
       </c>
       <c r="K33" s="3">
         <v>1487100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2038700</v>
+        <v>2071200</v>
       </c>
       <c r="E35" s="3">
-        <v>1945000</v>
+        <v>1978200</v>
       </c>
       <c r="F35" s="3">
-        <v>1204900</v>
+        <v>1225400</v>
       </c>
       <c r="G35" s="3">
-        <v>1835600</v>
+        <v>1866900</v>
       </c>
       <c r="H35" s="3">
-        <v>1972100</v>
+        <v>2005700</v>
       </c>
       <c r="I35" s="3">
-        <v>1803200</v>
+        <v>1834000</v>
       </c>
       <c r="J35" s="3">
-        <v>1820800</v>
+        <v>1851900</v>
       </c>
       <c r="K35" s="3">
         <v>1487100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39378900</v>
+        <v>40052200</v>
       </c>
       <c r="E41" s="3">
-        <v>37115200</v>
+        <v>37748400</v>
       </c>
       <c r="F41" s="3">
-        <v>30502100</v>
+        <v>31022500</v>
       </c>
       <c r="G41" s="3">
-        <v>22006400</v>
+        <v>22381800</v>
       </c>
       <c r="H41" s="3">
-        <v>18218900</v>
+        <v>18529800</v>
       </c>
       <c r="I41" s="3">
-        <v>21182600</v>
+        <v>21544000</v>
       </c>
       <c r="J41" s="3">
-        <v>14229400</v>
+        <v>14472100</v>
       </c>
       <c r="K41" s="3">
         <v>25624900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47506800</v>
+        <v>46224200</v>
       </c>
       <c r="E42" s="3">
-        <v>53030100</v>
+        <v>53934900</v>
       </c>
       <c r="F42" s="3">
-        <v>47908000</v>
+        <v>48725400</v>
       </c>
       <c r="G42" s="3">
-        <v>43069200</v>
+        <v>43804000</v>
       </c>
       <c r="H42" s="3">
-        <v>33995700</v>
+        <v>34575700</v>
       </c>
       <c r="I42" s="3">
-        <v>34574700</v>
+        <v>35164600</v>
       </c>
       <c r="J42" s="3">
-        <v>46722500</v>
+        <v>47519700</v>
       </c>
       <c r="K42" s="3">
         <v>42477400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>729700</v>
+        <v>742100</v>
       </c>
       <c r="E47" s="3">
-        <v>718000</v>
+        <v>730300</v>
       </c>
       <c r="F47" s="3">
-        <v>679100</v>
+        <v>690700</v>
       </c>
       <c r="G47" s="3">
-        <v>622400</v>
+        <v>633000</v>
       </c>
       <c r="H47" s="3">
-        <v>567300</v>
+        <v>577000</v>
       </c>
       <c r="I47" s="3">
-        <v>592400</v>
+        <v>602500</v>
       </c>
       <c r="J47" s="3">
-        <v>682100</v>
+        <v>693700</v>
       </c>
       <c r="K47" s="3">
         <v>508900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>507800</v>
+        <v>1032900</v>
       </c>
       <c r="E48" s="3">
-        <v>514700</v>
+        <v>523500</v>
       </c>
       <c r="F48" s="3">
-        <v>505200</v>
+        <v>513800</v>
       </c>
       <c r="G48" s="3">
-        <v>519300</v>
+        <v>528100</v>
       </c>
       <c r="H48" s="3">
-        <v>183200</v>
+        <v>186300</v>
       </c>
       <c r="I48" s="3">
-        <v>182200</v>
+        <v>185300</v>
       </c>
       <c r="J48" s="3">
-        <v>173700</v>
+        <v>176700</v>
       </c>
       <c r="K48" s="3">
         <v>188100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1853200</v>
+        <v>3626400</v>
       </c>
       <c r="E49" s="3">
-        <v>1816100</v>
+        <v>1847100</v>
       </c>
       <c r="F49" s="3">
-        <v>1711100</v>
+        <v>1740300</v>
       </c>
       <c r="G49" s="3">
-        <v>1664700</v>
+        <v>1693100</v>
       </c>
       <c r="H49" s="3">
-        <v>1595200</v>
+        <v>1622400</v>
       </c>
       <c r="I49" s="3">
-        <v>1521700</v>
+        <v>1547700</v>
       </c>
       <c r="J49" s="3">
-        <v>1330700</v>
+        <v>1353400</v>
       </c>
       <c r="K49" s="3">
         <v>1294500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>241400</v>
+        <v>245500</v>
       </c>
       <c r="E52" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F52" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="G52" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H52" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="I52" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="K52" s="3">
         <v>152600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266046000</v>
+        <v>270563000</v>
       </c>
       <c r="E54" s="3">
-        <v>256330000</v>
+        <v>260704000</v>
       </c>
       <c r="F54" s="3">
-        <v>241795000</v>
+        <v>245920000</v>
       </c>
       <c r="G54" s="3">
-        <v>224423000</v>
+        <v>228252000</v>
       </c>
       <c r="H54" s="3">
-        <v>209313000</v>
+        <v>212885000</v>
       </c>
       <c r="I54" s="3">
-        <v>206196000</v>
+        <v>209714000</v>
       </c>
       <c r="J54" s="3">
-        <v>200750000</v>
+        <v>204175000</v>
       </c>
       <c r="K54" s="3">
         <v>203196000</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>620100</v>
+        <v>630700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42129900</v>
+        <v>42848800</v>
       </c>
       <c r="E58" s="3">
-        <v>31968500</v>
+        <v>32513900</v>
       </c>
       <c r="F58" s="3">
-        <v>25624300</v>
+        <v>26061500</v>
       </c>
       <c r="G58" s="3">
-        <v>28845800</v>
+        <v>29338000</v>
       </c>
       <c r="H58" s="3">
-        <v>19220900</v>
+        <v>19548800</v>
       </c>
       <c r="I58" s="3">
-        <v>23912500</v>
+        <v>24320500</v>
       </c>
       <c r="J58" s="3">
-        <v>25471100</v>
+        <v>25905600</v>
       </c>
       <c r="K58" s="3">
         <v>20651900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>603400</v>
+        <v>613000</v>
       </c>
       <c r="E59" s="3">
-        <v>511100</v>
+        <v>519900</v>
       </c>
       <c r="F59" s="3">
-        <v>415800</v>
+        <v>422900</v>
       </c>
       <c r="G59" s="3">
-        <v>486400</v>
+        <v>494700</v>
       </c>
       <c r="H59" s="3">
-        <v>482100</v>
+        <v>490300</v>
       </c>
       <c r="I59" s="3">
-        <v>463700</v>
+        <v>471600</v>
       </c>
       <c r="J59" s="3">
-        <v>1109800</v>
+        <v>1128700</v>
       </c>
       <c r="K59" s="3">
         <v>1262200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39884900</v>
+        <v>52779400</v>
       </c>
       <c r="E61" s="3">
-        <v>43627300</v>
+        <v>44371600</v>
       </c>
       <c r="F61" s="3">
-        <v>47720200</v>
+        <v>48534400</v>
       </c>
       <c r="G61" s="3">
-        <v>55227400</v>
+        <v>56169700</v>
       </c>
       <c r="H61" s="3">
-        <v>58982700</v>
+        <v>59989100</v>
       </c>
       <c r="I61" s="3">
-        <v>57947400</v>
+        <v>58936100</v>
       </c>
       <c r="J61" s="3">
-        <v>56520500</v>
+        <v>57484800</v>
       </c>
       <c r="K61" s="3">
         <v>60174400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>613900</v>
+        <v>2790100</v>
       </c>
       <c r="E62" s="3">
-        <v>734800</v>
+        <v>747300</v>
       </c>
       <c r="F62" s="3">
-        <v>855800</v>
+        <v>870400</v>
       </c>
       <c r="G62" s="3">
-        <v>1205000</v>
+        <v>1225600</v>
       </c>
       <c r="H62" s="3">
-        <v>830500</v>
+        <v>844700</v>
       </c>
       <c r="I62" s="3">
-        <v>718500</v>
+        <v>730800</v>
       </c>
       <c r="J62" s="3">
-        <v>549600</v>
+        <v>559000</v>
       </c>
       <c r="K62" s="3">
         <v>489100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>249639000</v>
+        <v>253877000</v>
       </c>
       <c r="E66" s="3">
-        <v>241264000</v>
+        <v>245380000</v>
       </c>
       <c r="F66" s="3">
-        <v>227335000</v>
+        <v>231213000</v>
       </c>
       <c r="G66" s="3">
-        <v>211506000</v>
+        <v>215115000</v>
       </c>
       <c r="H66" s="3">
-        <v>196509000</v>
+        <v>199862000</v>
       </c>
       <c r="I66" s="3">
-        <v>193767000</v>
+        <v>197073000</v>
       </c>
       <c r="J66" s="3">
-        <v>188681000</v>
+        <v>191900000</v>
       </c>
       <c r="K66" s="3">
         <v>191549000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12102800</v>
+        <v>15842500</v>
       </c>
       <c r="E72" s="3">
-        <v>10935400</v>
+        <v>11122000</v>
       </c>
       <c r="F72" s="3">
-        <v>10757200</v>
+        <v>10940700</v>
       </c>
       <c r="G72" s="3">
-        <v>9144200</v>
+        <v>9300200</v>
       </c>
       <c r="H72" s="3">
-        <v>9061500</v>
+        <v>9216100</v>
       </c>
       <c r="I72" s="3">
-        <v>8749300</v>
+        <v>8898600</v>
       </c>
       <c r="J72" s="3">
-        <v>8052200</v>
+        <v>8189600</v>
       </c>
       <c r="K72" s="3">
         <v>7643800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16407300</v>
+        <v>16686100</v>
       </c>
       <c r="E76" s="3">
-        <v>15066000</v>
+        <v>15323100</v>
       </c>
       <c r="F76" s="3">
-        <v>14460100</v>
+        <v>14706800</v>
       </c>
       <c r="G76" s="3">
-        <v>12916900</v>
+        <v>13137300</v>
       </c>
       <c r="H76" s="3">
-        <v>12803900</v>
+        <v>13022400</v>
       </c>
       <c r="I76" s="3">
-        <v>12428900</v>
+        <v>12641000</v>
       </c>
       <c r="J76" s="3">
-        <v>12069500</v>
+        <v>12275400</v>
       </c>
       <c r="K76" s="3">
         <v>11646300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2038700</v>
+        <v>2071200</v>
       </c>
       <c r="E81" s="3">
-        <v>1945000</v>
+        <v>1978200</v>
       </c>
       <c r="F81" s="3">
-        <v>1204900</v>
+        <v>1225400</v>
       </c>
       <c r="G81" s="3">
-        <v>1835600</v>
+        <v>1866900</v>
       </c>
       <c r="H81" s="3">
-        <v>1972100</v>
+        <v>2005700</v>
       </c>
       <c r="I81" s="3">
-        <v>1803200</v>
+        <v>1834000</v>
       </c>
       <c r="J81" s="3">
-        <v>1820800</v>
+        <v>1851900</v>
       </c>
       <c r="K81" s="3">
         <v>1487100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>262800</v>
+        <v>267300</v>
       </c>
       <c r="E83" s="3">
-        <v>157200</v>
+        <v>159900</v>
       </c>
       <c r="F83" s="3">
-        <v>147200</v>
+        <v>149800</v>
       </c>
       <c r="G83" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="H83" s="3">
-        <v>92500</v>
+        <v>94100</v>
       </c>
       <c r="I83" s="3">
-        <v>72300</v>
+        <v>73500</v>
       </c>
       <c r="J83" s="3">
-        <v>61900</v>
+        <v>62900</v>
       </c>
       <c r="K83" s="3">
         <v>88500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1735200</v>
+        <v>-1764800</v>
       </c>
       <c r="E89" s="3">
-        <v>4604400</v>
+        <v>4683000</v>
       </c>
       <c r="F89" s="3">
-        <v>10179800</v>
+        <v>10353500</v>
       </c>
       <c r="G89" s="3">
-        <v>3538200</v>
+        <v>3598600</v>
       </c>
       <c r="H89" s="3">
-        <v>2528600</v>
+        <v>2571800</v>
       </c>
       <c r="I89" s="3">
-        <v>5293600</v>
+        <v>5383900</v>
       </c>
       <c r="J89" s="3">
-        <v>-4999200</v>
+        <v>-5084500</v>
       </c>
       <c r="K89" s="3">
         <v>6707300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33800</v>
+        <v>-34400</v>
       </c>
       <c r="E91" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="F91" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="G91" s="3">
-        <v>-20900</v>
+        <v>-21200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1427800</v>
+        <v>-1452100</v>
       </c>
       <c r="I91" s="3">
-        <v>-47000</v>
+        <v>-47800</v>
       </c>
       <c r="J91" s="3">
-        <v>-42000</v>
+        <v>-42700</v>
       </c>
       <c r="K91" s="3">
         <v>-385300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>64400</v>
+        <v>65500</v>
       </c>
       <c r="E94" s="3">
-        <v>58500</v>
+        <v>59500</v>
       </c>
       <c r="F94" s="3">
-        <v>128900</v>
+        <v>131100</v>
       </c>
       <c r="G94" s="3">
-        <v>92700</v>
+        <v>94300</v>
       </c>
       <c r="H94" s="3">
-        <v>155700</v>
+        <v>158400</v>
       </c>
       <c r="I94" s="3">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="J94" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="K94" s="3">
         <v>-214700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1177200</v>
+        <v>-1197300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1519900</v>
+        <v>-1545900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1479700</v>
+        <v>-1504900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1352800</v>
+        <v>-1375900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1369800</v>
+        <v>-1393200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1107600</v>
+        <v>-1126500</v>
       </c>
       <c r="K96" s="3">
         <v>-1186200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>933300</v>
+        <v>949200</v>
       </c>
       <c r="E100" s="3">
-        <v>1318700</v>
+        <v>1341200</v>
       </c>
       <c r="F100" s="3">
-        <v>-810600</v>
+        <v>-824400</v>
       </c>
       <c r="G100" s="3">
-        <v>-759200</v>
+        <v>-772200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6418500</v>
+        <v>-6528000</v>
       </c>
       <c r="I100" s="3">
-        <v>1916900</v>
+        <v>1949600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1299900</v>
+        <v>-1322100</v>
       </c>
       <c r="K100" s="3">
         <v>494400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1281600</v>
+        <v>1303500</v>
       </c>
       <c r="E101" s="3">
-        <v>200700</v>
+        <v>204200</v>
       </c>
       <c r="F101" s="3">
-        <v>-316600</v>
+        <v>-322000</v>
       </c>
       <c r="G101" s="3">
-        <v>122000</v>
+        <v>124100</v>
       </c>
       <c r="H101" s="3">
-        <v>266500</v>
+        <v>271100</v>
       </c>
       <c r="I101" s="3">
-        <v>84200</v>
+        <v>85600</v>
       </c>
       <c r="J101" s="3">
-        <v>216500</v>
+        <v>220200</v>
       </c>
       <c r="K101" s="3">
         <v>-127300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>544100</v>
+        <v>553400</v>
       </c>
       <c r="E102" s="3">
-        <v>6182400</v>
+        <v>6287900</v>
       </c>
       <c r="F102" s="3">
-        <v>9181500</v>
+        <v>9338200</v>
       </c>
       <c r="G102" s="3">
-        <v>2993700</v>
+        <v>3044800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3467600</v>
+        <v>-3526800</v>
       </c>
       <c r="I102" s="3">
-        <v>7364200</v>
+        <v>7489900</v>
       </c>
       <c r="J102" s="3">
-        <v>-6054100</v>
+        <v>-6157400</v>
       </c>
       <c r="K102" s="3">
         <v>6859800</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4293000</v>
+        <v>4137200</v>
       </c>
       <c r="E8" s="3">
-        <v>2877900</v>
+        <v>2773400</v>
       </c>
       <c r="F8" s="3">
-        <v>3202700</v>
+        <v>3086500</v>
       </c>
       <c r="G8" s="3">
-        <v>3352400</v>
+        <v>3230700</v>
       </c>
       <c r="H8" s="3">
-        <v>3228000</v>
+        <v>3110900</v>
       </c>
       <c r="I8" s="3">
-        <v>3050800</v>
+        <v>2940100</v>
       </c>
       <c r="J8" s="3">
-        <v>2973300</v>
+        <v>2865400</v>
       </c>
       <c r="K8" s="3">
         <v>3308000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-282400</v>
+        <v>-272200</v>
       </c>
       <c r="E15" s="3">
-        <v>-154600</v>
+        <v>-149000</v>
       </c>
       <c r="F15" s="3">
-        <v>-149800</v>
+        <v>-144300</v>
       </c>
       <c r="G15" s="3">
-        <v>-147000</v>
+        <v>-141700</v>
       </c>
       <c r="H15" s="3">
-        <v>-65000</v>
+        <v>-62700</v>
       </c>
       <c r="I15" s="3">
-        <v>-83000</v>
+        <v>-80000</v>
       </c>
       <c r="J15" s="3">
-        <v>-59600</v>
+        <v>-57500</v>
       </c>
       <c r="K15" s="3">
         <v>-63500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1290900</v>
+        <v>1244100</v>
       </c>
       <c r="E17" s="3">
-        <v>330400</v>
+        <v>318400</v>
       </c>
       <c r="F17" s="3">
-        <v>1068400</v>
+        <v>1029600</v>
       </c>
       <c r="G17" s="3">
-        <v>1028400</v>
+        <v>991000</v>
       </c>
       <c r="H17" s="3">
-        <v>886300</v>
+        <v>854100</v>
       </c>
       <c r="I17" s="3">
-        <v>841500</v>
+        <v>810900</v>
       </c>
       <c r="J17" s="3">
-        <v>937200</v>
+        <v>903200</v>
       </c>
       <c r="K17" s="3">
         <v>1189900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3002100</v>
+        <v>2893100</v>
       </c>
       <c r="E18" s="3">
-        <v>2547500</v>
+        <v>2455000</v>
       </c>
       <c r="F18" s="3">
-        <v>2134400</v>
+        <v>2056900</v>
       </c>
       <c r="G18" s="3">
-        <v>2324000</v>
+        <v>2239700</v>
       </c>
       <c r="H18" s="3">
-        <v>2341700</v>
+        <v>2256700</v>
       </c>
       <c r="I18" s="3">
-        <v>2209300</v>
+        <v>2129100</v>
       </c>
       <c r="J18" s="3">
-        <v>2036200</v>
+        <v>1962300</v>
       </c>
       <c r="K18" s="3">
         <v>2118000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-411700</v>
+        <v>-396800</v>
       </c>
       <c r="E20" s="3">
-        <v>-100600</v>
+        <v>-96900</v>
       </c>
       <c r="F20" s="3">
-        <v>-543900</v>
+        <v>-524200</v>
       </c>
       <c r="G20" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="H20" s="3">
-        <v>174900</v>
+        <v>168500</v>
       </c>
       <c r="I20" s="3">
-        <v>94500</v>
+        <v>91100</v>
       </c>
       <c r="J20" s="3">
-        <v>215900</v>
+        <v>208100</v>
       </c>
       <c r="K20" s="3">
         <v>-191800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2860300</v>
+        <v>2753900</v>
       </c>
       <c r="E21" s="3">
-        <v>2608400</v>
+        <v>2512200</v>
       </c>
       <c r="F21" s="3">
-        <v>1741700</v>
+        <v>1677000</v>
       </c>
       <c r="G21" s="3">
-        <v>2471100</v>
+        <v>2380000</v>
       </c>
       <c r="H21" s="3">
-        <v>2611700</v>
+        <v>2516000</v>
       </c>
       <c r="I21" s="3">
-        <v>2378100</v>
+        <v>2291100</v>
       </c>
       <c r="J21" s="3">
-        <v>2315600</v>
+        <v>2231000</v>
       </c>
       <c r="K21" s="3">
         <v>2012300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2590300</v>
+        <v>2496300</v>
       </c>
       <c r="E23" s="3">
-        <v>2446900</v>
+        <v>2358100</v>
       </c>
       <c r="F23" s="3">
-        <v>1590400</v>
+        <v>1532700</v>
       </c>
       <c r="G23" s="3">
-        <v>2314500</v>
+        <v>2230500</v>
       </c>
       <c r="H23" s="3">
-        <v>2516600</v>
+        <v>2425300</v>
       </c>
       <c r="I23" s="3">
-        <v>2303800</v>
+        <v>2220200</v>
       </c>
       <c r="J23" s="3">
-        <v>2252100</v>
+        <v>2170300</v>
       </c>
       <c r="K23" s="3">
         <v>1926300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>518800</v>
+        <v>500000</v>
       </c>
       <c r="E24" s="3">
-        <v>468700</v>
+        <v>451700</v>
       </c>
       <c r="F24" s="3">
-        <v>365000</v>
+        <v>351800</v>
       </c>
       <c r="G24" s="3">
-        <v>446500</v>
+        <v>430300</v>
       </c>
       <c r="H24" s="3">
-        <v>509300</v>
+        <v>490900</v>
       </c>
       <c r="I24" s="3">
-        <v>468500</v>
+        <v>451500</v>
       </c>
       <c r="J24" s="3">
-        <v>398900</v>
+        <v>384500</v>
       </c>
       <c r="K24" s="3">
         <v>437300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2071500</v>
+        <v>1996300</v>
       </c>
       <c r="E26" s="3">
-        <v>1978200</v>
+        <v>1906400</v>
       </c>
       <c r="F26" s="3">
-        <v>1225400</v>
+        <v>1180900</v>
       </c>
       <c r="G26" s="3">
-        <v>1868000</v>
+        <v>1800200</v>
       </c>
       <c r="H26" s="3">
-        <v>2007300</v>
+        <v>1934400</v>
       </c>
       <c r="I26" s="3">
-        <v>1835300</v>
+        <v>1768700</v>
       </c>
       <c r="J26" s="3">
-        <v>1853100</v>
+        <v>1785900</v>
       </c>
       <c r="K26" s="3">
         <v>1488900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2071200</v>
+        <v>1996100</v>
       </c>
       <c r="E27" s="3">
-        <v>1978200</v>
+        <v>1906400</v>
       </c>
       <c r="F27" s="3">
-        <v>1225400</v>
+        <v>1180900</v>
       </c>
       <c r="G27" s="3">
-        <v>1866900</v>
+        <v>1799100</v>
       </c>
       <c r="H27" s="3">
-        <v>2005700</v>
+        <v>1932900</v>
       </c>
       <c r="I27" s="3">
-        <v>1834000</v>
+        <v>1767400</v>
       </c>
       <c r="J27" s="3">
-        <v>1851900</v>
+        <v>1784700</v>
       </c>
       <c r="K27" s="3">
         <v>1487700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>411700</v>
+        <v>396800</v>
       </c>
       <c r="E32" s="3">
-        <v>100600</v>
+        <v>96900</v>
       </c>
       <c r="F32" s="3">
-        <v>543900</v>
+        <v>524200</v>
       </c>
       <c r="G32" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H32" s="3">
-        <v>-174900</v>
+        <v>-168500</v>
       </c>
       <c r="I32" s="3">
-        <v>-94500</v>
+        <v>-91100</v>
       </c>
       <c r="J32" s="3">
-        <v>-215900</v>
+        <v>-208100</v>
       </c>
       <c r="K32" s="3">
         <v>191800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2071200</v>
+        <v>1996100</v>
       </c>
       <c r="E33" s="3">
-        <v>1978200</v>
+        <v>1906400</v>
       </c>
       <c r="F33" s="3">
-        <v>1225400</v>
+        <v>1180900</v>
       </c>
       <c r="G33" s="3">
-        <v>1866900</v>
+        <v>1799100</v>
       </c>
       <c r="H33" s="3">
-        <v>2005700</v>
+        <v>1932900</v>
       </c>
       <c r="I33" s="3">
-        <v>1834000</v>
+        <v>1767400</v>
       </c>
       <c r="J33" s="3">
-        <v>1851900</v>
+        <v>1784700</v>
       </c>
       <c r="K33" s="3">
         <v>1487100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2071200</v>
+        <v>1996100</v>
       </c>
       <c r="E35" s="3">
-        <v>1978200</v>
+        <v>1906400</v>
       </c>
       <c r="F35" s="3">
-        <v>1225400</v>
+        <v>1180900</v>
       </c>
       <c r="G35" s="3">
-        <v>1866900</v>
+        <v>1799100</v>
       </c>
       <c r="H35" s="3">
-        <v>2005700</v>
+        <v>1932900</v>
       </c>
       <c r="I35" s="3">
-        <v>1834000</v>
+        <v>1767400</v>
       </c>
       <c r="J35" s="3">
-        <v>1851900</v>
+        <v>1784700</v>
       </c>
       <c r="K35" s="3">
         <v>1487100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40052200</v>
+        <v>38598500</v>
       </c>
       <c r="E41" s="3">
-        <v>37748400</v>
+        <v>36378300</v>
       </c>
       <c r="F41" s="3">
-        <v>31022500</v>
+        <v>29896600</v>
       </c>
       <c r="G41" s="3">
-        <v>22381800</v>
+        <v>21569500</v>
       </c>
       <c r="H41" s="3">
-        <v>18529800</v>
+        <v>17857200</v>
       </c>
       <c r="I41" s="3">
-        <v>21544000</v>
+        <v>20762000</v>
       </c>
       <c r="J41" s="3">
-        <v>14472100</v>
+        <v>13946900</v>
       </c>
       <c r="K41" s="3">
         <v>25624900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46224200</v>
+        <v>44546500</v>
       </c>
       <c r="E42" s="3">
-        <v>53934900</v>
+        <v>51977400</v>
       </c>
       <c r="F42" s="3">
-        <v>48725400</v>
+        <v>46956900</v>
       </c>
       <c r="G42" s="3">
-        <v>43804000</v>
+        <v>42214200</v>
       </c>
       <c r="H42" s="3">
-        <v>34575700</v>
+        <v>33320800</v>
       </c>
       <c r="I42" s="3">
-        <v>35164600</v>
+        <v>33888300</v>
       </c>
       <c r="J42" s="3">
-        <v>47519700</v>
+        <v>45795000</v>
       </c>
       <c r="K42" s="3">
         <v>42477400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>742100</v>
+        <v>715200</v>
       </c>
       <c r="E47" s="3">
-        <v>730300</v>
+        <v>703800</v>
       </c>
       <c r="F47" s="3">
-        <v>690700</v>
+        <v>665600</v>
       </c>
       <c r="G47" s="3">
-        <v>633000</v>
+        <v>610100</v>
       </c>
       <c r="H47" s="3">
-        <v>577000</v>
+        <v>556100</v>
       </c>
       <c r="I47" s="3">
-        <v>602500</v>
+        <v>580600</v>
       </c>
       <c r="J47" s="3">
-        <v>693700</v>
+        <v>668500</v>
       </c>
       <c r="K47" s="3">
         <v>508900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1032900</v>
+        <v>995400</v>
       </c>
       <c r="E48" s="3">
-        <v>523500</v>
+        <v>504500</v>
       </c>
       <c r="F48" s="3">
-        <v>513800</v>
+        <v>495200</v>
       </c>
       <c r="G48" s="3">
-        <v>528100</v>
+        <v>508900</v>
       </c>
       <c r="H48" s="3">
-        <v>186300</v>
+        <v>179600</v>
       </c>
       <c r="I48" s="3">
-        <v>185300</v>
+        <v>178600</v>
       </c>
       <c r="J48" s="3">
-        <v>176700</v>
+        <v>170300</v>
       </c>
       <c r="K48" s="3">
         <v>188100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3626400</v>
+        <v>3494800</v>
       </c>
       <c r="E49" s="3">
-        <v>1847100</v>
+        <v>1780000</v>
       </c>
       <c r="F49" s="3">
-        <v>1740300</v>
+        <v>1677100</v>
       </c>
       <c r="G49" s="3">
-        <v>1693100</v>
+        <v>1631700</v>
       </c>
       <c r="H49" s="3">
-        <v>1622400</v>
+        <v>1563600</v>
       </c>
       <c r="I49" s="3">
-        <v>1547700</v>
+        <v>1491500</v>
       </c>
       <c r="J49" s="3">
-        <v>1353400</v>
+        <v>1304200</v>
       </c>
       <c r="K49" s="3">
         <v>1294500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>245500</v>
+        <v>236600</v>
       </c>
       <c r="E52" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="F52" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="G52" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="H52" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>15800</v>
       </c>
       <c r="J52" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="K52" s="3">
         <v>152600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>270563000</v>
+        <v>260743000</v>
       </c>
       <c r="E54" s="3">
-        <v>260704000</v>
+        <v>251241000</v>
       </c>
       <c r="F54" s="3">
-        <v>245920000</v>
+        <v>236995000</v>
       </c>
       <c r="G54" s="3">
-        <v>228252000</v>
+        <v>219968000</v>
       </c>
       <c r="H54" s="3">
-        <v>212885000</v>
+        <v>205158000</v>
       </c>
       <c r="I54" s="3">
-        <v>209714000</v>
+        <v>202102000</v>
       </c>
       <c r="J54" s="3">
-        <v>204175000</v>
+        <v>196765000</v>
       </c>
       <c r="K54" s="3">
         <v>203196000</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>630700</v>
+        <v>607800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42848800</v>
+        <v>41293600</v>
       </c>
       <c r="E58" s="3">
-        <v>32513900</v>
+        <v>31333800</v>
       </c>
       <c r="F58" s="3">
-        <v>26061500</v>
+        <v>25115600</v>
       </c>
       <c r="G58" s="3">
-        <v>29338000</v>
+        <v>28273200</v>
       </c>
       <c r="H58" s="3">
-        <v>19548800</v>
+        <v>18839300</v>
       </c>
       <c r="I58" s="3">
-        <v>24320500</v>
+        <v>23437800</v>
       </c>
       <c r="J58" s="3">
-        <v>25905600</v>
+        <v>24965400</v>
       </c>
       <c r="K58" s="3">
         <v>20651900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>613000</v>
+        <v>590800</v>
       </c>
       <c r="E59" s="3">
-        <v>519900</v>
+        <v>501000</v>
       </c>
       <c r="F59" s="3">
-        <v>422900</v>
+        <v>407600</v>
       </c>
       <c r="G59" s="3">
-        <v>494700</v>
+        <v>476700</v>
       </c>
       <c r="H59" s="3">
-        <v>490300</v>
+        <v>472500</v>
       </c>
       <c r="I59" s="3">
-        <v>471600</v>
+        <v>454500</v>
       </c>
       <c r="J59" s="3">
-        <v>1128700</v>
+        <v>1087800</v>
       </c>
       <c r="K59" s="3">
         <v>1262200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52779400</v>
+        <v>50863800</v>
       </c>
       <c r="E61" s="3">
-        <v>44371600</v>
+        <v>42761200</v>
       </c>
       <c r="F61" s="3">
-        <v>48534400</v>
+        <v>46772800</v>
       </c>
       <c r="G61" s="3">
-        <v>56169700</v>
+        <v>54131000</v>
       </c>
       <c r="H61" s="3">
-        <v>59989100</v>
+        <v>57811800</v>
       </c>
       <c r="I61" s="3">
-        <v>58936100</v>
+        <v>56797000</v>
       </c>
       <c r="J61" s="3">
-        <v>57484800</v>
+        <v>55398400</v>
       </c>
       <c r="K61" s="3">
         <v>60174400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2790100</v>
+        <v>2688900</v>
       </c>
       <c r="E62" s="3">
-        <v>747300</v>
+        <v>720200</v>
       </c>
       <c r="F62" s="3">
-        <v>870400</v>
+        <v>838800</v>
       </c>
       <c r="G62" s="3">
-        <v>1225600</v>
+        <v>1181100</v>
       </c>
       <c r="H62" s="3">
-        <v>844700</v>
+        <v>814000</v>
       </c>
       <c r="I62" s="3">
-        <v>730800</v>
+        <v>704200</v>
       </c>
       <c r="J62" s="3">
-        <v>559000</v>
+        <v>538700</v>
       </c>
       <c r="K62" s="3">
         <v>489100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>253877000</v>
+        <v>244663000</v>
       </c>
       <c r="E66" s="3">
-        <v>245380000</v>
+        <v>236474000</v>
       </c>
       <c r="F66" s="3">
-        <v>231213000</v>
+        <v>222822000</v>
       </c>
       <c r="G66" s="3">
-        <v>215115000</v>
+        <v>207307000</v>
       </c>
       <c r="H66" s="3">
-        <v>199862000</v>
+        <v>192608000</v>
       </c>
       <c r="I66" s="3">
-        <v>197073000</v>
+        <v>189920000</v>
       </c>
       <c r="J66" s="3">
-        <v>191900000</v>
+        <v>184935000</v>
       </c>
       <c r="K66" s="3">
         <v>191549000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15842500</v>
+        <v>15267500</v>
       </c>
       <c r="E72" s="3">
-        <v>11122000</v>
+        <v>10718300</v>
       </c>
       <c r="F72" s="3">
-        <v>10940700</v>
+        <v>10543700</v>
       </c>
       <c r="G72" s="3">
-        <v>9300200</v>
+        <v>8962600</v>
       </c>
       <c r="H72" s="3">
-        <v>9216100</v>
+        <v>8881600</v>
       </c>
       <c r="I72" s="3">
-        <v>8898600</v>
+        <v>8575600</v>
       </c>
       <c r="J72" s="3">
-        <v>8189600</v>
+        <v>7892300</v>
       </c>
       <c r="K72" s="3">
         <v>7643800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16686100</v>
+        <v>16080500</v>
       </c>
       <c r="E76" s="3">
-        <v>15323100</v>
+        <v>14766900</v>
       </c>
       <c r="F76" s="3">
-        <v>14706800</v>
+        <v>14173000</v>
       </c>
       <c r="G76" s="3">
-        <v>13137300</v>
+        <v>12660500</v>
       </c>
       <c r="H76" s="3">
-        <v>13022400</v>
+        <v>12549800</v>
       </c>
       <c r="I76" s="3">
-        <v>12641000</v>
+        <v>12182200</v>
       </c>
       <c r="J76" s="3">
-        <v>12275400</v>
+        <v>11829900</v>
       </c>
       <c r="K76" s="3">
         <v>11646300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2071200</v>
+        <v>1996100</v>
       </c>
       <c r="E81" s="3">
-        <v>1978200</v>
+        <v>1906400</v>
       </c>
       <c r="F81" s="3">
-        <v>1225400</v>
+        <v>1180900</v>
       </c>
       <c r="G81" s="3">
-        <v>1866900</v>
+        <v>1799100</v>
       </c>
       <c r="H81" s="3">
-        <v>2005700</v>
+        <v>1932900</v>
       </c>
       <c r="I81" s="3">
-        <v>1834000</v>
+        <v>1767400</v>
       </c>
       <c r="J81" s="3">
-        <v>1851900</v>
+        <v>1784700</v>
       </c>
       <c r="K81" s="3">
         <v>1487100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>267300</v>
+        <v>257600</v>
       </c>
       <c r="E83" s="3">
-        <v>159900</v>
+        <v>154100</v>
       </c>
       <c r="F83" s="3">
-        <v>149800</v>
+        <v>144300</v>
       </c>
       <c r="G83" s="3">
-        <v>155100</v>
+        <v>149400</v>
       </c>
       <c r="H83" s="3">
-        <v>94100</v>
+        <v>90700</v>
       </c>
       <c r="I83" s="3">
-        <v>73500</v>
+        <v>70900</v>
       </c>
       <c r="J83" s="3">
-        <v>62900</v>
+        <v>60600</v>
       </c>
       <c r="K83" s="3">
         <v>88500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1764800</v>
+        <v>-1700800</v>
       </c>
       <c r="E89" s="3">
-        <v>4683000</v>
+        <v>4513000</v>
       </c>
       <c r="F89" s="3">
-        <v>10353500</v>
+        <v>9977700</v>
       </c>
       <c r="G89" s="3">
-        <v>3598600</v>
+        <v>3468000</v>
       </c>
       <c r="H89" s="3">
-        <v>2571800</v>
+        <v>2478400</v>
       </c>
       <c r="I89" s="3">
-        <v>5383900</v>
+        <v>5188500</v>
       </c>
       <c r="J89" s="3">
-        <v>-5084500</v>
+        <v>-4899900</v>
       </c>
       <c r="K89" s="3">
         <v>6707300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34400</v>
+        <v>-33200</v>
       </c>
       <c r="E91" s="3">
-        <v>-24000</v>
+        <v>-23100</v>
       </c>
       <c r="F91" s="3">
-        <v>-34500</v>
+        <v>-33200</v>
       </c>
       <c r="G91" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1452100</v>
+        <v>-1399400</v>
       </c>
       <c r="I91" s="3">
-        <v>-47800</v>
+        <v>-46000</v>
       </c>
       <c r="J91" s="3">
-        <v>-42700</v>
+        <v>-41200</v>
       </c>
       <c r="K91" s="3">
         <v>-385300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>65500</v>
+        <v>63100</v>
       </c>
       <c r="E94" s="3">
-        <v>59500</v>
+        <v>57400</v>
       </c>
       <c r="F94" s="3">
-        <v>131100</v>
+        <v>126300</v>
       </c>
       <c r="G94" s="3">
-        <v>94300</v>
+        <v>90900</v>
       </c>
       <c r="H94" s="3">
-        <v>158400</v>
+        <v>152600</v>
       </c>
       <c r="I94" s="3">
-        <v>70800</v>
+        <v>68200</v>
       </c>
       <c r="J94" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="K94" s="3">
         <v>-214700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1197300</v>
+        <v>-1153800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1545900</v>
+        <v>-1489800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1504900</v>
+        <v>-1450300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1375900</v>
+        <v>-1326000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1393200</v>
+        <v>-1342600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1126500</v>
+        <v>-1085600</v>
       </c>
       <c r="K96" s="3">
         <v>-1186200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>949200</v>
+        <v>914800</v>
       </c>
       <c r="E100" s="3">
-        <v>1341200</v>
+        <v>1292600</v>
       </c>
       <c r="F100" s="3">
-        <v>-824400</v>
+        <v>-794500</v>
       </c>
       <c r="G100" s="3">
-        <v>-772200</v>
+        <v>-744100</v>
       </c>
       <c r="H100" s="3">
-        <v>-6528000</v>
+        <v>-6291000</v>
       </c>
       <c r="I100" s="3">
-        <v>1949600</v>
+        <v>1878900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1322100</v>
+        <v>-1274100</v>
       </c>
       <c r="K100" s="3">
         <v>494400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1303500</v>
+        <v>1256200</v>
       </c>
       <c r="E101" s="3">
-        <v>204200</v>
+        <v>196700</v>
       </c>
       <c r="F101" s="3">
-        <v>-322000</v>
+        <v>-310300</v>
       </c>
       <c r="G101" s="3">
-        <v>124100</v>
+        <v>119600</v>
       </c>
       <c r="H101" s="3">
-        <v>271100</v>
+        <v>261200</v>
       </c>
       <c r="I101" s="3">
-        <v>85600</v>
+        <v>82500</v>
       </c>
       <c r="J101" s="3">
-        <v>220200</v>
+        <v>212200</v>
       </c>
       <c r="K101" s="3">
         <v>-127300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>553400</v>
+        <v>533300</v>
       </c>
       <c r="E102" s="3">
-        <v>6287900</v>
+        <v>6059700</v>
       </c>
       <c r="F102" s="3">
-        <v>9338200</v>
+        <v>8999300</v>
       </c>
       <c r="G102" s="3">
-        <v>3044800</v>
+        <v>2934300</v>
       </c>
       <c r="H102" s="3">
-        <v>-3526800</v>
+        <v>-3398800</v>
       </c>
       <c r="I102" s="3">
-        <v>7489900</v>
+        <v>7218100</v>
       </c>
       <c r="J102" s="3">
-        <v>-6157400</v>
+        <v>-5933900</v>
       </c>
       <c r="K102" s="3">
         <v>6859800</v>

--- a/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWDBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4137200</v>
+        <v>4276000</v>
       </c>
       <c r="E8" s="3">
-        <v>2773400</v>
+        <v>2867000</v>
       </c>
       <c r="F8" s="3">
-        <v>3086500</v>
+        <v>3190500</v>
       </c>
       <c r="G8" s="3">
-        <v>3230700</v>
+        <v>3339600</v>
       </c>
       <c r="H8" s="3">
-        <v>3110900</v>
+        <v>3215800</v>
       </c>
       <c r="I8" s="3">
-        <v>2940100</v>
+        <v>3039200</v>
       </c>
       <c r="J8" s="3">
-        <v>2865400</v>
+        <v>2962000</v>
       </c>
       <c r="K8" s="3">
         <v>3308000</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-272200</v>
+        <v>-281400</v>
       </c>
       <c r="E15" s="3">
-        <v>-149000</v>
+        <v>-154000</v>
       </c>
       <c r="F15" s="3">
-        <v>-144300</v>
+        <v>-149200</v>
       </c>
       <c r="G15" s="3">
-        <v>-141700</v>
+        <v>-146400</v>
       </c>
       <c r="H15" s="3">
-        <v>-62700</v>
+        <v>-64800</v>
       </c>
       <c r="I15" s="3">
-        <v>-80000</v>
+        <v>-82700</v>
       </c>
       <c r="J15" s="3">
-        <v>-57500</v>
+        <v>-59400</v>
       </c>
       <c r="K15" s="3">
         <v>-63500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1244100</v>
+        <v>1286000</v>
       </c>
       <c r="E17" s="3">
-        <v>318400</v>
+        <v>329100</v>
       </c>
       <c r="F17" s="3">
-        <v>1029600</v>
+        <v>1064300</v>
       </c>
       <c r="G17" s="3">
-        <v>991000</v>
+        <v>1024500</v>
       </c>
       <c r="H17" s="3">
-        <v>854100</v>
+        <v>882900</v>
       </c>
       <c r="I17" s="3">
-        <v>810900</v>
+        <v>838300</v>
       </c>
       <c r="J17" s="3">
-        <v>903200</v>
+        <v>933600</v>
       </c>
       <c r="K17" s="3">
         <v>1189900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2893100</v>
+        <v>2990000</v>
       </c>
       <c r="E18" s="3">
-        <v>2455000</v>
+        <v>2537800</v>
       </c>
       <c r="F18" s="3">
-        <v>2056900</v>
+        <v>2126200</v>
       </c>
       <c r="G18" s="3">
-        <v>2239700</v>
+        <v>2315200</v>
       </c>
       <c r="H18" s="3">
-        <v>2256700</v>
+        <v>2332800</v>
       </c>
       <c r="I18" s="3">
-        <v>2129100</v>
+        <v>2200900</v>
       </c>
       <c r="J18" s="3">
-        <v>1962300</v>
+        <v>2028400</v>
       </c>
       <c r="K18" s="3">
         <v>2118000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-396800</v>
+        <v>-463000</v>
       </c>
       <c r="E20" s="3">
-        <v>-96900</v>
+        <v>-100200</v>
       </c>
       <c r="F20" s="3">
-        <v>-524200</v>
+        <v>-541900</v>
       </c>
       <c r="G20" s="3">
-        <v>-9100</v>
+        <v>-9400</v>
       </c>
       <c r="H20" s="3">
-        <v>168500</v>
+        <v>174200</v>
       </c>
       <c r="I20" s="3">
-        <v>91100</v>
+        <v>94100</v>
       </c>
       <c r="J20" s="3">
-        <v>208100</v>
+        <v>215100</v>
       </c>
       <c r="K20" s="3">
         <v>-191800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2753900</v>
+        <v>2794300</v>
       </c>
       <c r="E21" s="3">
-        <v>2512200</v>
+        <v>2597600</v>
       </c>
       <c r="F21" s="3">
-        <v>1677000</v>
+        <v>1734200</v>
       </c>
       <c r="G21" s="3">
-        <v>2380000</v>
+        <v>2460800</v>
       </c>
       <c r="H21" s="3">
-        <v>2516000</v>
+        <v>2601200</v>
       </c>
       <c r="I21" s="3">
-        <v>2291100</v>
+        <v>2368600</v>
       </c>
       <c r="J21" s="3">
-        <v>2231000</v>
+        <v>2306500</v>
       </c>
       <c r="K21" s="3">
         <v>2012300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2496300</v>
+        <v>2527000</v>
       </c>
       <c r="E23" s="3">
-        <v>2358100</v>
+        <v>2437600</v>
       </c>
       <c r="F23" s="3">
-        <v>1532700</v>
+        <v>1584400</v>
       </c>
       <c r="G23" s="3">
-        <v>2230500</v>
+        <v>2305700</v>
       </c>
       <c r="H23" s="3">
-        <v>2425300</v>
+        <v>2507000</v>
       </c>
       <c r="I23" s="3">
-        <v>2220200</v>
+        <v>2295100</v>
       </c>
       <c r="J23" s="3">
-        <v>2170300</v>
+        <v>2243500</v>
       </c>
       <c r="K23" s="3">
         <v>1926300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500000</v>
+        <v>509400</v>
       </c>
       <c r="E24" s="3">
-        <v>451700</v>
+        <v>466900</v>
       </c>
       <c r="F24" s="3">
-        <v>351800</v>
+        <v>363600</v>
       </c>
       <c r="G24" s="3">
-        <v>430300</v>
+        <v>444800</v>
       </c>
       <c r="H24" s="3">
-        <v>490900</v>
+        <v>507400</v>
       </c>
       <c r="I24" s="3">
-        <v>451500</v>
+        <v>466700</v>
       </c>
       <c r="J24" s="3">
-        <v>384500</v>
+        <v>397400</v>
       </c>
       <c r="K24" s="3">
         <v>437300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1996300</v>
+        <v>2017600</v>
       </c>
       <c r="E26" s="3">
-        <v>1906400</v>
+        <v>1970700</v>
       </c>
       <c r="F26" s="3">
-        <v>1180900</v>
+        <v>1220800</v>
       </c>
       <c r="G26" s="3">
-        <v>1800200</v>
+        <v>1860900</v>
       </c>
       <c r="H26" s="3">
-        <v>1934400</v>
+        <v>1999600</v>
       </c>
       <c r="I26" s="3">
-        <v>1768700</v>
+        <v>1828300</v>
       </c>
       <c r="J26" s="3">
-        <v>1785900</v>
+        <v>1846100</v>
       </c>
       <c r="K26" s="3">
         <v>1488900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1996100</v>
+        <v>2017300</v>
       </c>
       <c r="E27" s="3">
-        <v>1906400</v>
+        <v>1970600</v>
       </c>
       <c r="F27" s="3">
-        <v>1180900</v>
+        <v>1220800</v>
       </c>
       <c r="G27" s="3">
-        <v>1799100</v>
+        <v>1859800</v>
       </c>
       <c r="H27" s="3">
-        <v>1932900</v>
+        <v>1998100</v>
       </c>
       <c r="I27" s="3">
-        <v>1767400</v>
+        <v>1827000</v>
       </c>
       <c r="J27" s="3">
-        <v>1784700</v>
+        <v>1844900</v>
       </c>
       <c r="K27" s="3">
         <v>1487700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>396800</v>
+        <v>463000</v>
       </c>
       <c r="E32" s="3">
-        <v>96900</v>
+        <v>100200</v>
       </c>
       <c r="F32" s="3">
-        <v>524200</v>
+        <v>541900</v>
       </c>
       <c r="G32" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H32" s="3">
-        <v>-168500</v>
+        <v>-174200</v>
       </c>
       <c r="I32" s="3">
-        <v>-91100</v>
+        <v>-94100</v>
       </c>
       <c r="J32" s="3">
-        <v>-208100</v>
+        <v>-215100</v>
       </c>
       <c r="K32" s="3">
         <v>191800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1996100</v>
+        <v>2017300</v>
       </c>
       <c r="E33" s="3">
-        <v>1906400</v>
+        <v>1970600</v>
       </c>
       <c r="F33" s="3">
-        <v>1180900</v>
+        <v>1220800</v>
       </c>
       <c r="G33" s="3">
-        <v>1799100</v>
+        <v>1859800</v>
       </c>
       <c r="H33" s="3">
-        <v>1932900</v>
+        <v>1998100</v>
       </c>
       <c r="I33" s="3">
-        <v>1767400</v>
+        <v>1827000</v>
       </c>
       <c r="J33" s="3">
-        <v>1784700</v>
+        <v>1844900</v>
       </c>
       <c r="K33" s="3">
         <v>1487100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1996100</v>
+        <v>2017300</v>
       </c>
       <c r="E35" s="3">
-        <v>1906400</v>
+        <v>1970600</v>
       </c>
       <c r="F35" s="3">
-        <v>1180900</v>
+        <v>1220800</v>
       </c>
       <c r="G35" s="3">
-        <v>1799100</v>
+        <v>1859800</v>
       </c>
       <c r="H35" s="3">
-        <v>1932900</v>
+        <v>1998100</v>
       </c>
       <c r="I35" s="3">
-        <v>1767400</v>
+        <v>1827000</v>
       </c>
       <c r="J35" s="3">
-        <v>1784700</v>
+        <v>1844900</v>
       </c>
       <c r="K35" s="3">
         <v>1487100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38598500</v>
+        <v>39900100</v>
       </c>
       <c r="E41" s="3">
-        <v>36378300</v>
+        <v>37605000</v>
       </c>
       <c r="F41" s="3">
-        <v>29896600</v>
+        <v>30904700</v>
       </c>
       <c r="G41" s="3">
-        <v>21569500</v>
+        <v>22296800</v>
       </c>
       <c r="H41" s="3">
-        <v>17857200</v>
+        <v>18459400</v>
       </c>
       <c r="I41" s="3">
-        <v>20762000</v>
+        <v>21462100</v>
       </c>
       <c r="J41" s="3">
-        <v>13946900</v>
+        <v>14417200</v>
       </c>
       <c r="K41" s="3">
         <v>25624900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44546500</v>
+        <v>46048600</v>
       </c>
       <c r="E42" s="3">
-        <v>51977400</v>
+        <v>53730100</v>
       </c>
       <c r="F42" s="3">
-        <v>46956900</v>
+        <v>48540300</v>
       </c>
       <c r="G42" s="3">
-        <v>42214200</v>
+        <v>43637600</v>
       </c>
       <c r="H42" s="3">
-        <v>33320800</v>
+        <v>34444400</v>
       </c>
       <c r="I42" s="3">
-        <v>33888300</v>
+        <v>35031000</v>
       </c>
       <c r="J42" s="3">
-        <v>45795000</v>
+        <v>47339200</v>
       </c>
       <c r="K42" s="3">
         <v>42477400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>715200</v>
+        <v>739300</v>
       </c>
       <c r="E47" s="3">
-        <v>703800</v>
+        <v>727500</v>
       </c>
       <c r="F47" s="3">
-        <v>665600</v>
+        <v>688000</v>
       </c>
       <c r="G47" s="3">
-        <v>610100</v>
+        <v>630600</v>
       </c>
       <c r="H47" s="3">
-        <v>556100</v>
+        <v>574800</v>
       </c>
       <c r="I47" s="3">
-        <v>580600</v>
+        <v>600200</v>
       </c>
       <c r="J47" s="3">
-        <v>668500</v>
+        <v>691100</v>
       </c>
       <c r="K47" s="3">
         <v>508900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>995400</v>
+        <v>1029000</v>
       </c>
       <c r="E48" s="3">
-        <v>504500</v>
+        <v>521500</v>
       </c>
       <c r="F48" s="3">
-        <v>495200</v>
+        <v>511900</v>
       </c>
       <c r="G48" s="3">
-        <v>508900</v>
+        <v>526100</v>
       </c>
       <c r="H48" s="3">
-        <v>179600</v>
+        <v>185600</v>
       </c>
       <c r="I48" s="3">
-        <v>178600</v>
+        <v>184600</v>
       </c>
       <c r="J48" s="3">
-        <v>170300</v>
+        <v>176000</v>
       </c>
       <c r="K48" s="3">
         <v>188100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3494800</v>
+        <v>3612600</v>
       </c>
       <c r="E49" s="3">
-        <v>1780000</v>
+        <v>1840100</v>
       </c>
       <c r="F49" s="3">
-        <v>1677100</v>
+        <v>1733600</v>
       </c>
       <c r="G49" s="3">
-        <v>1631700</v>
+        <v>1686700</v>
       </c>
       <c r="H49" s="3">
-        <v>1563600</v>
+        <v>1616300</v>
       </c>
       <c r="I49" s="3">
-        <v>1491500</v>
+        <v>1541800</v>
       </c>
       <c r="J49" s="3">
-        <v>1304200</v>
+        <v>1348200</v>
       </c>
       <c r="K49" s="3">
         <v>1294500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>236600</v>
+        <v>244500</v>
       </c>
       <c r="E52" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F52" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H52" s="3">
         <v>15500</v>
       </c>
-      <c r="H52" s="3">
-        <v>15000</v>
-      </c>
       <c r="I52" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="J52" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="K52" s="3">
         <v>152600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260743000</v>
+        <v>269536000</v>
       </c>
       <c r="E54" s="3">
-        <v>251241000</v>
+        <v>259713000</v>
       </c>
       <c r="F54" s="3">
-        <v>236995000</v>
+        <v>244986000</v>
       </c>
       <c r="G54" s="3">
-        <v>219968000</v>
+        <v>227385000</v>
       </c>
       <c r="H54" s="3">
-        <v>205158000</v>
+        <v>212076000</v>
       </c>
       <c r="I54" s="3">
-        <v>202102000</v>
+        <v>208917000</v>
       </c>
       <c r="J54" s="3">
-        <v>196765000</v>
+        <v>203400000</v>
       </c>
       <c r="K54" s="3">
         <v>203196000</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>607800</v>
+        <v>628300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41293600</v>
+        <v>42686100</v>
       </c>
       <c r="E58" s="3">
-        <v>31333800</v>
+        <v>32390400</v>
       </c>
       <c r="F58" s="3">
-        <v>25115600</v>
+        <v>25962500</v>
       </c>
       <c r="G58" s="3">
-        <v>28273200</v>
+        <v>29226600</v>
       </c>
       <c r="H58" s="3">
-        <v>18839300</v>
+        <v>19474600</v>
       </c>
       <c r="I58" s="3">
-        <v>23437800</v>
+        <v>24228100</v>
       </c>
       <c r="J58" s="3">
-        <v>24965400</v>
+        <v>25807300</v>
       </c>
       <c r="K58" s="3">
         <v>20651900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>590800</v>
+        <v>610700</v>
       </c>
       <c r="E59" s="3">
-        <v>501000</v>
+        <v>517900</v>
       </c>
       <c r="F59" s="3">
-        <v>407600</v>
+        <v>421300</v>
       </c>
       <c r="G59" s="3">
-        <v>476700</v>
+        <v>492800</v>
       </c>
       <c r="H59" s="3">
-        <v>472500</v>
+        <v>488400</v>
       </c>
       <c r="I59" s="3">
-        <v>454500</v>
+        <v>469800</v>
       </c>
       <c r="J59" s="3">
-        <v>1087800</v>
+        <v>1124400</v>
       </c>
       <c r="K59" s="3">
         <v>1262200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50863800</v>
+        <v>52578900</v>
       </c>
       <c r="E61" s="3">
-        <v>42761200</v>
+        <v>44203100</v>
       </c>
       <c r="F61" s="3">
-        <v>46772800</v>
+        <v>48350000</v>
       </c>
       <c r="G61" s="3">
-        <v>54131000</v>
+        <v>55956300</v>
       </c>
       <c r="H61" s="3">
-        <v>57811800</v>
+        <v>59761300</v>
       </c>
       <c r="I61" s="3">
-        <v>56797000</v>
+        <v>58712200</v>
       </c>
       <c r="J61" s="3">
-        <v>55398400</v>
+        <v>57266500</v>
       </c>
       <c r="K61" s="3">
         <v>60174400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2688900</v>
+        <v>2779500</v>
       </c>
       <c r="E62" s="3">
-        <v>720200</v>
+        <v>744500</v>
       </c>
       <c r="F62" s="3">
-        <v>838800</v>
+        <v>867100</v>
       </c>
       <c r="G62" s="3">
-        <v>1181100</v>
+        <v>1220900</v>
       </c>
       <c r="H62" s="3">
-        <v>814000</v>
+        <v>841500</v>
       </c>
       <c r="I62" s="3">
-        <v>704200</v>
+        <v>728000</v>
       </c>
       <c r="J62" s="3">
-        <v>538700</v>
+        <v>556900</v>
       </c>
       <c r="K62" s="3">
         <v>489100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>244663000</v>
+        <v>252913000</v>
       </c>
       <c r="E66" s="3">
-        <v>236474000</v>
+        <v>244448000</v>
       </c>
       <c r="F66" s="3">
-        <v>222822000</v>
+        <v>230335000</v>
       </c>
       <c r="G66" s="3">
-        <v>207307000</v>
+        <v>214298000</v>
       </c>
       <c r="H66" s="3">
-        <v>192608000</v>
+        <v>199103000</v>
       </c>
       <c r="I66" s="3">
-        <v>189920000</v>
+        <v>196324000</v>
       </c>
       <c r="J66" s="3">
-        <v>184935000</v>
+        <v>191171000</v>
       </c>
       <c r="K66" s="3">
         <v>191549000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15267500</v>
+        <v>15782300</v>
       </c>
       <c r="E72" s="3">
-        <v>10718300</v>
+        <v>11079700</v>
       </c>
       <c r="F72" s="3">
-        <v>10543700</v>
+        <v>10899200</v>
       </c>
       <c r="G72" s="3">
-        <v>8962600</v>
+        <v>9264900</v>
       </c>
       <c r="H72" s="3">
-        <v>8881600</v>
+        <v>9181100</v>
       </c>
       <c r="I72" s="3">
-        <v>8575600</v>
+        <v>8864800</v>
       </c>
       <c r="J72" s="3">
-        <v>7892300</v>
+        <v>8158500</v>
       </c>
       <c r="K72" s="3">
         <v>7643800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16080500</v>
+        <v>16622700</v>
       </c>
       <c r="E76" s="3">
-        <v>14766900</v>
+        <v>15264900</v>
       </c>
       <c r="F76" s="3">
-        <v>14173000</v>
+        <v>14651000</v>
       </c>
       <c r="G76" s="3">
-        <v>12660500</v>
+        <v>13087400</v>
       </c>
       <c r="H76" s="3">
-        <v>12549800</v>
+        <v>12972900</v>
       </c>
       <c r="I76" s="3">
-        <v>12182200</v>
+        <v>12593000</v>
       </c>
       <c r="J76" s="3">
-        <v>11829900</v>
+        <v>12228800</v>
       </c>
       <c r="K76" s="3">
         <v>11646300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1996100</v>
+        <v>2017300</v>
       </c>
       <c r="E81" s="3">
-        <v>1906400</v>
+        <v>1970600</v>
       </c>
       <c r="F81" s="3">
-        <v>1180900</v>
+        <v>1220800</v>
       </c>
       <c r="G81" s="3">
-        <v>1799100</v>
+        <v>1859800</v>
       </c>
       <c r="H81" s="3">
-        <v>1932900</v>
+        <v>1998100</v>
       </c>
       <c r="I81" s="3">
-        <v>1767400</v>
+        <v>1827000</v>
       </c>
       <c r="J81" s="3">
-        <v>1784700</v>
+        <v>1844900</v>
       </c>
       <c r="K81" s="3">
         <v>1487100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257600</v>
+        <v>266300</v>
       </c>
       <c r="E83" s="3">
-        <v>154100</v>
+        <v>159300</v>
       </c>
       <c r="F83" s="3">
-        <v>144300</v>
+        <v>149200</v>
       </c>
       <c r="G83" s="3">
-        <v>149400</v>
+        <v>154500</v>
       </c>
       <c r="H83" s="3">
-        <v>90700</v>
+        <v>93800</v>
       </c>
       <c r="I83" s="3">
-        <v>70900</v>
+        <v>73300</v>
       </c>
       <c r="J83" s="3">
-        <v>60600</v>
+        <v>62700</v>
       </c>
       <c r="K83" s="3">
         <v>88500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1700800</v>
+        <v>-1758100</v>
       </c>
       <c r="E89" s="3">
-        <v>4513000</v>
+        <v>4665200</v>
       </c>
       <c r="F89" s="3">
-        <v>9977700</v>
+        <v>10314200</v>
       </c>
       <c r="G89" s="3">
-        <v>3468000</v>
+        <v>3584900</v>
       </c>
       <c r="H89" s="3">
-        <v>2478400</v>
+        <v>2562000</v>
       </c>
       <c r="I89" s="3">
-        <v>5188500</v>
+        <v>5363400</v>
       </c>
       <c r="J89" s="3">
-        <v>-4899900</v>
+        <v>-5065200</v>
       </c>
       <c r="K89" s="3">
         <v>6707300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33200</v>
+        <v>-34300</v>
       </c>
       <c r="E91" s="3">
-        <v>-23100</v>
+        <v>-23900</v>
       </c>
       <c r="F91" s="3">
-        <v>-33200</v>
+        <v>-34400</v>
       </c>
       <c r="G91" s="3">
-        <v>-20500</v>
+        <v>-21200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1399400</v>
+        <v>-1446600</v>
       </c>
       <c r="I91" s="3">
-        <v>-46000</v>
+        <v>-47600</v>
       </c>
       <c r="J91" s="3">
-        <v>-41200</v>
+        <v>-42600</v>
       </c>
       <c r="K91" s="3">
         <v>-385300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>63100</v>
+        <v>65200</v>
       </c>
       <c r="E94" s="3">
-        <v>57400</v>
+        <v>59300</v>
       </c>
       <c r="F94" s="3">
-        <v>126300</v>
+        <v>130600</v>
       </c>
       <c r="G94" s="3">
-        <v>90900</v>
+        <v>93900</v>
       </c>
       <c r="H94" s="3">
-        <v>152600</v>
+        <v>157800</v>
       </c>
       <c r="I94" s="3">
-        <v>68200</v>
+        <v>70500</v>
       </c>
       <c r="J94" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="K94" s="3">
         <v>-214700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1153800</v>
+        <v>-1192700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1489800</v>
+        <v>-1540000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1450300</v>
+        <v>-1499200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1326000</v>
+        <v>-1370700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1342600</v>
+        <v>-1387900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1085600</v>
+        <v>-1122200</v>
       </c>
       <c r="K96" s="3">
         <v>-1186200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>914800</v>
+        <v>945600</v>
       </c>
       <c r="E100" s="3">
-        <v>1292600</v>
+        <v>1336100</v>
       </c>
       <c r="F100" s="3">
-        <v>-794500</v>
+        <v>-821300</v>
       </c>
       <c r="G100" s="3">
-        <v>-744100</v>
+        <v>-769200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6291000</v>
+        <v>-6503200</v>
       </c>
       <c r="I100" s="3">
-        <v>1878900</v>
+        <v>1942200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1274100</v>
+        <v>-1317100</v>
       </c>
       <c r="K100" s="3">
         <v>494400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1256200</v>
+        <v>1298600</v>
       </c>
       <c r="E101" s="3">
-        <v>196700</v>
+        <v>203400</v>
       </c>
       <c r="F101" s="3">
-        <v>-310300</v>
+        <v>-320700</v>
       </c>
       <c r="G101" s="3">
-        <v>119600</v>
+        <v>123600</v>
       </c>
       <c r="H101" s="3">
-        <v>261200</v>
+        <v>270000</v>
       </c>
       <c r="I101" s="3">
-        <v>82500</v>
+        <v>85300</v>
       </c>
       <c r="J101" s="3">
-        <v>212200</v>
+        <v>219300</v>
       </c>
       <c r="K101" s="3">
         <v>-127300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>533300</v>
+        <v>551300</v>
       </c>
       <c r="E102" s="3">
-        <v>6059700</v>
+        <v>6264000</v>
       </c>
       <c r="F102" s="3">
-        <v>8999300</v>
+        <v>9302700</v>
       </c>
       <c r="G102" s="3">
-        <v>2934300</v>
+        <v>3033200</v>
       </c>
       <c r="H102" s="3">
-        <v>-3398800</v>
+        <v>-3513400</v>
       </c>
       <c r="I102" s="3">
-        <v>7218100</v>
+        <v>7461400</v>
       </c>
       <c r="J102" s="3">
-        <v>-5933900</v>
+        <v>-6134000</v>
       </c>
       <c r="K102" s="3">
         <v>6859800</v>
